--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15560" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="620" yWindow="0" windowWidth="25540" windowHeight="15560" tabRatio="500" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="teaching" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="mentorship" sheetId="4" r:id="rId5"/>
     <sheet name="experience" sheetId="5" r:id="rId6"/>
     <sheet name="affiliations" sheetId="6" r:id="rId7"/>
-    <sheet name="affiliations2" sheetId="8" r:id="rId8"/>
+    <sheet name="current_work" sheetId="8" r:id="rId8"/>
+    <sheet name="software" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="284">
   <si>
     <t>data</t>
   </si>
@@ -712,6 +713,184 @@
   </si>
   <si>
     <t>San Luis Obispo California</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t>working_with</t>
+  </si>
+  <si>
+    <t>pic</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>Evapotranspiration Data Analysis</t>
+  </si>
+  <si>
+    <t>Dami Eyelade, Jeremy Neill, Dino Korac</t>
+  </si>
+  <si>
+    <t>resources/images/current_work/et.png</t>
+  </si>
+  <si>
+    <t>Four projects look into modeling evapotranspiration across a continuous spatial surface within the contexts of the HydroData package. Specifically (1) how DAYMET and Weather Underground data can be used to calculate PET at a daily timesteps for North America; (2) how the same process can be applied globally; (4) how values – analogous to the FAO crop coefficients – can be developed for all vegetated Anderson level 2 land covers and (4) how to decouple the effect of temperature on ET rates using observed streamflow records.</t>
+  </si>
+  <si>
+    <t>Flood Mapping</t>
+  </si>
+  <si>
+    <t>Jim Coll, Dinuke Munasinghe</t>
+  </si>
+  <si>
+    <t>resources/images/current_work/floodmapping.gif</t>
+  </si>
+  <si>
+    <t>Three projects look at the feasibility of real-time flood mapping using R and the National Water Model. The first (1) is to develop a system that allows GIS agencies throughout the country to install and run an hourly flood impacts models using the HAND methodology, the second (2) is to evaluate the accuracy of the HAND method against a repository of satellite derived flood extents and the third (3) is develop a filtering scheme to identify abnormally low and high flows in a NWM forecast allowing decision-makers and modelers to focus on areas that need attention.</t>
+  </si>
+  <si>
+    <t>Water Security</t>
+  </si>
+  <si>
+    <t>Using Text-based Analysis to Simplify the Water Security Paradigm</t>
+  </si>
+  <si>
+    <t>Keith Clarke</t>
+  </si>
+  <si>
+    <t>Over the last 25 years the concept of water security has gained in popularity, but its meaning remains ambiguous despite several attempts to articulate a unified definition. This project seeks to better understand water security through a quantitative, text-based analysis of the literature to remove linguistic redundancies and overlap to identify core, timeless agreements.</t>
+  </si>
+  <si>
+    <t>resources/images/current_work/watersecurity.jpg</t>
+  </si>
+  <si>
+    <t>Urban Growth Modeling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This study looks to apply the SLEUTH land use/land cover model to the state of California to derive high resolution, probabilistic, long-range, Anderson level 2 land use products. Such products will be used for scenario-based hydroclimate studies with the NCAR Research Application Laboratory. </t>
+  </si>
+  <si>
+    <t>resources/images/current_work/urbangrowth.jpg</t>
+  </si>
+  <si>
+    <t>Agent-based Risk Models</t>
+  </si>
+  <si>
+    <t>Drought Models</t>
+  </si>
+  <si>
+    <t>Marthe Wens, Jeroen Aerts, Ted Veldkamp</t>
+  </si>
+  <si>
+    <t>This work is part of a larger study being carried out at the Institute for Environmental Studies at VU Amsterdam looking to couple distributed hydrologic models and multi-actor, agent-based behavioral models within a drought risk context. One case study looks at applying this modeling strategy to a region in California’s Central Valley to better understand impacts on ground water withdrawals and aquifer levels.</t>
+  </si>
+  <si>
+    <t>resources/images/current_work/droughtmodels.jpg</t>
+  </si>
+  <si>
+    <t>AOI</t>
+  </si>
+  <si>
+    <t>HydroData</t>
+  </si>
+  <si>
+    <t>FlowFinder</t>
+  </si>
+  <si>
+    <t>NWM</t>
+  </si>
+  <si>
+    <t>nwmViewer</t>
+  </si>
+  <si>
+    <t>Area of Interest</t>
+  </si>
+  <si>
+    <t>Hydrology as a Service</t>
+  </si>
+  <si>
+    <t>An R client for the National Water Model</t>
+  </si>
+  <si>
+    <t>Vizualize National Water Model Output</t>
+  </si>
+  <si>
+    <t>If you’ve ever found yourself needing to geocode or reverse geocode a location, formalize an area of interest, get bounding geometries, decribe a place by lat/long, or better understand spatial locations this package should be able to help.
+An area of interest (AOI) is a geographic extent. It helps confine and formalize a unit of work to a geographic area, and prioritize and define research and sub setting efforts while improving reproducibility. They are built around concrete spatail attributes but often are discussed in a more colloquail way. The aim of the is package is to help make the colloquial understanding of space more concrete.</t>
+  </si>
+  <si>
+    <t>Almost all environmental research begins with data; the question of what data is available; and the challenge of gathering it. HydroData is an R package designed to help users find, get, visualize and use a range of Earth Systems data for a defined Area of Interest. The package provides functions to automatically download data from 19 sources; interactively visualize and share data within R and/or a browser; and to export data for external use in GIS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FlowFinder provides access to five-day out streamflow forecasts at a three hour time step for all of CONUS and visualizes data for a 225 square mile region centered on a users requested location (area of interest: AOI). Areas of exceedingly high flow - when compared to long term normals are marked and mapped throughout CONUS, and AOI metadata is provided. </t>
+  </si>
+  <si>
+    <t>Each day the NOAA NWM produces ~400 GB of forecast data for the CONUS. This data is stored for a 40 day rolling window on the HydroShare Thredds server amounting to over 16,000 GB (2 TB) of data being stored and accessible at any one time. This package aims to provide access to this data in a clean, fast, and convenient way through the R environment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nwmViewer is an R Shiny application built to quickly find and vizualize data via the nwm package. </t>
+  </si>
+  <si>
+    <t>resources/images/software/aoi.png</t>
+  </si>
+  <si>
+    <t>resources/images/software/hydrodata.png</t>
+  </si>
+  <si>
+    <t>resources/images/software/flowfinder.png</t>
+  </si>
+  <si>
+    <t>resources/images/software/nwm.png</t>
+  </si>
+  <si>
+    <t>resources/images/software/nwmViewer.png</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://overdodactyl.github.io"&gt;Pat Johnson&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>https://mikejohnson51.github.io/AOI/</t>
+  </si>
+  <si>
+    <t>https://github.com/mikejohnson51/AOI</t>
+  </si>
+  <si>
+    <t>https://mikejohnson51.github.io/HydroData/</t>
+  </si>
+  <si>
+    <t>https://github.com/mikejohnson51/HydroData</t>
+  </si>
+  <si>
+    <t>https://mikejohnson51.github.io/FlowFinder/</t>
+  </si>
+  <si>
+    <t>https://github.com/mikejohnson51/FlowFinder</t>
+  </si>
+  <si>
+    <t>https://mikejohnson51.github.io/NWM/</t>
+  </si>
+  <si>
+    <t>ttps://github.com/mikejohnson51/NWM</t>
+  </si>
+  <si>
+    <t>https://github.com/overdodactyl/nwmViewer</t>
+  </si>
+  <si>
+    <t>https://nwmviewer.shinyapps.io/view/</t>
+  </si>
+  <si>
+    <t>homepage</t>
+  </si>
+  <si>
+    <t>app</t>
   </si>
 </sst>
 </file>
@@ -773,11 +952,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
@@ -1334,7 +1516,7 @@
     <col min="4" max="4" width="163.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="63.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="4"/>
+    <col min="8" max="8" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -1359,7 +1541,7 @@
       <c r="G1" t="s">
         <v>185</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>184</v>
       </c>
       <c r="I1" t="s">
@@ -1385,10 +1567,10 @@
       <c r="E2" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="I2" s="4"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1403,7 +1585,7 @@
       <c r="D3" t="s">
         <v>153</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>215</v>
       </c>
     </row>
@@ -1426,7 +1608,7 @@
       <c r="G4" t="s">
         <v>188</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>189</v>
       </c>
     </row>
@@ -1452,7 +1634,7 @@
       <c r="G5" t="s">
         <v>191</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1478,7 +1660,7 @@
       <c r="G6" t="s">
         <v>193</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>194</v>
       </c>
     </row>
@@ -1501,7 +1683,7 @@
       <c r="G7" t="s">
         <v>188</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="5" t="s">
         <v>195</v>
       </c>
     </row>
@@ -1581,7 +1763,7 @@
       <c r="G11" t="s">
         <v>202</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="5" t="s">
         <v>203</v>
       </c>
     </row>
@@ -1604,7 +1786,7 @@
       <c r="G12" t="s">
         <v>202</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="5" t="s">
         <v>204</v>
       </c>
     </row>
@@ -2053,8 +2235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2294,7 +2476,7 @@
       <c r="F10" s="3">
         <v>50</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="6" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2308,12 +2490,270 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="144" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="160" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54" style="4" customWidth="1"/>
+    <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="176" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="620" yWindow="0" windowWidth="25540" windowHeight="15560" tabRatio="500" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="620" yWindow="0" windowWidth="25540" windowHeight="15560" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="teaching" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="286">
   <si>
     <t>data</t>
   </si>
@@ -630,18 +630,6 @@
   </si>
   <si>
     <t>cartography_large</t>
-  </si>
-  <si>
-    <t>images/combined-small.jpg</t>
-  </si>
-  <si>
-    <t>images/combined.jpg</t>
-  </si>
-  <si>
-    <t>images/hi_map-small.jpg</t>
-  </si>
-  <si>
-    <t>images/hi_map.jpg</t>
   </si>
   <si>
     <t>pdfs/cuahsi_tr13_8.20.16.pdf</t>
@@ -891,6 +879,24 @@
   </si>
   <si>
     <t>app</t>
+  </si>
+  <si>
+    <t>resources/images/combined-small.jpg</t>
+  </si>
+  <si>
+    <t>resources/images/combined.jpg</t>
+  </si>
+  <si>
+    <t>resources/images/hi_map-small.jpg</t>
+  </si>
+  <si>
+    <t>resources/images/hi_map.jpg</t>
+  </si>
+  <si>
+    <t>resources/images/susan_map-small.jpg</t>
+  </si>
+  <si>
+    <t>resources/images/susan_map.jpg</t>
   </si>
 </sst>
 </file>
@@ -1504,8 +1510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1516,7 +1522,8 @@
     <col min="4" max="4" width="163.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="63.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="5"/>
+    <col min="8" max="8" width="40.6640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -1565,7 +1572,7 @@
         <v>150</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>187</v>
@@ -1586,7 +1593,7 @@
         <v>153</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1701,10 +1708,10 @@
         <v>171</v>
       </c>
       <c r="I8" t="s">
-        <v>198</v>
+        <v>280</v>
       </c>
       <c r="J8" t="s">
-        <v>199</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1721,10 +1728,10 @@
         <v>173</v>
       </c>
       <c r="I9" t="s">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="J9" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1743,6 +1750,12 @@
       <c r="E10" t="s">
         <v>176</v>
       </c>
+      <c r="I10" t="s">
+        <v>284</v>
+      </c>
+      <c r="J10" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
@@ -1761,10 +1774,10 @@
         <v>180</v>
       </c>
       <c r="G11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1784,10 +1797,10 @@
         <v>180</v>
       </c>
       <c r="G12" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2278,7 +2291,7 @@
         <v>111</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C2" s="3">
         <v>-119.845</v>
@@ -2287,7 +2300,7 @@
         <v>34.414999999999999</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F2" s="3">
         <v>75</v>
@@ -2301,7 +2314,7 @@
         <v>113</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C3" s="3">
         <v>4.8657000000000004</v>
@@ -2310,7 +2323,7 @@
         <v>52.333799999999997</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F3" s="3">
         <v>75</v>
@@ -2324,7 +2337,7 @@
         <v>115</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C4" s="3">
         <v>-71.109700000000004</v>
@@ -2333,7 +2346,7 @@
         <v>42.373600000000003</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F4" s="3">
         <v>50</v>
@@ -2347,7 +2360,7 @@
         <v>88</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C5" s="3">
         <v>-77.306399999999996</v>
@@ -2356,7 +2369,7 @@
         <v>38.846200000000003</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F5" s="3">
         <v>75</v>
@@ -2370,7 +2383,7 @@
         <v>118</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C6" s="3">
         <v>-87.541399999999996</v>
@@ -2379,7 +2392,7 @@
         <v>33.217599999999997</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F6" s="3">
         <v>50</v>
@@ -2393,7 +2406,7 @@
         <v>120</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C7" s="3">
         <v>-105.27500000000001</v>
@@ -2402,7 +2415,7 @@
         <v>39.978299999999997</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F7" s="3">
         <v>50</v>
@@ -2416,7 +2429,7 @@
         <v>122</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C8" s="3">
         <v>-122.4586</v>
@@ -2425,7 +2438,7 @@
         <v>37.762700000000002</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F8" s="3">
         <v>75</v>
@@ -2439,7 +2452,7 @@
         <v>124</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C9" s="3">
         <v>-122.2711</v>
@@ -2448,7 +2461,7 @@
         <v>37.804400000000001</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F9" s="3">
         <v>50</v>
@@ -2462,7 +2475,7 @@
         <v>125</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C10" s="3">
         <v>-120.66249999999999</v>
@@ -2471,7 +2484,7 @@
         <v>35.305</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F10" s="3">
         <v>50</v>
@@ -2507,98 +2520,98 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="B1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="B2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" t="s">
         <v>239</v>
       </c>
-      <c r="B4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D4" t="s">
-        <v>243</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>241</v>
-      </c>
-      <c r="D5" t="s">
-        <v>246</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" t="s">
         <v>247</v>
       </c>
-      <c r="C6" t="s">
-        <v>249</v>
-      </c>
-      <c r="D6" t="s">
-        <v>251</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2610,7 +2623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -2626,131 +2639,131 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>229</v>
-      </c>
       <c r="F1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G1" t="s">
         <v>186</v>
       </c>
       <c r="H1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="176" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="D2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>261</v>
-      </c>
       <c r="F2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4" t="s">
         <v>254</v>
       </c>
-      <c r="B4" t="s">
-        <v>258</v>
-      </c>
       <c r="C4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B5" t="s">
         <v>255</v>
       </c>
-      <c r="B5" t="s">
-        <v>259</v>
-      </c>
       <c r="D5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" t="s">
         <v>256</v>
       </c>
-      <c r="B6" t="s">
-        <v>260</v>
-      </c>
       <c r="C6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G6" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patjohnson/Documents/websites/mikejohnson51.github.io/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikejohnson/Documents/GitHub/mikejohnson51/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC28B703-5DA2-6549-9AF0-1B14333F9F1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="0" windowWidth="25540" windowHeight="15560" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="60" yWindow="440" windowWidth="25540" windowHeight="15560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teaching" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="current_work" sheetId="8" r:id="rId8"/>
     <sheet name="software" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="283">
   <si>
     <t>data</t>
   </si>
@@ -49,9 +50,6 @@
     <t>Water</t>
   </si>
   <si>
-    <t>Class</t>
-  </si>
-  <si>
     <t>Fall 2018</t>
   </si>
   <si>
@@ -104,12 +102,6 @@
   </si>
   <si>
     <t>Summer 2016</t>
-  </si>
-  <si>
-    <t>Fall 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dr. Nobody</t>
   </si>
   <si>
     <t>year</t>
@@ -902,7 +894,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -980,6 +972,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1247,11 +1242,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1274,101 +1269,90 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
         <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1377,7 +1361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1393,13 +1377,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1407,10 +1391,10 @@
         <v>2018</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1418,10 +1402,10 @@
         <v>2017</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1429,10 +1413,10 @@
         <v>2017</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1440,10 +1424,10 @@
         <v>2017</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1451,10 +1435,10 @@
         <v>2017</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1462,21 +1446,21 @@
         <v>2016</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1484,10 +1468,10 @@
         <v>2015</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1495,10 +1479,10 @@
         <v>2015</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1507,10 +1491,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -1528,291 +1512,291 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" t="s">
         <v>147</v>
       </c>
-      <c r="B2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" t="s">
-        <v>150</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B4">
         <v>2018</v>
       </c>
       <c r="C4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B5">
         <v>2018</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B6">
         <v>2017</v>
       </c>
       <c r="C6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G6" t="s">
         <v>190</v>
       </c>
-      <c r="G6" t="s">
-        <v>193</v>
-      </c>
       <c r="H6" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B7">
         <v>2017</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B8">
         <v>2017</v>
       </c>
       <c r="C8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J8" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B9">
         <v>2017</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J9" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B10">
         <v>2017</v>
       </c>
       <c r="C10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I10" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="J10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B11">
         <v>2016</v>
       </c>
       <c r="C11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B12">
         <v>2016</v>
       </c>
       <c r="C12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D12" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1832,209 +1816,209 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
         <v>44</v>
       </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2043,7 +2027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2057,26 +2041,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2084,7 +2068,7 @@
         <v>2017</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2093,7 +2077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2112,21 +2096,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2134,21 +2118,21 @@
         <v>2018</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2156,10 +2140,10 @@
         <v>2017</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2167,10 +2151,10 @@
         <v>2017</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2178,10 +2162,10 @@
         <v>2016</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2189,10 +2173,10 @@
         <v>2016</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2200,21 +2184,21 @@
         <v>2015</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2222,10 +2206,10 @@
         <v>2014</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -2233,10 +2217,10 @@
         <v>2013</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2245,7 +2229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2265,33 +2249,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C2" s="3">
         <v>-119.845</v>
@@ -2300,21 +2284,21 @@
         <v>34.414999999999999</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F2" s="3">
         <v>75</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C3" s="3">
         <v>4.8657000000000004</v>
@@ -2323,21 +2307,21 @@
         <v>52.333799999999997</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F3" s="3">
         <v>75</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C4" s="3">
         <v>-71.109700000000004</v>
@@ -2346,21 +2330,21 @@
         <v>42.373600000000003</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F4" s="3">
         <v>50</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C5" s="3">
         <v>-77.306399999999996</v>
@@ -2369,21 +2353,21 @@
         <v>38.846200000000003</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F5" s="3">
         <v>75</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C6" s="3">
         <v>-87.541399999999996</v>
@@ -2392,21 +2376,21 @@
         <v>33.217599999999997</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F6" s="3">
         <v>50</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C7" s="3">
         <v>-105.27500000000001</v>
@@ -2415,21 +2399,21 @@
         <v>39.978299999999997</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F7" s="3">
         <v>50</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C8" s="3">
         <v>-122.4586</v>
@@ -2438,21 +2422,21 @@
         <v>37.762700000000002</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F8" s="3">
         <v>75</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C9" s="3">
         <v>-122.2711</v>
@@ -2461,21 +2445,21 @@
         <v>37.804400000000001</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F9" s="3">
         <v>50</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C10" s="3">
         <v>-120.66249999999999</v>
@@ -2484,25 +2468,25 @@
         <v>35.305</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F10" s="3">
         <v>50</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G10" r:id="rId1"/>
+    <hyperlink ref="G10" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2520,98 +2504,98 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" t="s">
         <v>221</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>223</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
         <v>224</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="C2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="144" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
         <v>226</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="C2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="C3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="B4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" t="s">
         <v>240</v>
       </c>
-      <c r="C5" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
         <v>242</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="112" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
         <v>244</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="C6" t="s">
-        <v>245</v>
-      </c>
-      <c r="D6" t="s">
-        <v>247</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2620,7 +2604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2639,131 +2623,131 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" t="s">
         <v>221</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>225</v>
-      </c>
       <c r="F1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="176" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="187" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikejohnson/Documents/GitHub/mikejohnson51/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC28B703-5DA2-6549-9AF0-1B14333F9F1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255D259C-3CA3-6D46-A3A1-C73A98E742C7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="440" windowWidth="25540" windowHeight="15560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2300" yWindow="3740" windowWidth="26560" windowHeight="15540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teaching" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="current_work" sheetId="8" r:id="rId8"/>
     <sheet name="software" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="314">
   <si>
     <t>data</t>
   </si>
@@ -116,24 +116,12 @@
     <t>COMET Partners Grant</t>
   </si>
   <si>
-    <t>UCGHI Planetary Health Center of Expertise</t>
-  </si>
-  <si>
-    <t>Dangermond Travel Scholarship</t>
-  </si>
-  <si>
     <t>National Water Center Course Coordinator</t>
   </si>
   <si>
-    <t>CUASHI Travel Grant</t>
-  </si>
-  <si>
     <t>2015-2016</t>
   </si>
   <si>
-    <t>University of California Regents</t>
-  </si>
-  <si>
     <t>Cal Poly Department of Geography</t>
   </si>
   <si>
@@ -143,15 +131,6 @@
     <t>California Geographical Society</t>
   </si>
   <si>
-    <t>Top undergraduate paper</t>
-  </si>
-  <si>
-    <t>NOAA National Water Center ($15,000)</t>
-  </si>
-  <si>
-    <t>Seed Grant ($10,000)</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -188,9 +167,6 @@
     <t>HydroData: Discover Earth Systems Data with R</t>
   </si>
   <si>
-    <t xml:space="preserve">lightning talk/poster </t>
-  </si>
-  <si>
     <t>CUASHI Hydroinformatics Conference</t>
   </si>
   <si>
@@ -275,12 +251,6 @@
     <t xml:space="preserve">Benjamin Sterne \&amp; Eric Gunter	</t>
   </si>
   <si>
-    <t>Apr-Sep, 2018</t>
-  </si>
-  <si>
-    <t>Visiting Researcher:</t>
-  </si>
-  <si>
     <t>NCAR Research Applications Laboratory</t>
   </si>
   <si>
@@ -290,15 +260,9 @@
     <t>2014-Present</t>
   </si>
   <si>
-    <t>Certified Agricultural Irrigation Specialist:</t>
-  </si>
-  <si>
     <t>Irrigation Association</t>
   </si>
   <si>
-    <t>Research Coordinator:</t>
-  </si>
-  <si>
     <t xml:space="preserve">NOAA National Water Center </t>
   </si>
   <si>
@@ -413,21 +377,9 @@
     <t>https://www.calpoly.edu/</t>
   </si>
   <si>
-    <t>AGU ($800)</t>
-  </si>
-  <si>
     <t>CUASHI ($15,000)</t>
   </si>
   <si>
-    <t>WRF-hydro Training ($500)</t>
-  </si>
-  <si>
-    <t>HAZUS Conference ($700)</t>
-  </si>
-  <si>
-    <t>Disciplines Fellowship ($30,000)</t>
-  </si>
-  <si>
     <t>April 2018</t>
   </si>
   <si>
@@ -476,9 +428,6 @@
     <t>TBD</t>
   </si>
   <si>
-    <t>FlowFinder: Hydrology as a service via the National Water Model</t>
-  </si>
-  <si>
     <t>In preparation</t>
   </si>
   <si>
@@ -486,9 +435,6 @@
   </si>
   <si>
     <t>Improving Drought Risk Modeling: An Agent-based Approach</t>
-  </si>
-  <si>
-    <t>In review</t>
   </si>
   <si>
     <t>{\me}, Jim M. Coll, Paul J. Ruess, and Jordan T. Hastings</t>
@@ -858,9 +804,6 @@
     <t>https://mikejohnson51.github.io/NWM/</t>
   </si>
   <si>
-    <t>ttps://github.com/mikejohnson51/NWM</t>
-  </si>
-  <si>
     <t>https://github.com/overdodactyl/nwmViewer</t>
   </si>
   <si>
@@ -889,13 +832,166 @@
   </si>
   <si>
     <t>resources/images/susan_map.jpg</t>
+  </si>
+  <si>
+    <t>Travel Grant</t>
+  </si>
+  <si>
+    <t>Graduate Student Association ($200)</t>
+  </si>
+  <si>
+    <t>Summer Research Grant</t>
+  </si>
+  <si>
+    <t>A National Scale System for Local Streamflow Visualization</t>
+  </si>
+  <si>
+    <t>Dec 2018</t>
+  </si>
+  <si>
+    <t>The National Water Model and R: Providing fast discovery, access, and usability of NWM output and earth systems data</t>
+  </si>
+  <si>
+    <t>Drought adaptation behavior of agricultural stakeholders: An Agent Based Model for Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eLightning talk </t>
+  </si>
+  <si>
+    <t>presentation (accepted)</t>
+  </si>
+  <si>
+    <t>Visiting Researcher</t>
+  </si>
+  <si>
+    <t>Research Coordinator</t>
+  </si>
+  <si>
+    <t>Certified Agricultural Irrigation Specialist</t>
+  </si>
+  <si>
+    <t>Winter 2018</t>
+  </si>
+  <si>
+    <t>Spatial Data Science Faculty Search</t>
+  </si>
+  <si>
+    <t>UCSB</t>
+  </si>
+  <si>
+    <t>climateR</t>
+  </si>
+  <si>
+    <t>An R client for climate data</t>
+  </si>
+  <si>
+    <t>Provides automated data download and formating of grid and point data from DAYMET, LOCA, BCCA, METDATA, PRISM, NCEP, and TopoWX data holdings for any AOI.</t>
+  </si>
+  <si>
+    <t>https://github.com/mikejohnson51/NWM</t>
+  </si>
+  <si>
+    <t>https://github.com/mikejohnson51/climateR</t>
+  </si>
+  <si>
+    <t>Top undergraduate paper ($500)</t>
+  </si>
+  <si>
+    <t>FloodMapping</t>
+  </si>
+  <si>
+    <t>An R Package for ﬂood mapping (HAND &amp; National Water Model) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This package aggrgates the necessary data from the HAND and NWM holdings to map real-time and forecast flood extents. It is being used to driv both flood mapping GUIs and for validation of  the HAND method. </t>
+  </si>
+  <si>
+    <t>https://mikejohnson51.github.io/FloodMapping/</t>
+  </si>
+  <si>
+    <t>https://github.com/mikejohnson51/FloodMapping</t>
+  </si>
+  <si>
+    <t>cimisR</t>
+  </si>
+  <si>
+    <t>An R client for California Department of Water Resources CIMIS</t>
+  </si>
+  <si>
+    <t>https://github.com/mikejohnson51/cimisR</t>
+  </si>
+  <si>
+    <t>This pachage provides access to  daily and hourly CIMIS data from 1980 to present day for active stations.</t>
+  </si>
+  <si>
+    <t>Keith C. Clarke, {\me}, Tim Trainor</t>
+  </si>
+  <si>
+    <t>Contemporary Cartographic Research: A Review and Prospective</t>
+  </si>
+  <si>
+    <t>WIRES Water (In review)</t>
+  </si>
+  <si>
+    <t>Cartography and Geographic Information Science (in review)</t>
+  </si>
+  <si>
+    <t>UCSB Geography ($2,400)</t>
+  </si>
+  <si>
+    <t>Travel Scholarship (AGU)</t>
+  </si>
+  <si>
+    <t>Travel Scholarship (HAZUS)</t>
+  </si>
+  <si>
+    <t>Dangermond Fund ($700)</t>
+  </si>
+  <si>
+    <t>Dangermond Fund ($800)</t>
+  </si>
+  <si>
+    <t>CUASHI ($500)</t>
+  </si>
+  <si>
+    <t>Seed Grant</t>
+  </si>
+  <si>
+    <t>UCGHI Planetary Health Center ($10,000)</t>
+  </si>
+  <si>
+    <t>UCAR ($15,000)</t>
+  </si>
+  <si>
+    <t>Disciplines Fellowship</t>
+  </si>
+  <si>
+    <t>University of California Regents ($30,000)</t>
+  </si>
+  <si>
+    <t>California Geographical Society ($500)</t>
+  </si>
+  <si>
+    <t>Travel Grant (WRF-Hydro Training)</t>
+  </si>
+  <si>
+    <t>nwmRetro</t>
+  </si>
+  <si>
+    <t>An R package for supplimenting NHD flow volume estimates with NWM output</t>
+  </si>
+  <si>
+    <t>We review recent developments in cartographic research in North America, in the context of informing the 29th International Cartographic Conference, and 18th General Assembly in 2019. The titles of papers published since 2015 in four leading cartographic journals yielded a corpus of 245 documents containing 1,109 unique terms. These terms were analyzed using Latent Dirichlet Allocation and by visual analytics to produce 14 topic groups that mapped onto 5 classes. These classes were named: information visualization, cartographic data, spatial analysis and applications, methods and models, and GIScience. The classes were then used as themes to discuss the recent cartographic literature more broadly first to review recent trends in the research and to identify research gaps, and secondly to examine prospects for new research over the next 20 years. A conclusion draws some broad findings from the review, suggesting that cartographic research in the future will be aimed less at dealing with data, and more at generating insight and knowledge to better inform society about global challenges.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -926,6 +1022,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -950,7 +1064,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
@@ -960,6 +1074,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1245,18 +1366,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1267,7 +1388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1278,7 +1399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1289,7 +1410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1300,7 +1421,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1311,7 +1432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1322,7 +1443,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1333,7 +1454,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1344,7 +1465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1362,20 +1483,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1386,103 +1507,125 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2018</v>
       </c>
       <c r="B2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2018</v>
+      </c>
+      <c r="B3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>2018</v>
+      </c>
+      <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2017</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2017</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
       <c r="C4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>2017</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>304</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>2017</v>
       </c>
       <c r="B6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>2017</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>2017</v>
+      </c>
+      <c r="B8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>2016</v>
+      </c>
+      <c r="B9" t="s">
+        <v>300</v>
+      </c>
+      <c r="C9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>307</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>2015</v>
+      </c>
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2016</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
         <v>2015</v>
       </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2015</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
+      <c r="B12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C12" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -1492,13 +1635,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="45.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
@@ -1510,286 +1653,303 @@
     <col min="9" max="9" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
         <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="E1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F1" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="G1" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="I1" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="J1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>144</v>
+        <v>294</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>198</v>
+        <v>129</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>297</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>267</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>130</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4">
-        <v>2018</v>
+        <v>131</v>
+      </c>
+      <c r="B4" t="s">
+        <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G4" t="s">
-        <v>185</v>
+        <v>296</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B5">
         <v>2018</v>
       </c>
       <c r="C5" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="E5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F5" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="G5" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="B6">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>139</v>
       </c>
       <c r="E6" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="F6" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="G6" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="B7">
         <v>2017</v>
       </c>
       <c r="C7" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="D7" t="s">
-        <v>164</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>165</v>
+        <v>143</v>
+      </c>
+      <c r="F7" t="s">
+        <v>169</v>
       </c>
       <c r="G7" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="B8">
         <v>2017</v>
       </c>
       <c r="C8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" t="s">
         <v>167</v>
       </c>
-      <c r="D8" t="s">
-        <v>168</v>
-      </c>
-      <c r="I8" t="s">
-        <v>277</v>
-      </c>
-      <c r="J8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H8" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="B9">
         <v>2017</v>
       </c>
       <c r="C9" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="D9" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="I9" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="J9" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="B10">
         <v>2017</v>
       </c>
       <c r="C10" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="D10" t="s">
-        <v>172</v>
-      </c>
-      <c r="E10" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="I10" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="J10" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="B11">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C11" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="D11" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
-        <v>177</v>
-      </c>
-      <c r="G11" t="s">
-        <v>195</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+      <c r="I11" t="s">
+        <v>262</v>
+      </c>
+      <c r="J11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="B12">
         <v>2016</v>
       </c>
       <c r="C12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13">
+        <v>2016</v>
+      </c>
+      <c r="C13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G13" t="s">
+        <v>177</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="D12" t="s">
-        <v>180</v>
-      </c>
-      <c r="E12" t="s">
-        <v>177</v>
-      </c>
-      <c r="G12" t="s">
-        <v>195</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>197</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1797,232 +1957,267 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="101.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>135</v>
+        <v>268</v>
       </c>
       <c r="B2" t="s">
         <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>269</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>135</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s">
         <v>41</v>
       </c>
       <c r="C3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
         <v>44</v>
       </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D8" t="s">
         <v>45</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" t="s">
         <v>46</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" t="s">
         <v>48</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C10" t="s">
         <v>49</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C11" t="s">
         <v>51</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" t="s">
         <v>52</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" t="s">
         <v>54</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C13" t="s">
         <v>55</v>
       </c>
-      <c r="D7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" t="s">
         <v>56</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C14" t="s">
         <v>57</v>
       </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="D14" t="s">
         <v>58</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" t="s">
         <v>59</v>
       </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C15" t="s">
         <v>60</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" t="s">
         <v>61</v>
       </c>
-      <c r="D10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C16" t="s">
         <v>62</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" t="s">
         <v>63</v>
       </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C17" t="s">
         <v>64</v>
       </c>
-      <c r="C12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" t="s">
-        <v>43</v>
-      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="19">
+      <c r="B25" s="7"/>
+    </row>
+    <row r="27" spans="1:4" ht="19">
+      <c r="B27" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2034,41 +2229,41 @@
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>2017</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2078,149 +2273,160 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>277</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2018</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>273</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>273</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2017</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>275</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>2017</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>274</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>2016</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
+        <v>2016</v>
+      </c>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
         <v>2015</v>
       </c>
-      <c r="B9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>94</v>
-      </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
         <v>2014</v>
       </c>
-      <c r="B11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
         <v>2013</v>
       </c>
-      <c r="B12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" t="s">
-        <v>100</v>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2236,7 +2442,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="24.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.83203125" style="3" bestFit="1" customWidth="1"/>
@@ -2247,35 +2453,35 @@
     <col min="7" max="7" width="38.6640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="C2" s="3">
         <v>-119.845</v>
@@ -2284,21 +2490,21 @@
         <v>34.414999999999999</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="F2" s="3">
         <v>75</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="C3" s="3">
         <v>4.8657000000000004</v>
@@ -2307,21 +2513,21 @@
         <v>52.333799999999997</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="F3" s="3">
         <v>75</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="C4" s="3">
         <v>-71.109700000000004</v>
@@ -2330,21 +2536,21 @@
         <v>42.373600000000003</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="F4" s="3">
         <v>50</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="C5" s="3">
         <v>-77.306399999999996</v>
@@ -2353,21 +2559,21 @@
         <v>38.846200000000003</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="F5" s="3">
         <v>75</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="C6" s="3">
         <v>-87.541399999999996</v>
@@ -2376,21 +2582,21 @@
         <v>33.217599999999997</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="F6" s="3">
         <v>50</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="C7" s="3">
         <v>-105.27500000000001</v>
@@ -2399,21 +2605,21 @@
         <v>39.978299999999997</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="F7" s="3">
         <v>50</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="C8" s="3">
         <v>-122.4586</v>
@@ -2422,21 +2628,21 @@
         <v>37.762700000000002</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="F8" s="3">
         <v>75</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="C9" s="3">
         <v>-122.2711</v>
@@ -2445,21 +2651,21 @@
         <v>37.804400000000001</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="F9" s="3">
         <v>50</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="C10" s="3">
         <v>-120.66249999999999</v>
@@ -2468,13 +2674,13 @@
         <v>35.305</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="F10" s="3">
         <v>50</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2493,7 +2699,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55" bestFit="1" customWidth="1"/>
@@ -2502,100 +2708,100 @@
     <col min="5" max="5" width="55" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17">
       <c r="A1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="153">
+      <c r="A2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="170">
+      <c r="A3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="119">
+      <c r="A4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" t="s">
         <v>218</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E4" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="85">
+      <c r="A5" t="s">
         <v>219</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E1" s="4" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="119">
+      <c r="A6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="153" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C6" t="s">
         <v>224</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="D2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="160" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D5" t="s">
-        <v>239</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="119" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>241</v>
-      </c>
-      <c r="B6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C6" t="s">
-        <v>242</v>
-      </c>
-      <c r="D6" t="s">
-        <v>244</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -2605,152 +2811,220 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="54" style="4" customWidth="1"/>
-    <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="17">
       <c r="A1" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="B1" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="C1" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="D1" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="F1" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="G1" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="H1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="187" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="187">
       <c r="A2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="136">
+      <c r="A3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="119">
+      <c r="A4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G4" t="s">
+        <v>252</v>
+      </c>
+      <c r="H4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="102">
+      <c r="A5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="51">
+      <c r="A6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="34">
+      <c r="A7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="68">
+      <c r="A8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F8" t="s">
+        <v>288</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C9" t="s">
+        <v>246</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="34">
+      <c r="A10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" t="s">
+        <v>246</v>
+      </c>
+      <c r="D10" t="s">
         <v>245</v>
       </c>
-      <c r="B2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="E10" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G10" t="s">
         <v>254</v>
       </c>
-      <c r="F2" t="s">
-        <v>265</v>
-      </c>
-      <c r="G2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="128" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="H10" t="s">
         <v>255</v>
       </c>
-      <c r="F3" t="s">
-        <v>267</v>
-      </c>
-      <c r="G3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="96" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C4" t="s">
-        <v>264</v>
-      </c>
-      <c r="D4" t="s">
-        <v>261</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="F4" t="s">
-        <v>269</v>
-      </c>
-      <c r="G4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="96" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B5" t="s">
-        <v>252</v>
-      </c>
-      <c r="D5" t="s">
-        <v>262</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="F5" t="s">
-        <v>271</v>
-      </c>
-      <c r="G5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>249</v>
-      </c>
-      <c r="B6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C6" t="s">
-        <v>264</v>
-      </c>
-      <c r="D6" t="s">
-        <v>263</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="G6" t="s">
-        <v>273</v>
-      </c>
-      <c r="H6" t="s">
-        <v>274</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G5" r:id="rId1" xr:uid="{B6F86B86-10F5-BF43-9153-C67FC5969709}"/>
+    <hyperlink ref="G6" r:id="rId2" xr:uid="{8182697F-A2C4-BB48-AFD6-D450213F8A42}"/>
+    <hyperlink ref="G7" r:id="rId3" xr:uid="{9E0CD240-2193-E94E-8252-3665C70926DD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikejohnson/Documents/GitHub/mikejohnson51/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255D259C-3CA3-6D46-A3A1-C73A98E742C7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BB0BDC-1888-C743-8725-DF576965E0B1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="3740" windowWidth="26560" windowHeight="15540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2320" yWindow="3960" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teaching" sheetId="1" r:id="rId1"/>
@@ -377,9 +377,6 @@
     <t>https://www.calpoly.edu/</t>
   </si>
   <si>
-    <t>CUASHI ($15,000)</t>
-  </si>
-  <si>
     <t>April 2018</t>
   </si>
   <si>
@@ -834,12 +831,6 @@
     <t>resources/images/susan_map.jpg</t>
   </si>
   <si>
-    <t>Travel Grant</t>
-  </si>
-  <si>
-    <t>Graduate Student Association ($200)</t>
-  </si>
-  <si>
     <t>Summer Research Grant</t>
   </si>
   <si>
@@ -894,9 +885,6 @@
     <t>https://github.com/mikejohnson51/climateR</t>
   </si>
   <si>
-    <t>Top undergraduate paper ($500)</t>
-  </si>
-  <si>
     <t>FloodMapping</t>
   </si>
   <si>
@@ -936,42 +924,15 @@
     <t>Cartography and Geographic Information Science (in review)</t>
   </si>
   <si>
-    <t>UCSB Geography ($2,400)</t>
-  </si>
-  <si>
     <t>Travel Scholarship (AGU)</t>
   </si>
   <si>
-    <t>Travel Scholarship (HAZUS)</t>
-  </si>
-  <si>
-    <t>Dangermond Fund ($700)</t>
-  </si>
-  <si>
-    <t>Dangermond Fund ($800)</t>
-  </si>
-  <si>
-    <t>CUASHI ($500)</t>
-  </si>
-  <si>
     <t>Seed Grant</t>
   </si>
   <si>
-    <t>UCGHI Planetary Health Center ($10,000)</t>
-  </si>
-  <si>
-    <t>UCAR ($15,000)</t>
-  </si>
-  <si>
     <t>Disciplines Fellowship</t>
   </si>
   <si>
-    <t>University of California Regents ($30,000)</t>
-  </si>
-  <si>
-    <t>California Geographical Society ($500)</t>
-  </si>
-  <si>
     <t>Travel Grant (WRF-Hydro Training)</t>
   </si>
   <si>
@@ -982,6 +943,45 @@
   </si>
   <si>
     <t>We review recent developments in cartographic research in North America, in the context of informing the 29th International Cartographic Conference, and 18th General Assembly in 2019. The titles of papers published since 2015 in four leading cartographic journals yielded a corpus of 245 documents containing 1,109 unique terms. These terms were analyzed using Latent Dirichlet Allocation and by visual analytics to produce 14 topic groups that mapped onto 5 classes. These classes were named: information visualization, cartographic data, spatial analysis and applications, methods and models, and GIScience. The classes were then used as themes to discuss the recent cartographic literature more broadly first to review recent trends in the research and to identify research gaps, and secondly to examine prospects for new research over the next 20 years. A conclusion draws some broad findings from the review, suggesting that cartographic research in the future will be aimed less at dealing with data, and more at generating insight and knowledge to better inform society about global challenges.</t>
+  </si>
+  <si>
+    <t>Travel Grant (HAZUS Conference)</t>
+  </si>
+  <si>
+    <t>Travel Grant (AGU)</t>
+  </si>
+  <si>
+    <t>Graduate Student Association (\$200)</t>
+  </si>
+  <si>
+    <t>UCSB Geography (\$2,400)</t>
+  </si>
+  <si>
+    <t>UCAR (\$15,000)</t>
+  </si>
+  <si>
+    <t>UCGHI Planetary Health Center (\$10,000)</t>
+  </si>
+  <si>
+    <t>Dangermond Fund (\$800)</t>
+  </si>
+  <si>
+    <t>CUASHI (\$15,000)</t>
+  </si>
+  <si>
+    <t>CUASHI (\$500)</t>
+  </si>
+  <si>
+    <t>Dangermond Fund (\$700)</t>
+  </si>
+  <si>
+    <t>University of California Regents (\$30,000)</t>
+  </si>
+  <si>
+    <t>California Geographical Society (\$500)</t>
+  </si>
+  <si>
+    <t>Top undergraduate paper</t>
   </si>
 </sst>
 </file>
@@ -1485,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1512,10 +1512,10 @@
         <v>2018</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="C2" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1523,10 +1523,10 @@
         <v>2018</v>
       </c>
       <c r="B3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C3" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1537,7 +1537,7 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1545,10 +1545,10 @@
         <v>2017</v>
       </c>
       <c r="B5" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1556,10 +1556,10 @@
         <v>2017</v>
       </c>
       <c r="B6" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C6" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1570,7 +1570,7 @@
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1578,10 +1578,10 @@
         <v>2017</v>
       </c>
       <c r="B8" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="C8" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1589,10 +1589,10 @@
         <v>2016</v>
       </c>
       <c r="B9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C9" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1600,10 +1600,10 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1622,10 +1622,10 @@
         <v>2015</v>
       </c>
       <c r="B12" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="C12" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -1637,7 +1637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="D2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1655,7 +1655,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s">
         <v>22</v>
@@ -1664,287 +1664,287 @@
         <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E1" t="s">
         <v>95</v>
       </c>
       <c r="F1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J1" t="s">
         <v>175</v>
-      </c>
-      <c r="J1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" t="s">
         <v>128</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D3" t="s">
         <v>129</v>
       </c>
-      <c r="C3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D3" t="s">
-        <v>130</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" t="s">
         <v>131</v>
       </c>
-      <c r="B4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" t="s">
-        <v>132</v>
-      </c>
       <c r="D4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5">
         <v>2018</v>
       </c>
       <c r="C5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" t="s">
         <v>134</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>135</v>
       </c>
-      <c r="E5" t="s">
-        <v>136</v>
-      </c>
       <c r="G5" t="s">
+        <v>166</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6">
         <v>2018</v>
       </c>
       <c r="C6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" t="s">
         <v>138</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>139</v>
       </c>
-      <c r="E6" t="s">
-        <v>140</v>
-      </c>
       <c r="F6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G6" t="s">
         <v>169</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B7">
         <v>2017</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8">
         <v>2017</v>
       </c>
       <c r="C8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" t="s">
         <v>145</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>146</v>
       </c>
-      <c r="E8" t="s">
-        <v>147</v>
-      </c>
       <c r="G8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B9">
         <v>2017</v>
       </c>
       <c r="C9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" t="s">
         <v>149</v>
       </c>
-      <c r="D9" t="s">
-        <v>150</v>
-      </c>
       <c r="I9" t="s">
+        <v>257</v>
+      </c>
+      <c r="J9" t="s">
         <v>258</v>
-      </c>
-      <c r="J9" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B10">
         <v>2017</v>
       </c>
       <c r="C10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" t="s">
         <v>151</v>
       </c>
-      <c r="D10" t="s">
-        <v>152</v>
-      </c>
       <c r="I10" t="s">
+        <v>259</v>
+      </c>
+      <c r="J10" t="s">
         <v>260</v>
-      </c>
-      <c r="J10" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B11">
         <v>2017</v>
       </c>
       <c r="C11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" t="s">
         <v>153</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>154</v>
       </c>
-      <c r="E11" t="s">
-        <v>155</v>
-      </c>
       <c r="I11" t="s">
+        <v>261</v>
+      </c>
+      <c r="J11" t="s">
         <v>262</v>
-      </c>
-      <c r="J11" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B12">
         <v>2016</v>
       </c>
       <c r="C12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" t="s">
         <v>157</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>158</v>
       </c>
-      <c r="E12" t="s">
-        <v>159</v>
-      </c>
       <c r="G12" t="s">
+        <v>176</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13">
         <v>2016</v>
       </c>
       <c r="C13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" t="s">
         <v>161</v>
       </c>
-      <c r="D13" t="s">
-        <v>162</v>
-      </c>
       <c r="E13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1987,35 +1987,35 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B2" t="s">
         <v>41</v>
       </c>
       <c r="C2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" t="s">
         <v>269</v>
-      </c>
-      <c r="D2" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B3" t="s">
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
@@ -2029,7 +2029,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -2043,7 +2043,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
         <v>38</v>
@@ -2057,7 +2057,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
         <v>41</v>
@@ -2066,12 +2066,12 @@
         <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
         <v>43</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
         <v>48</v>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
@@ -2141,7 +2141,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s">
         <v>54</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s">
         <v>56</v>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
         <v>59</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s">
         <v>61</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B17" t="s">
         <v>63</v>
@@ -2302,10 +2302,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2313,7 +2313,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C3" t="s">
         <v>71</v>
@@ -2321,10 +2321,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C4" t="s">
         <v>72</v>
@@ -2335,7 +2335,7 @@
         <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C5" t="s">
         <v>74</v>
@@ -2346,7 +2346,7 @@
         <v>2017</v>
       </c>
       <c r="B6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C6" t="s">
         <v>75</v>
@@ -2481,7 +2481,7 @@
         <v>96</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C2" s="3">
         <v>-119.845</v>
@@ -2490,7 +2490,7 @@
         <v>34.414999999999999</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F2" s="3">
         <v>75</v>
@@ -2504,7 +2504,7 @@
         <v>98</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C3" s="3">
         <v>4.8657000000000004</v>
@@ -2513,7 +2513,7 @@
         <v>52.333799999999997</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F3" s="3">
         <v>75</v>
@@ -2527,7 +2527,7 @@
         <v>100</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C4" s="3">
         <v>-71.109700000000004</v>
@@ -2536,7 +2536,7 @@
         <v>42.373600000000003</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F4" s="3">
         <v>50</v>
@@ -2550,7 +2550,7 @@
         <v>74</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5" s="3">
         <v>-77.306399999999996</v>
@@ -2559,7 +2559,7 @@
         <v>38.846200000000003</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F5" s="3">
         <v>75</v>
@@ -2573,7 +2573,7 @@
         <v>103</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" s="3">
         <v>-87.541399999999996</v>
@@ -2582,7 +2582,7 @@
         <v>33.217599999999997</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F6" s="3">
         <v>50</v>
@@ -2596,7 +2596,7 @@
         <v>105</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C7" s="3">
         <v>-105.27500000000001</v>
@@ -2605,7 +2605,7 @@
         <v>39.978299999999997</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F7" s="3">
         <v>50</v>
@@ -2619,7 +2619,7 @@
         <v>107</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C8" s="3">
         <v>-122.4586</v>
@@ -2628,7 +2628,7 @@
         <v>37.762700000000002</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F8" s="3">
         <v>75</v>
@@ -2642,7 +2642,7 @@
         <v>109</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C9" s="3">
         <v>-122.2711</v>
@@ -2651,7 +2651,7 @@
         <v>37.804400000000001</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F9" s="3">
         <v>50</v>
@@ -2665,7 +2665,7 @@
         <v>110</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C10" s="3">
         <v>-120.66249999999999</v>
@@ -2674,7 +2674,7 @@
         <v>35.305</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F10" s="3">
         <v>50</v>
@@ -2710,98 +2710,98 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17">
       <c r="A1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" t="s">
         <v>200</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>201</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>202</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="153">
       <c r="A2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" t="s">
         <v>205</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>206</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>207</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="170">
       <c r="A3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" t="s">
         <v>210</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>211</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="119">
       <c r="A4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" t="s">
         <v>214</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>215</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="D4" t="s">
-        <v>218</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="85">
       <c r="A5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>219</v>
-      </c>
-      <c r="C5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D5" t="s">
-        <v>221</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="119">
       <c r="A6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" t="s">
         <v>223</v>
       </c>
-      <c r="B6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="D6" t="s">
-        <v>226</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -2831,191 +2831,191 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17">
       <c r="A1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" t="s">
         <v>200</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>201</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>202</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="F1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" t="s">
         <v>256</v>
-      </c>
-      <c r="G1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H1" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="187">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G2" t="s">
         <v>247</v>
-      </c>
-      <c r="G2" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="136">
       <c r="A3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G3" t="s">
         <v>249</v>
-      </c>
-      <c r="G3" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="119">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G4" t="s">
         <v>251</v>
       </c>
-      <c r="G4" t="s">
-        <v>252</v>
-      </c>
       <c r="H4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="102">
       <c r="A5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="51">
       <c r="A6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="34">
       <c r="A7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="68">
       <c r="A8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="F8" t="s">
+        <v>284</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="F8" t="s">
-        <v>288</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="C9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="34">
       <c r="A10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G10" t="s">
+        <v>253</v>
+      </c>
+      <c r="H10" t="s">
         <v>254</v>
-      </c>
-      <c r="H10" t="s">
-        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikejohnson/Documents/GitHub/mikejohnson51/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patjohnson/Documents/GitHub/mike_johnson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8232C0-BA46-5644-B697-A28CB056BB66}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2252F4E0-CC10-CA48-BEF9-21674D97BD18}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="61660" windowHeight="24080" tabRatio="500" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teaching" sheetId="1" r:id="rId1"/>
@@ -954,9 +954,6 @@
     <t>FloodMapping</t>
   </si>
   <si>
-    <t>An R Package for ﬂood mapping (HAND &amp; National Water Model) </t>
-  </si>
-  <si>
     <t xml:space="preserve">This package aggrgates the necessary data from the HAND and NWM holdings to map real-time and forecast flood extents. It is being used to driv both flood mapping GUIs and for validation of  the HAND method. </t>
   </si>
   <si>
@@ -1000,6 +997,9 @@
   </si>
   <si>
     <t>resources/images/software/climateR.png</t>
+  </si>
+  <si>
+    <t>An R Package for flood mapping (HAND &amp; National Water Model) </t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1009,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\$#,##0_);[Red]&quot;($&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1040,11 +1040,19 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1068,7 +1076,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1088,6 +1096,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2937,235 +2949,236 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="55" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="34" customWidth="1"/>
-    <col min="7" max="7" width="39.6640625" customWidth="1"/>
-    <col min="8" max="8" width="37.6640625" customWidth="1"/>
-    <col min="9" max="9" width="46.83203125" customWidth="1"/>
-    <col min="10" max="1025" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="12" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="55" style="12" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="34" style="12" customWidth="1"/>
+    <col min="7" max="7" width="39.6640625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="37.6640625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="46.83203125" style="12" customWidth="1"/>
+    <col min="10" max="1025" width="10.5" style="12" customWidth="1"/>
+    <col min="1026" max="16384" width="8.83203125" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="12" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="12" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="404" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="12" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="306" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="12" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="306" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="12" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="153" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="204" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="I6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>300</v>
-      </c>
-      <c r="B7" t="s">
-        <v>301</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="204" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>304</v>
-      </c>
-      <c r="B8" s="12" t="s">
+      <c r="E8" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="F8" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="I8" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="I8" t="s">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="C9" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="I9" s="12" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="I9" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>312</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D10" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="C10" t="s">
-        <v>285</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="G10" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" s="12" t="s">
         <v>316</v>
-      </c>
-      <c r="H10" t="s">
-        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patjohnson/Documents/GitHub/mike_johnson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2252F4E0-CC10-CA48-BEF9-21674D97BD18}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5D0DA3-C3DD-A24D-9EF1-CC5BD17EE9EF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -999,7 +999,7 @@
     <t>resources/images/software/climateR.png</t>
   </si>
   <si>
-    <t>An R Package for flood mapping (HAND &amp; National Water Model) </t>
+    <t>An R Package for flood mapping (HAND &amp; National Water Model)</t>
   </si>
 </sst>
 </file>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patjohnson/Documents/GitHub/mike_johnson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5D0DA3-C3DD-A24D-9EF1-CC5BD17EE9EF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8CAD39-ED0B-9C49-947B-81BDBB516C22}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teaching" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="322">
   <si>
     <t>data</t>
   </si>
@@ -110,60 +110,33 @@
     <t>Travel Grant (AGU)</t>
   </si>
   <si>
-    <t>Graduate Student Association (\$200)</t>
-  </si>
-  <si>
     <t>Summer Research Grant</t>
   </si>
   <si>
-    <t>UCSB Geography (\$2,400)</t>
-  </si>
-  <si>
     <t>COMET Partners Grant</t>
   </si>
   <si>
-    <t>UCAR (\$15,000)</t>
-  </si>
-  <si>
     <t>Seed Grant</t>
   </si>
   <si>
-    <t>UCGHI Planetary Health Center (\$10,000)</t>
-  </si>
-  <si>
     <t>Travel Scholarship (AGU)</t>
   </si>
   <si>
-    <t>Dangermond Fund (\$800)</t>
-  </si>
-  <si>
     <t>National Water Center Course Coordinator</t>
   </si>
   <si>
-    <t>CUASHI (\$15,000)</t>
-  </si>
-  <si>
     <t>Travel Grant (WRF-Hydro Training)</t>
   </si>
   <si>
-    <t>CUASHI (\$500)</t>
-  </si>
-  <si>
     <t>Travel Grant (HAZUS Conference)</t>
   </si>
   <si>
-    <t>Dangermond Fund (\$700)</t>
-  </si>
-  <si>
     <t>2015-2016</t>
   </si>
   <si>
     <t>Disciplines Fellowship</t>
   </si>
   <si>
-    <t>University of California Regents (\$30,000)</t>
-  </si>
-  <si>
     <t>Outstanding Senior</t>
   </si>
   <si>
@@ -171,9 +144,6 @@
   </si>
   <si>
     <t>Top undergraduate paper</t>
-  </si>
-  <si>
-    <t>California Geographical Society (\$500)</t>
   </si>
   <si>
     <t>authors</t>
@@ -452,9 +422,6 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t>CUASHI Hydroinformatics Conference</t>
-  </si>
-  <si>
     <t>Real-time Discharge-to-Damage Flood Mapping 'Anywhere, USA'</t>
   </si>
   <si>
@@ -506,9 +473,6 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t>CUASHI Biennial Conference</t>
-  </si>
-  <si>
     <t>Densified Radar Measurement and Flow Modeling</t>
   </si>
   <si>
@@ -677,13 +641,7 @@
     <t>https://www.ivm.vu.nl/en/index.aspx</t>
   </si>
   <si>
-    <t>CUASHI</t>
-  </si>
-  <si>
     <t>Cambridge Massachusetts</t>
-  </si>
-  <si>
-    <t>../resources/images/affiliations/cuashi.png</t>
   </si>
   <si>
     <t>https://www.cuahsi.org/</t>
@@ -1000,6 +958,51 @@
   </si>
   <si>
     <t>An R Package for flood mapping (HAND &amp; National Water Model)</t>
+  </si>
+  <si>
+    <t>Graduate Student Association ($200)</t>
+  </si>
+  <si>
+    <t>UCSB Geography ($2,400)</t>
+  </si>
+  <si>
+    <t>UCAR ($15,000)</t>
+  </si>
+  <si>
+    <t>UCGHI Planetary Health Center ($10,000)</t>
+  </si>
+  <si>
+    <t>Dangermond Fund ($800)</t>
+  </si>
+  <si>
+    <t>Dangermond Fund ($700)</t>
+  </si>
+  <si>
+    <t>University of California Regents ($30,000)</t>
+  </si>
+  <si>
+    <t>California Geographical Society ($500)</t>
+  </si>
+  <si>
+    <t>CUAHSI ($15,000)</t>
+  </si>
+  <si>
+    <t>CUAHSI ($500)</t>
+  </si>
+  <si>
+    <t>https://github.com/mikejohnson51/nwmRetro</t>
+  </si>
+  <si>
+    <t>CUAHSI Hydroinformatics Conference</t>
+  </si>
+  <si>
+    <t>CUAHSI Biennial Conference</t>
+  </si>
+  <si>
+    <t>CUAHSI</t>
+  </si>
+  <si>
+    <t>../resources/images/affiliations/CUAHSI.png</t>
   </si>
 </sst>
 </file>
@@ -1606,8 +1609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="B12" activeCellId="1" sqref="I8 B12"/>
+    <sheetView zoomScale="108" zoomScaleNormal="44" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1637,7 +1640,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1645,10 +1648,10 @@
         <v>2018</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1656,10 +1659,10 @@
         <v>2018</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1667,10 +1670,10 @@
         <v>2017</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1678,10 +1681,10 @@
         <v>2017</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1689,10 +1692,10 @@
         <v>2017</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1700,10 +1703,10 @@
         <v>2017</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1711,21 +1714,21 @@
         <v>2016</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>42</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1733,10 +1736,10 @@
         <v>2015</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1744,10 +1747,10 @@
         <v>2015</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -1780,296 +1783,296 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
         <v>57</v>
       </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B5">
         <v>2018</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B6">
         <v>2018</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B7">
         <v>2017</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B8">
         <v>2017</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B9">
         <v>2017</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B10">
         <v>2017</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B11">
         <v>2017</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="J11" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B12">
         <v>2016</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E12" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="G12" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B13">
         <v>2016</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E13" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="G13" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2085,8 +2088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="D21" activeCellId="1" sqref="I8 D21"/>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="44" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2103,237 +2106,237 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D6" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>318</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D9" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C11" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B12" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D12" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C13" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B14" t="s">
-        <v>156</v>
+        <v>319</v>
       </c>
       <c r="C14" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D14" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C15" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C16" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D16" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C17" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D17" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="19" x14ac:dyDescent="0.2">
@@ -2365,7 +2368,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
         <v>22</v>
@@ -2373,18 +2376,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2392,7 +2395,7 @@
         <v>2017</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2422,10 +2425,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2433,10 +2436,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2444,32 +2447,32 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C4" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C5" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2477,10 +2480,10 @@
         <v>2017</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C6" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2488,10 +2491,10 @@
         <v>2017</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2499,10 +2502,10 @@
         <v>2016</v>
       </c>
       <c r="B8" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C8" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2510,10 +2513,10 @@
         <v>2016</v>
       </c>
       <c r="B9" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2521,21 +2524,21 @@
         <v>2015</v>
       </c>
       <c r="B10" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C10" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B11" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C11" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -2543,10 +2546,10 @@
         <v>2014</v>
       </c>
       <c r="B12" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C12" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -2554,10 +2557,10 @@
         <v>2013</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C13" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2588,33 +2591,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C2" s="4">
         <v>-119.845</v>
@@ -2623,21 +2626,21 @@
         <v>34.414999999999999</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="F2" s="4">
         <v>75</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C3" s="4">
         <v>4.8657000000000004</v>
@@ -2646,21 +2649,21 @@
         <v>52.333799999999997</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="F3" s="4">
         <v>75</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>213</v>
+        <v>320</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="C4" s="4">
         <v>-71.109700000000004</v>
@@ -2669,21 +2672,21 @@
         <v>42.373600000000003</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>215</v>
+        <v>321</v>
       </c>
       <c r="F4" s="4">
         <v>50</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C5" s="4">
         <v>-77.306399999999996</v>
@@ -2692,21 +2695,21 @@
         <v>38.846200000000003</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="F5" s="4">
         <v>75</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="C6" s="4">
         <v>-87.541399999999996</v>
@@ -2715,21 +2718,21 @@
         <v>33.217599999999997</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="F6" s="4">
         <v>50</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="C7" s="4">
         <v>-105.27500000000001</v>
@@ -2738,21 +2741,21 @@
         <v>39.978299999999997</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="F7" s="4">
         <v>50</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="C8" s="4">
         <v>-122.4586</v>
@@ -2761,21 +2764,21 @@
         <v>37.762700000000002</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="F8" s="4">
         <v>75</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="C9" s="4">
         <v>-122.2711</v>
@@ -2784,21 +2787,21 @@
         <v>37.804400000000001</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="F9" s="4">
         <v>50</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="C10" s="4">
         <v>-120.66249999999999</v>
@@ -2807,13 +2810,13 @@
         <v>35.305</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="F10" s="4">
         <v>50</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -2845,98 +2848,98 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="B1" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="C1" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D1" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="C3" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D3" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="B4" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="C4" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="D4" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="C5" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="D5" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="B6" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="C6" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="D6" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -2949,8 +2952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2970,215 +2973,217 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="404" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="306" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="306" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="204" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="G9" s="14"/>
+        <v>271</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>317</v>
+      </c>
       <c r="I9" s="12" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patjohnson/Documents/GitHub/mike_johnson/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikejohnson/Documents/GitHub/mikejohnson51/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8CAD39-ED0B-9C49-947B-81BDBB516C22}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E08E07-6BA7-104A-B58A-737AAABBDF5D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teaching" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="323">
   <si>
     <t>data</t>
   </si>
@@ -1003,6 +1003,9 @@
   </si>
   <si>
     <t>../resources/images/affiliations/CUAHSI.png</t>
+  </si>
+  <si>
+    <t>Winter 2019</t>
   </si>
 </sst>
 </file>
@@ -1486,16 +1489,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="G15" activeCellId="1" sqref="I8 G15"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="44" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="50.6640625" customWidth="1"/>
+    <col min="2" max="2" width="52.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="1025" width="10.5" customWidth="1"/>
   </cols>
@@ -1513,43 +1516,43 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>322</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1557,45 +1560,56 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2088,7 +2102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="44" workbookViewId="0">
+    <sheetView zoomScale="114" zoomScaleNormal="44" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikejohnson/Documents/GitHub/mikejohnson51/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E08E07-6BA7-104A-B58A-737AAABBDF5D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF6221A-7350-4F45-BD92-AB78D62FFB2D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teaching" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="322">
   <si>
     <t>data</t>
   </si>
@@ -375,9 +375,6 @@
   </si>
   <si>
     <t>The National Water Model and R: Providing fast discovery, access, and usability of NWM output and earth systems data</t>
-  </si>
-  <si>
-    <t>presentation (accepted)</t>
   </si>
   <si>
     <t>Drought adaptation behavior of agricultural stakeholders: An Agent Based Model for Kenya</t>
@@ -1491,7 +1488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="44" workbookViewId="0">
+    <sheetView zoomScale="106" zoomScaleNormal="44" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -1516,7 +1513,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -1654,7 +1651,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1665,7 +1662,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1676,7 +1673,7 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1687,7 +1684,7 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1698,7 +1695,7 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1709,7 +1706,7 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1720,7 +1717,7 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1731,7 +1728,7 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1742,7 +1739,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1764,7 +1761,7 @@
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -2102,8 +2099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView zoomScale="114" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="114" zoomScaleNormal="44" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2140,7 +2137,7 @@
         <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2151,206 +2148,206 @@
         <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" t="s">
         <v>115</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>116</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>117</v>
-      </c>
-      <c r="D4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s">
         <v>115</v>
       </c>
-      <c r="B5" t="s">
-        <v>116</v>
-      </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" t="s">
         <v>120</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>121</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>122</v>
-      </c>
-      <c r="D6" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
         <v>111</v>
       </c>
       <c r="C7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" t="s">
         <v>125</v>
-      </c>
-      <c r="D7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C8" t="s">
         <v>127</v>
       </c>
-      <c r="B8" t="s">
-        <v>318</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>128</v>
-      </c>
-      <c r="D8" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" t="s">
         <v>130</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>131</v>
       </c>
-      <c r="C9" t="s">
-        <v>132</v>
-      </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" t="s">
         <v>133</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>134</v>
       </c>
-      <c r="C10" t="s">
-        <v>135</v>
-      </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" t="s">
         <v>136</v>
       </c>
-      <c r="C11" t="s">
-        <v>137</v>
-      </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" t="s">
         <v>138</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>139</v>
       </c>
-      <c r="C12" t="s">
-        <v>140</v>
-      </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" t="s">
         <v>141</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>142</v>
       </c>
-      <c r="C13" t="s">
-        <v>143</v>
-      </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" t="s">
+        <v>318</v>
+      </c>
+      <c r="C14" t="s">
         <v>144</v>
       </c>
-      <c r="B14" t="s">
-        <v>319</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>145</v>
-      </c>
-      <c r="D14" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" t="s">
         <v>147</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>148</v>
       </c>
-      <c r="C15" t="s">
-        <v>149</v>
-      </c>
       <c r="D15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" t="s">
         <v>150</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>151</v>
       </c>
-      <c r="C16" t="s">
-        <v>152</v>
-      </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" t="s">
         <v>153</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>154</v>
       </c>
-      <c r="C17" t="s">
-        <v>155</v>
-      </c>
       <c r="D17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="19" x14ac:dyDescent="0.2">
@@ -2382,7 +2379,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B1" t="s">
         <v>22</v>
@@ -2390,18 +2387,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" t="s">
         <v>157</v>
-      </c>
-      <c r="B2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" t="s">
         <v>159</v>
-      </c>
-      <c r="B3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2409,7 +2406,7 @@
         <v>2017</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2450,10 +2447,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" t="s">
         <v>162</v>
-      </c>
-      <c r="C2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2461,32 +2458,32 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" t="s">
         <v>164</v>
-      </c>
-      <c r="C3" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" t="s">
         <v>166</v>
-      </c>
-      <c r="B4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" t="s">
         <v>168</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>169</v>
-      </c>
-      <c r="C5" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2494,10 +2491,10 @@
         <v>2017</v>
       </c>
       <c r="B6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" t="s">
         <v>171</v>
-      </c>
-      <c r="C6" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2505,10 +2502,10 @@
         <v>2017</v>
       </c>
       <c r="B7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" t="s">
         <v>173</v>
-      </c>
-      <c r="C7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2516,10 +2513,10 @@
         <v>2016</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2527,10 +2524,10 @@
         <v>2016</v>
       </c>
       <c r="B9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" t="s">
         <v>176</v>
-      </c>
-      <c r="C9" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2538,21 +2535,21 @@
         <v>2015</v>
       </c>
       <c r="B10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" t="s">
         <v>178</v>
-      </c>
-      <c r="C10" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" t="s">
         <v>180</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>181</v>
-      </c>
-      <c r="C11" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -2560,10 +2557,10 @@
         <v>2014</v>
       </c>
       <c r="B12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" t="s">
         <v>183</v>
-      </c>
-      <c r="C12" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -2571,10 +2568,10 @@
         <v>2013</v>
       </c>
       <c r="B13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" t="s">
         <v>185</v>
-      </c>
-      <c r="C13" t="s">
-        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2605,22 +2602,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>40</v>
@@ -2628,10 +2625,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="C2" s="4">
         <v>-119.845</v>
@@ -2640,21 +2637,21 @@
         <v>34.414999999999999</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F2" s="4">
         <v>75</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="C3" s="4">
         <v>4.8657000000000004</v>
@@ -2663,21 +2660,21 @@
         <v>52.333799999999997</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F3" s="4">
         <v>75</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C4" s="4">
         <v>-71.109700000000004</v>
@@ -2686,21 +2683,21 @@
         <v>42.373600000000003</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F4" s="4">
         <v>50</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C5" s="4">
         <v>-77.306399999999996</v>
@@ -2709,21 +2706,21 @@
         <v>38.846200000000003</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F5" s="4">
         <v>75</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>207</v>
       </c>
       <c r="C6" s="4">
         <v>-87.541399999999996</v>
@@ -2732,21 +2729,21 @@
         <v>33.217599999999997</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F6" s="4">
         <v>50</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>211</v>
       </c>
       <c r="C7" s="4">
         <v>-105.27500000000001</v>
@@ -2755,21 +2752,21 @@
         <v>39.978299999999997</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F7" s="4">
         <v>50</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="C8" s="4">
         <v>-122.4586</v>
@@ -2778,21 +2775,21 @@
         <v>37.762700000000002</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F8" s="4">
         <v>75</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>219</v>
       </c>
       <c r="C9" s="4">
         <v>-122.2711</v>
@@ -2801,21 +2798,21 @@
         <v>37.804400000000001</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F9" s="4">
         <v>50</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>223</v>
       </c>
       <c r="C10" s="4">
         <v>-120.66249999999999</v>
@@ -2824,13 +2821,13 @@
         <v>35.305</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F10" s="4">
         <v>50</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -2862,98 +2859,98 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" t="s">
         <v>226</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>227</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>228</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="11" t="s">
         <v>229</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" t="s">
         <v>231</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>232</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>233</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="11" t="s">
         <v>234</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" t="s">
         <v>236</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>237</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="11" t="s">
         <v>238</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" t="s">
         <v>240</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>241</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>242</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="11" t="s">
         <v>243</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" t="s">
         <v>245</v>
       </c>
-      <c r="C5" t="s">
-        <v>242</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" s="11" t="s">
         <v>246</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" t="s">
         <v>248</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>249</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>250</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="11" t="s">
         <v>251</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -2987,217 +2984,217 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>230</v>
-      </c>
       <c r="F1" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>41</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>254</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>261</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="404" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="G3" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>267</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="306" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="D4" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>275</v>
-      </c>
       <c r="H4" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="306" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="D5" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="G5" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>281</v>
-      </c>
       <c r="I5" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="D6" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="E6" s="13" t="s">
+      <c r="G6" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>285</v>
-      </c>
       <c r="I6" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="E7" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="G7" s="14" t="s">
         <v>288</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="204" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="E8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G8" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="I8" s="12" t="s">
         <v>293</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>296</v>
-      </c>
       <c r="C9" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="D10" s="12" t="s">
+      <c r="E10" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="G10" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="H10" s="12" t="s">
         <v>301</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikejohnson/Documents/GitHub/mikejohnson51/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF6221A-7350-4F45-BD92-AB78D62FFB2D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8DF465-058E-E141-9101-30B9A5B745CF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="68800" windowHeight="28340" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teaching" sheetId="1" r:id="rId1"/>
@@ -182,9 +182,6 @@
     <t>Contemporary Cartographic Research: A Review and Prospective</t>
   </si>
   <si>
-    <t>Cartography and Geographic Information Science (in review)</t>
-  </si>
-  <si>
     <t>We review recent developments in cartographic research in North America, in the context of informing the 29th International Cartographic Conference, and 18th General Assembly in 2019. The titles of papers published since 2015 in four leading cartographic journals yielded a corpus of 245 documents containing 1,109 unique terms. These terms were analyzed using Latent Dirichlet Allocation and by visual analytics to produce 14 topic groups that mapped onto 5 classes. These classes were named: information visualization, cartographic data, spatial analysis and applications, methods and models, and GIScience. The classes were then used as themes to discuss the recent cartographic literature more broadly first to review recent trends in the research and to identify research gaps, and secondly to examine prospects for new research over the next 20 years. A conclusion draws some broad findings from the review, suggesting that cartographic research in the future will be aimed less at dealing with data, and more at generating insight and knowledge to better inform society about global challenges.</t>
   </si>
   <si>
@@ -1003,6 +1000,9 @@
   </si>
   <si>
     <t>Winter 2019</t>
+  </si>
+  <si>
+    <t>Cartography and Geographic Information Science (Accepted)</t>
   </si>
 </sst>
 </file>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -1651,7 +1651,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1662,7 +1662,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1673,7 +1673,7 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1684,7 +1684,7 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1695,7 +1695,7 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1706,7 +1706,7 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1717,7 +1717,7 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1728,7 +1728,7 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1739,7 +1739,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1761,7 +1761,7 @@
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -1774,8 +1774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="D2" zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="H2" activeCellId="1" sqref="I8 H2"/>
+    <sheetView zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1835,255 +1835,255 @@
         <v>48</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
         <v>47</v>
       </c>
       <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
         <v>52</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="H3" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
         <v>47</v>
       </c>
       <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
         <v>57</v>
       </c>
-      <c r="D4" t="s">
+      <c r="H4" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5">
         <v>2018</v>
       </c>
       <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
         <v>61</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>62</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>63</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6">
         <v>2018</v>
       </c>
       <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s">
         <v>67</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>68</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>69</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>70</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7">
         <v>2017</v>
       </c>
       <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" t="s">
         <v>74</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>75</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" t="s">
         <v>76</v>
       </c>
-      <c r="F7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8">
         <v>2017</v>
       </c>
       <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
         <v>80</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>81</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="G8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9">
         <v>2017</v>
       </c>
       <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" t="s">
         <v>85</v>
       </c>
-      <c r="D9" t="s">
+      <c r="I9" t="s">
         <v>86</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>87</v>
-      </c>
-      <c r="J9" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10">
         <v>2017</v>
       </c>
       <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
         <v>89</v>
       </c>
-      <c r="D10" t="s">
+      <c r="I10" t="s">
         <v>90</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>91</v>
-      </c>
-      <c r="J10" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11">
         <v>2017</v>
       </c>
       <c r="C11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" t="s">
         <v>93</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>94</v>
       </c>
-      <c r="E11" t="s">
+      <c r="I11" t="s">
         <v>95</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>96</v>
-      </c>
-      <c r="J11" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12">
         <v>2016</v>
       </c>
       <c r="C12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" t="s">
         <v>99</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>100</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>101</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13">
         <v>2016</v>
       </c>
       <c r="C13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" t="s">
         <v>105</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="E13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13" t="s">
-        <v>102</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2099,7 +2099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="114" zoomScaleNormal="44" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="114" zoomScaleNormal="44" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -2117,237 +2117,237 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C1" t="s">
         <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s">
         <v>110</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>111</v>
       </c>
-      <c r="C2" t="s">
-        <v>112</v>
-      </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" t="s">
         <v>110</v>
       </c>
-      <c r="B3" t="s">
-        <v>111</v>
-      </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" t="s">
         <v>114</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>115</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>116</v>
-      </c>
-      <c r="D4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s">
         <v>114</v>
       </c>
-      <c r="B5" t="s">
-        <v>115</v>
-      </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" t="s">
         <v>119</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>120</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>121</v>
-      </c>
-      <c r="D6" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" t="s">
         <v>123</v>
       </c>
-      <c r="B7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>124</v>
-      </c>
-      <c r="D7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C8" t="s">
         <v>126</v>
       </c>
-      <c r="B8" t="s">
-        <v>317</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>127</v>
-      </c>
-      <c r="D8" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" t="s">
         <v>129</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>130</v>
       </c>
-      <c r="C9" t="s">
-        <v>131</v>
-      </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" t="s">
         <v>132</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>133</v>
       </c>
-      <c r="C10" t="s">
-        <v>134</v>
-      </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" t="s">
         <v>135</v>
       </c>
-      <c r="C11" t="s">
-        <v>136</v>
-      </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" t="s">
         <v>137</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>138</v>
       </c>
-      <c r="C12" t="s">
-        <v>139</v>
-      </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" t="s">
         <v>140</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>141</v>
       </c>
-      <c r="C13" t="s">
-        <v>142</v>
-      </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" t="s">
+        <v>317</v>
+      </c>
+      <c r="C14" t="s">
         <v>143</v>
       </c>
-      <c r="B14" t="s">
-        <v>318</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>144</v>
-      </c>
-      <c r="D14" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" t="s">
         <v>146</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>147</v>
       </c>
-      <c r="C15" t="s">
-        <v>148</v>
-      </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" t="s">
         <v>149</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>150</v>
       </c>
-      <c r="C16" t="s">
-        <v>151</v>
-      </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" t="s">
         <v>152</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>153</v>
       </c>
-      <c r="C17" t="s">
-        <v>154</v>
-      </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="19" x14ac:dyDescent="0.2">
@@ -2379,7 +2379,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B1" t="s">
         <v>22</v>
@@ -2387,18 +2387,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" t="s">
         <v>156</v>
-      </c>
-      <c r="B2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" t="s">
         <v>158</v>
-      </c>
-      <c r="B3" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2406,7 +2406,7 @@
         <v>2017</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2419,7 +2419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
+    <sheetView zoomScale="156" zoomScaleNormal="44" workbookViewId="0">
       <selection activeCell="E64" activeCellId="1" sqref="I8 E64"/>
     </sheetView>
   </sheetViews>
@@ -2439,7 +2439,7 @@
         <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2447,10 +2447,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" t="s">
         <v>161</v>
-      </c>
-      <c r="C2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2458,32 +2458,32 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" t="s">
         <v>163</v>
-      </c>
-      <c r="C3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" t="s">
         <v>165</v>
-      </c>
-      <c r="B4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" t="s">
         <v>167</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>168</v>
-      </c>
-      <c r="C5" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2491,10 +2491,10 @@
         <v>2017</v>
       </c>
       <c r="B6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" t="s">
         <v>170</v>
-      </c>
-      <c r="C6" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2502,10 +2502,10 @@
         <v>2017</v>
       </c>
       <c r="B7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" t="s">
         <v>172</v>
-      </c>
-      <c r="C7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2513,10 +2513,10 @@
         <v>2016</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2524,10 +2524,10 @@
         <v>2016</v>
       </c>
       <c r="B9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" t="s">
         <v>175</v>
-      </c>
-      <c r="C9" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2535,21 +2535,21 @@
         <v>2015</v>
       </c>
       <c r="B10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" t="s">
         <v>177</v>
-      </c>
-      <c r="C10" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" t="s">
         <v>179</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>180</v>
-      </c>
-      <c r="C11" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -2557,10 +2557,10 @@
         <v>2014</v>
       </c>
       <c r="B12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" t="s">
         <v>182</v>
-      </c>
-      <c r="C12" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -2568,10 +2568,10 @@
         <v>2013</v>
       </c>
       <c r="B13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" t="s">
         <v>184</v>
-      </c>
-      <c r="C13" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2602,22 +2602,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>40</v>
@@ -2625,10 +2625,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="C2" s="4">
         <v>-119.845</v>
@@ -2637,21 +2637,21 @@
         <v>34.414999999999999</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F2" s="4">
         <v>75</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="C3" s="4">
         <v>4.8657000000000004</v>
@@ -2660,21 +2660,21 @@
         <v>52.333799999999997</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F3" s="4">
         <v>75</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C4" s="4">
         <v>-71.109700000000004</v>
@@ -2683,21 +2683,21 @@
         <v>42.373600000000003</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F4" s="4">
         <v>50</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C5" s="4">
         <v>-77.306399999999996</v>
@@ -2706,21 +2706,21 @@
         <v>38.846200000000003</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F5" s="4">
         <v>75</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="C6" s="4">
         <v>-87.541399999999996</v>
@@ -2729,21 +2729,21 @@
         <v>33.217599999999997</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F6" s="4">
         <v>50</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>210</v>
       </c>
       <c r="C7" s="4">
         <v>-105.27500000000001</v>
@@ -2752,21 +2752,21 @@
         <v>39.978299999999997</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F7" s="4">
         <v>50</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>214</v>
       </c>
       <c r="C8" s="4">
         <v>-122.4586</v>
@@ -2775,21 +2775,21 @@
         <v>37.762700000000002</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F8" s="4">
         <v>75</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>218</v>
       </c>
       <c r="C9" s="4">
         <v>-122.2711</v>
@@ -2798,21 +2798,21 @@
         <v>37.804400000000001</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F9" s="4">
         <v>50</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>222</v>
       </c>
       <c r="C10" s="4">
         <v>-120.66249999999999</v>
@@ -2821,13 +2821,13 @@
         <v>35.305</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F10" s="4">
         <v>50</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2843,7 +2843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="163" zoomScaleNormal="44" workbookViewId="0">
       <selection activeCell="B2" activeCellId="1" sqref="I8 B2"/>
     </sheetView>
   </sheetViews>
@@ -2859,98 +2859,98 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" t="s">
         <v>225</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>226</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>227</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="11" t="s">
         <v>228</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" t="s">
         <v>230</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>231</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>232</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="11" t="s">
         <v>233</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" t="s">
         <v>235</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>236</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="11" t="s">
         <v>237</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" t="s">
         <v>239</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>240</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>241</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="11" t="s">
         <v>242</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" t="s">
         <v>244</v>
       </c>
-      <c r="C5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" s="11" t="s">
         <v>245</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6" t="s">
         <v>247</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>248</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>249</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="11" t="s">
         <v>250</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -2984,217 +2984,217 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>229</v>
-      </c>
       <c r="F1" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>41</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>253</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>260</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="404" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="G3" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>266</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="306" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="D4" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>274</v>
-      </c>
       <c r="H4" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="306" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="D5" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="G5" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>280</v>
-      </c>
       <c r="I5" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="D6" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="E6" s="13" t="s">
+      <c r="G6" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>284</v>
-      </c>
       <c r="I6" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="E7" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="G7" s="14" t="s">
         <v>287</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="204" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="E8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G8" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="I8" s="12" t="s">
         <v>292</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>295</v>
-      </c>
       <c r="C9" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="D10" s="12" t="s">
+      <c r="E10" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="G10" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="H10" s="12" t="s">
         <v>300</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikejohnson/Documents/GitHub/mikejohnson51/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8DF465-058E-E141-9101-30B9A5B745CF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7E5184-E7A2-1942-8A69-D86788F16FC2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="68800" windowHeight="28340" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="68800" windowHeight="15540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teaching" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="323">
   <si>
     <t>data</t>
   </si>
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t>TBD</t>
-  </si>
-  <si>
-    <t>Contemporary Cartographic Research: A Review and Prospective</t>
   </si>
   <si>
     <t>We review recent developments in cartographic research in North America, in the context of informing the 29th International Cartographic Conference, and 18th General Assembly in 2019. The titles of papers published since 2015 in four leading cartographic journals yielded a corpus of 245 documents containing 1,109 unique terms. These terms were analyzed using Latent Dirichlet Allocation and by visual analytics to produce 14 topic groups that mapped onto 5 classes. These classes were named: information visualization, cartographic data, spatial analysis and applications, methods and models, and GIScience. The classes were then used as themes to discuss the recent cartographic literature more broadly first to review recent trends in the research and to identify research gaps, and secondly to examine prospects for new research over the next 20 years. A conclusion draws some broad findings from the review, suggesting that cartographic research in the future will be aimed less at dealing with data, and more at generating insight and knowledge to better inform society about global challenges.</t>
@@ -1003,6 +1000,12 @@
   </si>
   <si>
     <t>Cartography and Geographic Information Science (Accepted)</t>
+  </si>
+  <si>
+    <t>Contemporary American Cartographic Research: A Review and Prospective</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/15230406.2019.1571441</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1082,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1103,6 +1106,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1513,7 +1517,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -1651,7 +1655,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1662,7 +1666,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1673,7 +1677,7 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1684,7 +1688,7 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1695,7 +1699,7 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1706,7 +1710,7 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1717,7 +1721,7 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1728,7 +1732,7 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1739,7 +1743,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1761,7 +1765,7 @@
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -1774,8 +1778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1832,263 +1836,267 @@
         <v>47</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>47</v>
       </c>
       <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
         <v>51</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="H3" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
         <v>47</v>
       </c>
       <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
         <v>56</v>
       </c>
-      <c r="D4" t="s">
+      <c r="H4" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5">
         <v>2018</v>
       </c>
       <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
         <v>60</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>61</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>62</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6">
         <v>2018</v>
       </c>
       <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" t="s">
         <v>66</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>67</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>68</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>69</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7">
         <v>2017</v>
       </c>
       <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" t="s">
         <v>73</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>74</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" t="s">
         <v>75</v>
       </c>
-      <c r="F7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8">
         <v>2017</v>
       </c>
       <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" t="s">
         <v>79</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>80</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="G8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9">
         <v>2017</v>
       </c>
       <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" t="s">
         <v>84</v>
       </c>
-      <c r="D9" t="s">
+      <c r="I9" t="s">
         <v>85</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>86</v>
-      </c>
-      <c r="J9" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10">
         <v>2017</v>
       </c>
       <c r="C10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" t="s">
         <v>88</v>
       </c>
-      <c r="D10" t="s">
+      <c r="I10" t="s">
         <v>89</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>90</v>
-      </c>
-      <c r="J10" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11">
         <v>2017</v>
       </c>
       <c r="C11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" t="s">
         <v>92</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>93</v>
       </c>
-      <c r="E11" t="s">
+      <c r="I11" t="s">
         <v>94</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>95</v>
-      </c>
-      <c r="J11" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B12">
         <v>2016</v>
       </c>
       <c r="C12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" t="s">
         <v>98</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>99</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>100</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13">
         <v>2016</v>
       </c>
       <c r="C13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" t="s">
         <v>104</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="E13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{0E0400ED-7BB6-9442-B10D-2E5E079009E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2117,237 +2125,237 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1" t="s">
         <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
         <v>109</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>110</v>
       </c>
-      <c r="C2" t="s">
-        <v>111</v>
-      </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" t="s">
         <v>109</v>
       </c>
-      <c r="B3" t="s">
-        <v>110</v>
-      </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
         <v>113</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>114</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>115</v>
-      </c>
-      <c r="D4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
         <v>113</v>
       </c>
-      <c r="B5" t="s">
-        <v>114</v>
-      </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" t="s">
         <v>118</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>119</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>120</v>
-      </c>
-      <c r="D6" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" t="s">
         <v>122</v>
       </c>
-      <c r="B7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>123</v>
-      </c>
-      <c r="D7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C8" t="s">
         <v>125</v>
       </c>
-      <c r="B8" t="s">
-        <v>316</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>126</v>
-      </c>
-      <c r="D8" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" t="s">
         <v>128</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>129</v>
       </c>
-      <c r="C9" t="s">
-        <v>130</v>
-      </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" t="s">
         <v>131</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>132</v>
       </c>
-      <c r="C10" t="s">
-        <v>133</v>
-      </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" t="s">
         <v>134</v>
       </c>
-      <c r="C11" t="s">
-        <v>135</v>
-      </c>
       <c r="D11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" t="s">
         <v>136</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>137</v>
       </c>
-      <c r="C12" t="s">
-        <v>138</v>
-      </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" t="s">
         <v>139</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>140</v>
       </c>
-      <c r="C13" t="s">
-        <v>141</v>
-      </c>
       <c r="D13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" t="s">
+        <v>316</v>
+      </c>
+      <c r="C14" t="s">
         <v>142</v>
       </c>
-      <c r="B14" t="s">
-        <v>317</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>143</v>
-      </c>
-      <c r="D14" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" t="s">
         <v>145</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>146</v>
       </c>
-      <c r="C15" t="s">
-        <v>147</v>
-      </c>
       <c r="D15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" t="s">
         <v>148</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>149</v>
       </c>
-      <c r="C16" t="s">
-        <v>150</v>
-      </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" t="s">
         <v>151</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>152</v>
       </c>
-      <c r="C17" t="s">
-        <v>153</v>
-      </c>
       <c r="D17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="19" x14ac:dyDescent="0.2">
@@ -2379,7 +2387,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B1" t="s">
         <v>22</v>
@@ -2387,18 +2395,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" t="s">
         <v>155</v>
-      </c>
-      <c r="B2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" t="s">
         <v>157</v>
-      </c>
-      <c r="B3" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2406,7 +2414,7 @@
         <v>2017</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2439,7 +2447,7 @@
         <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2447,10 +2455,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
         <v>160</v>
-      </c>
-      <c r="C2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2458,32 +2466,32 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" t="s">
         <v>162</v>
-      </c>
-      <c r="C3" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" t="s">
         <v>164</v>
-      </c>
-      <c r="B4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" t="s">
         <v>166</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>167</v>
-      </c>
-      <c r="C5" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2491,10 +2499,10 @@
         <v>2017</v>
       </c>
       <c r="B6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" t="s">
         <v>169</v>
-      </c>
-      <c r="C6" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2502,10 +2510,10 @@
         <v>2017</v>
       </c>
       <c r="B7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" t="s">
         <v>171</v>
-      </c>
-      <c r="C7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2513,10 +2521,10 @@
         <v>2016</v>
       </c>
       <c r="B8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2524,10 +2532,10 @@
         <v>2016</v>
       </c>
       <c r="B9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" t="s">
         <v>174</v>
-      </c>
-      <c r="C9" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2535,21 +2543,21 @@
         <v>2015</v>
       </c>
       <c r="B10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" t="s">
         <v>176</v>
-      </c>
-      <c r="C10" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" t="s">
         <v>178</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>179</v>
-      </c>
-      <c r="C11" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -2557,10 +2565,10 @@
         <v>2014</v>
       </c>
       <c r="B12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" t="s">
         <v>181</v>
-      </c>
-      <c r="C12" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -2568,10 +2576,10 @@
         <v>2013</v>
       </c>
       <c r="B13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" t="s">
         <v>183</v>
-      </c>
-      <c r="C13" t="s">
-        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2602,22 +2610,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>40</v>
@@ -2625,10 +2633,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="C2" s="4">
         <v>-119.845</v>
@@ -2637,21 +2645,21 @@
         <v>34.414999999999999</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F2" s="4">
         <v>75</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="C3" s="4">
         <v>4.8657000000000004</v>
@@ -2660,21 +2668,21 @@
         <v>52.333799999999997</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F3" s="4">
         <v>75</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C4" s="4">
         <v>-71.109700000000004</v>
@@ -2683,21 +2691,21 @@
         <v>42.373600000000003</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F4" s="4">
         <v>50</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="4">
         <v>-77.306399999999996</v>
@@ -2706,21 +2714,21 @@
         <v>38.846200000000003</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F5" s="4">
         <v>75</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>205</v>
       </c>
       <c r="C6" s="4">
         <v>-87.541399999999996</v>
@@ -2729,21 +2737,21 @@
         <v>33.217599999999997</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F6" s="4">
         <v>50</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="C7" s="4">
         <v>-105.27500000000001</v>
@@ -2752,21 +2760,21 @@
         <v>39.978299999999997</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F7" s="4">
         <v>50</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="C8" s="4">
         <v>-122.4586</v>
@@ -2775,21 +2783,21 @@
         <v>37.762700000000002</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F8" s="4">
         <v>75</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="C9" s="4">
         <v>-122.2711</v>
@@ -2798,21 +2806,21 @@
         <v>37.804400000000001</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F9" s="4">
         <v>50</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>221</v>
       </c>
       <c r="C10" s="4">
         <v>-120.66249999999999</v>
@@ -2821,13 +2829,13 @@
         <v>35.305</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F10" s="4">
         <v>50</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -2843,7 +2851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="163" zoomScaleNormal="44" workbookViewId="0">
+    <sheetView zoomScale="57" zoomScaleNormal="44" workbookViewId="0">
       <selection activeCell="B2" activeCellId="1" sqref="I8 B2"/>
     </sheetView>
   </sheetViews>
@@ -2859,98 +2867,98 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" t="s">
         <v>224</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>225</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>226</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="11" t="s">
         <v>227</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" t="s">
         <v>229</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>230</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>231</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="11" t="s">
         <v>232</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" t="s">
         <v>234</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>235</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="11" t="s">
         <v>236</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" t="s">
         <v>238</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>239</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>240</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="11" t="s">
         <v>241</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" t="s">
         <v>243</v>
       </c>
-      <c r="C5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" s="11" t="s">
         <v>244</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B6" t="s">
         <v>246</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>247</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>248</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="11" t="s">
         <v>249</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -2984,217 +2992,217 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>228</v>
-      </c>
       <c r="F1" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>41</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>252</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>259</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="404" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="G3" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>265</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="306" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="D4" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>273</v>
-      </c>
       <c r="H4" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="306" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="D5" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="G5" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>279</v>
-      </c>
       <c r="I5" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="D6" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="E6" s="13" t="s">
+      <c r="G6" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>283</v>
-      </c>
       <c r="I6" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="E7" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="G7" s="14" t="s">
         <v>286</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="204" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="E8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G8" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="I8" s="12" t="s">
         <v>291</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>294</v>
-      </c>
       <c r="C9" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="D10" s="12" t="s">
+      <c r="E10" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="G10" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="H10" s="12" t="s">
         <v>299</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikejohnson/Documents/GitHub/mikejohnson51/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7E5184-E7A2-1942-8A69-D86788F16FC2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E47777-2922-1840-9B31-9AE4B843DB7D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="68800" windowHeight="15540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikejohnson/Documents/GitHub/mikejohnson51/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E47777-2922-1840-9B31-9AE4B843DB7D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2A8D9B-A3F1-7848-A0E8-7DED9DE10644}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="68800" windowHeight="15540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teaching" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,14 @@
     <sheet name="current_work" sheetId="8" r:id="rId8"/>
     <sheet name="software" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -33,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="329">
   <si>
     <t>data</t>
   </si>
@@ -191,19 +197,7 @@
     <t>In preparation</t>
   </si>
   <si>
-    <t>https://mikejohnson51.github.io/mikjohns51.github.io/FlowFinder/</t>
-  </si>
-  <si>
     <t>Each day the National Water Model generates over 400 GB of data relating to the surface hydrology of the continental United States (CONUS). Managing this data and making it accessible is at the core of maximizing such a modeling system, and NOAA’s aim of providing hydrology as a service. In this paper we introduce an R Shiny web application that allows users to subset, interact, visualize, and download the National Hydrography Dataset (NHD) along with current to five day-out streamflow conditions for anywhere in the CONUS. Additionally, the application allows users to compare flow conditions to a modeled monthly average, and identifies regions within the CONUS showing significantly high flow peaks. The last of these represents a first step towards national-scale flood detection.</t>
-  </si>
-  <si>
-    <t>Marthe Wens, {\me}, Cecilia Zagaria, T.I.E Veldkamp</t>
-  </si>
-  <si>
-    <t>Improving Drought Risk Modeling: An Agent-based Approach</t>
-  </si>
-  <si>
-    <t>WIRES Water (In review)</t>
   </si>
   <si>
     <t>Droughts are a persistent and costly hazard impacting human and environmental systems. As climate variability continues to increase and socio-economic development continues to change the distribution of exposed assets, drought risk is expected to increase in many parts of the world. The unique characteristics of droughts - namely their fuzzy edges, large spatial extent, prolonged temporal bounds, human-influenced propagation, and teleconnection potential – challenge the correct assessment of drought risk. Further complicating such assessment is the ability of humans to make adaptive decisions before, during, and after a drought event, altering the expected impact.</t>
@@ -999,13 +993,43 @@
     <t>Winter 2019</t>
   </si>
   <si>
-    <t>Cartography and Geographic Information Science (Accepted)</t>
-  </si>
-  <si>
     <t>Contemporary American Cartographic Research: A Review and Prospective</t>
   </si>
   <si>
-    <t>https://doi.org/10.1080/15230406.2019.1571441</t>
+    <t>Cartography and Geographic Information Science</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/doi/full/10.1080/15230406.2019.1571441</t>
+  </si>
+  <si>
+    <t>https://mikejohnson51.github.io/mikejohns51.github.io/FlowFinder/</t>
+  </si>
+  <si>
+    <t>pdfs/Contemporary_American_cartographic_research.pdf</t>
+  </si>
+  <si>
+    <t>Integrating human behavior dynamics into drought risk assessment - A socio-hydrologic, agent-based approach</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {\me}*, Marthe Wens*, Cecilia Zagaria, T.I.E Veldkamp</t>
+  </si>
+  <si>
+    <t>WIRES Water * co-first author</t>
+  </si>
+  <si>
+    <t>{\me}, Dinuke Munasinghe, Damilola Eyelade, Sagy Cohen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Comprehensive Evaluation of the National Water Model (NWM) - Height Above Nearest Drainage (HAND) Flood Mapping Methodology </t>
+  </si>
+  <si>
+    <t>Natural Hazards and Earth System Sciences</t>
+  </si>
+  <si>
+    <t>2019 (in review)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flood maps are needed for emergency response, research, and planning. The Height Above Nearest Drainage (HAND) technique is a low-complexity, terrain-based approach for inundation mapping from elevation, discharge-height relationship, and streamflow data.  The recent operational capacities of the NOAA National Water Model (NWM) and pre-processed HAND products from the University of Texas offer an operational framework for real-time and forecast flood mapping across the United States. This paper offers the first detailed evaluation of the coupled NWM-HAND approach by comparing NWM-HAND simulations to a database of remotely sensed flood maps. These comparisons are made both quantitatively and through a detailed evaluation of selected results. The results show that NWM-HAND performs well in the majority of cases with 70% of the calculated flood maps yielding an agreement of 80% or better with the remote sensing observations. Persistent inaccuracies occur in lower-order reaches, regions of low relief, and when the NWM misses substantially either in magnitude or timing. </t>
   </si>
 </sst>
 </file>
@@ -1015,7 +1039,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\$#,##0_);[Red]&quot;($&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1060,6 +1084,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1082,7 +1112,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1092,7 +1122,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1107,6 +1136,8 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1517,7 +1548,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -1655,7 +1686,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1666,7 +1697,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1677,7 +1708,7 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1688,7 +1719,7 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1699,7 +1730,7 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1710,7 +1741,7 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1721,7 +1752,7 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1732,7 +1763,7 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1743,7 +1774,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1765,7 +1796,7 @@
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -1776,27 +1807,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.83203125" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" customWidth="1"/>
-    <col min="3" max="3" width="82.5" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="116.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="163.5" customWidth="1"/>
     <col min="5" max="5" width="63.6640625" customWidth="1"/>
     <col min="6" max="6" width="38.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40.6640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
     <col min="10" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>37</v>
       </c>
@@ -1830,273 +1861,292 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>46</v>
+        <v>324</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>48</v>
+        <v>327</v>
+      </c>
+      <c r="C2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D2" t="s">
+        <v>326</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
+        <v>322</v>
+      </c>
+      <c r="B3">
+        <v>2019</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>321</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>52</v>
+        <v>323</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" t="s">
-        <v>56</v>
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <v>2019</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="G4" t="s">
+        <v>320</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5">
-        <v>2018</v>
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" t="s">
-        <v>62</v>
+        <v>51</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>319</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>63</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B6">
         <v>2018</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B7">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G7" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B8">
         <v>2017</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>70</v>
+      </c>
+      <c r="F8" t="s">
+        <v>64</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B9">
         <v>2017</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
-      </c>
-      <c r="I9" t="s">
-        <v>85</v>
-      </c>
-      <c r="J9" t="s">
-        <v>86</v>
+        <v>75</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B10">
         <v>2017</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B11">
         <v>2017</v>
       </c>
       <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12">
+        <v>2017</v>
+      </c>
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" t="s">
         <v>91</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="E11" t="s">
-        <v>93</v>
-      </c>
-      <c r="I11" t="s">
-        <v>94</v>
-      </c>
-      <c r="J11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12">
-        <v>2016</v>
-      </c>
-      <c r="C12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" t="s">
-        <v>100</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="B13">
         <v>2016</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14">
+        <v>2016</v>
+      </c>
+      <c r="C14" t="s">
         <v>99</v>
       </c>
-      <c r="G13" t="s">
+      <c r="D14" t="s">
         <v>100</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>105</v>
+      <c r="E14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{0E0400ED-7BB6-9442-B10D-2E5E079009E5}"/>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2125,244 +2175,244 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C1" t="s">
         <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" t="s">
         <v>111</v>
-      </c>
-      <c r="D3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" t="s">
         <v>112</v>
       </c>
-      <c r="B5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" t="s">
-        <v>116</v>
-      </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" t="s">
         <v>130</v>
       </c>
-      <c r="B11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" t="s">
-        <v>134</v>
-      </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D14" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C16" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="B25" s="9"/>
+      <c r="B25" s="8"/>
     </row>
     <row r="27" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="B27" s="9"/>
+      <c r="B27" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2387,7 +2437,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B1" t="s">
         <v>22</v>
@@ -2395,18 +2445,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2414,7 +2464,7 @@
         <v>2017</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2447,7 +2497,7 @@
         <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2455,10 +2505,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2466,32 +2516,32 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2499,10 +2549,10 @@
         <v>2017</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2510,10 +2560,10 @@
         <v>2017</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2521,10 +2571,10 @@
         <v>2016</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2532,10 +2582,10 @@
         <v>2016</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2543,21 +2593,21 @@
         <v>2015</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C10" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C11" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -2565,10 +2615,10 @@
         <v>2014</v>
       </c>
       <c r="B12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C12" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -2576,10 +2626,10 @@
         <v>2013</v>
       </c>
       <c r="B13" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2610,22 +2660,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>40</v>
@@ -2633,10 +2683,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C2" s="4">
         <v>-119.845</v>
@@ -2645,21 +2695,21 @@
         <v>34.414999999999999</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F2" s="4">
         <v>75</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C3" s="4">
         <v>4.8657000000000004</v>
@@ -2668,21 +2718,21 @@
         <v>52.333799999999997</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F3" s="4">
         <v>75</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C4" s="4">
         <v>-71.109700000000004</v>
@@ -2691,21 +2741,21 @@
         <v>42.373600000000003</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F4" s="4">
         <v>50</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C5" s="4">
         <v>-77.306399999999996</v>
@@ -2714,21 +2764,21 @@
         <v>38.846200000000003</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F5" s="4">
         <v>75</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C6" s="4">
         <v>-87.541399999999996</v>
@@ -2737,21 +2787,21 @@
         <v>33.217599999999997</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F6" s="4">
         <v>50</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C7" s="4">
         <v>-105.27500000000001</v>
@@ -2760,21 +2810,21 @@
         <v>39.978299999999997</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F7" s="4">
         <v>50</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C8" s="4">
         <v>-122.4586</v>
@@ -2783,21 +2833,21 @@
         <v>37.762700000000002</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F8" s="4">
         <v>75</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C9" s="4">
         <v>-122.2711</v>
@@ -2806,21 +2856,21 @@
         <v>37.804400000000001</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F9" s="4">
         <v>50</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C10" s="4">
         <v>-120.66249999999999</v>
@@ -2829,13 +2879,13 @@
         <v>35.305</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F10" s="4">
         <v>50</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>222</v>
+      <c r="G10" s="9" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -2861,104 +2911,104 @@
     <col min="2" max="2" width="55" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
-    <col min="5" max="5" width="55" style="11" customWidth="1"/>
+    <col min="5" max="5" width="55" style="10" customWidth="1"/>
     <col min="6" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>223</v>
-      </c>
-      <c r="B1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>228</v>
-      </c>
-      <c r="B2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>236</v>
+        <v>231</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>237</v>
-      </c>
-      <c r="B4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" t="s">
         <v>239</v>
       </c>
-      <c r="D5" t="s">
-        <v>243</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>244</v>
+      <c r="E5" s="10" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>245</v>
-      </c>
-      <c r="B6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C6" t="s">
-        <v>247</v>
-      </c>
-      <c r="D6" t="s">
-        <v>248</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -2977,232 +3027,232 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="12" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="55" style="12" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="34" style="12" customWidth="1"/>
-    <col min="7" max="7" width="39.6640625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="37.6640625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="46.83203125" style="12" customWidth="1"/>
-    <col min="10" max="1025" width="10.5" style="12" customWidth="1"/>
-    <col min="1026" max="16384" width="8.83203125" style="12"/>
+    <col min="1" max="1" width="13.5" style="11" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="55" style="11" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="34" style="11" customWidth="1"/>
+    <col min="7" max="7" width="39.6640625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="37.6640625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="46.83203125" style="11" customWidth="1"/>
+    <col min="10" max="1025" width="10.5" style="11" customWidth="1"/>
+    <col min="1026" max="16384" width="8.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="E2" s="13" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="404" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="404" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="E3" s="13" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="306" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="306" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="E4" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="H4" s="11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="306" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="E5" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="306" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="G5" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="I5" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="D6" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="153" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="I6" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="E6" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="I6" s="12" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+    </row>
+    <row r="8" spans="1:9" ht="204" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B8" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="F8" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="204" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="I8" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="E8" s="13" t="s">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="C9" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="C10" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="E10" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="H10" s="11" t="s">
         <v>295</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikejohnson/Documents/GitHub/mikejohnson51/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2A8D9B-A3F1-7848-A0E8-7DED9DE10644}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70178EF-854F-B846-909C-3299D23B86EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikejohnson/Documents/GitHub/mikejohnson51/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70178EF-854F-B846-909C-3299D23B86EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7674A08B-CE07-E143-B62F-42B6F47D8048}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="1680" windowWidth="50260" windowHeight="18540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teaching" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="335">
   <si>
     <t>data</t>
   </si>
@@ -344,9 +344,6 @@
     <t>Radar Measurement and Flow Modeling: Methods</t>
   </si>
   <si>
-    <t>National Water Center Innovators Program Summer Institute Report. Consortium of Universities for the Advancement of Hydrologic</t>
-  </si>
-  <si>
     <t>Traditional river forecasting and hydraulic modeling is limited by the type, quantity and density of measurements available. Currently, the hydrologic community is reliant on a combination of USGS gages, remotely sensed data, and field work to model the hydrologic properties of a reach. However, if hyper resolution or continent‐scale modeling is undertaken, more data is necessary than the current network can provide. The most obvious way to improve upon this shortcoming is to implement a more densified measurement network; while USGS stations are the industry standard, they are too sparsely located and often not representative of the waterways they are being used to describe. An alternative sensor, the Sommer GmbH RQ‐30 radar, is more cost‐effective, measures both stage and velocity, and operates autonomously. This paper outlines the rationale and objectives behind the installation of these systems, describes two study sites where these instruments have been installed, lays out different methods to gather bathymetry data, and ultimately uses these data, combined with the sensors, to model the reaches.</t>
   </si>
   <si>
@@ -1011,9 +1008,6 @@
     <t>Integrating human behavior dynamics into drought risk assessment - A socio-hydrologic, agent-based approach</t>
   </si>
   <si>
-    <t xml:space="preserve"> {\me}*, Marthe Wens*, Cecilia Zagaria, T.I.E Veldkamp</t>
-  </si>
-  <si>
     <t>WIRES Water * co-first author</t>
   </si>
   <si>
@@ -1030,6 +1024,30 @@
   </si>
   <si>
     <t xml:space="preserve">Flood maps are needed for emergency response, research, and planning. The Height Above Nearest Drainage (HAND) technique is a low-complexity, terrain-based approach for inundation mapping from elevation, discharge-height relationship, and streamflow data.  The recent operational capacities of the NOAA National Water Model (NWM) and pre-processed HAND products from the University of Texas offer an operational framework for real-time and forecast flood mapping across the United States. This paper offers the first detailed evaluation of the coupled NWM-HAND approach by comparing NWM-HAND simulations to a database of remotely sensed flood maps. These comparisons are made both quantitatively and through a detailed evaluation of selected results. The results show that NWM-HAND performs well in the majority of cases with 70% of the calculated flood maps yielding an agreement of 80% or better with the remote sensing observations. Persistent inaccuracies occur in lower-order reaches, regions of low relief, and when the NWM misses substantially either in magnitude or timing. </t>
+  </si>
+  <si>
+    <t>What is Water Security?</t>
+  </si>
+  <si>
+    <t>{\me}*, Marthe Wens*, Cecilia Zagaria, T.I.E Veldkamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water resource management represents one of the clearest interfaces between nature and society. In a world facing greater climate and hydrologic uncertainty, emergent ‘water crises’ are anticipated to pose increasing challenges to human welfare. The term ‘water security’ has come to embody the compound impacts of variable water crises. Yet, despite comprehensive attempts to articulate what it means to be water secure, the term remains ill defined. The lack of an explicit, interdisciplinary understanding hinders the ability to monitor, improve, and measure security and risk in turn challenging the collective research agenda and the operational capacities of governments. We reviewed recent developments in published water security literature using a corpus of 85 definitions containing 546 unique terms. These terms were analyzed using Latent Dirichlet Allocation and visual analytics to produce 9 topics that map onto 4 groups. These were termed: supply, quality, human-access, and environment. A fifth underlying group of scale also emerged. A conclusion draws some broad findings from the review of definitions, suggesting that water security research has simultaneously expanded its inclusivity of disciplines while taking more focused meanings to match academic specializations and stakeholder values. Combined, these evolutions have expanded the meaning, context, and use of ‘water security’ to a point that is has become tantamount to overall security. Instead, we hope to show how despite high-level differences, an understanding of supply, quality, human-access, environment and scale can provide the flexibility needed to adapt to new crises and geographic contexts, while also providing focus within the increasingly broad field of tantamount importance. </t>
+  </si>
+  <si>
+    <t>Spring 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remote Sensing of the Environment 3 </t>
+  </si>
+  <si>
+    <t>Dr. Vena Chu</t>
+  </si>
+  <si>
+    <t>{\me}, Keith C. Clarke</t>
+  </si>
+  <si>
+    <t>National Water Center Innovators Program Summer Institute Report. Consortium of Universities for the Advancement of Hydrologic Science, Inc. Technical Report 13, Ch 1</t>
   </si>
 </sst>
 </file>
@@ -1521,10 +1539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1548,54 +1566,54 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>331</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>314</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1603,45 +1621,56 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1686,7 +1715,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1697,7 +1726,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1708,7 +1737,7 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1719,7 +1748,7 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1730,7 +1759,7 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1741,7 +1770,7 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1752,7 +1781,7 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1763,7 +1792,7 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1774,7 +1803,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1796,7 +1825,7 @@
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -1807,10 +1836,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1861,198 +1890,195 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="B2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" t="s">
         <v>327</v>
       </c>
-      <c r="C2" t="s">
-        <v>325</v>
-      </c>
       <c r="D2" t="s">
-        <v>326</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>328</v>
+        <v>62</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="B3">
-        <v>2019</v>
+      <c r="B3" t="s">
+        <v>325</v>
       </c>
       <c r="C3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D3" t="s">
-        <v>323</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>53</v>
+        <v>324</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>46</v>
+        <v>328</v>
       </c>
       <c r="B4">
         <v>2019</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="C4" t="s">
         <v>320</v>
       </c>
+      <c r="D4" t="s">
+        <v>321</v>
+      </c>
       <c r="H4" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5">
+        <v>2019</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="G5" t="s">
         <v>319</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="3"/>
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6">
-        <v>2018</v>
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" t="s">
-        <v>58</v>
+        <v>51</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>59</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B7">
         <v>2018</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B8">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
         <v>64</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B9">
         <v>2017</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
+        <v>64</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B10">
         <v>2017</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
-      </c>
-      <c r="I10" t="s">
-        <v>81</v>
-      </c>
-      <c r="J10" t="s">
-        <v>82</v>
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -2063,16 +2089,16 @@
         <v>2017</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -2083,56 +2109,53 @@
         <v>2017</v>
       </c>
       <c r="C12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13">
+        <v>2017</v>
+      </c>
+      <c r="C13" t="s">
         <v>87</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>88</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>89</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I13" t="s">
         <v>90</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B13">
-        <v>2016</v>
-      </c>
-      <c r="C13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G13" t="s">
-        <v>96</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="B14">
         <v>2016</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s">
         <v>95</v>
@@ -2140,13 +2163,36 @@
       <c r="G14" t="s">
         <v>96</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>101</v>
+      <c r="H14" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15">
+        <v>2016</v>
+      </c>
+      <c r="C15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" t="s">
+        <v>334</v>
+      </c>
+      <c r="E15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2175,237 +2221,237 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C1" t="s">
         <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" t="s">
         <v>104</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>105</v>
       </c>
-      <c r="C2" t="s">
-        <v>106</v>
-      </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
         <v>104</v>
       </c>
-      <c r="B3" t="s">
-        <v>105</v>
-      </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s">
         <v>108</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>109</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>110</v>
-      </c>
-      <c r="D4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
         <v>108</v>
       </c>
-      <c r="B5" t="s">
-        <v>109</v>
-      </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" t="s">
         <v>113</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>114</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>115</v>
-      </c>
-      <c r="D6" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" t="s">
         <v>117</v>
       </c>
-      <c r="B7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>118</v>
-      </c>
-      <c r="D7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C8" t="s">
         <v>120</v>
       </c>
-      <c r="B8" t="s">
-        <v>311</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>121</v>
-      </c>
-      <c r="D8" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" t="s">
         <v>123</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>124</v>
       </c>
-      <c r="C9" t="s">
-        <v>125</v>
-      </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" t="s">
         <v>126</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>127</v>
       </c>
-      <c r="C10" t="s">
-        <v>128</v>
-      </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" t="s">
         <v>129</v>
       </c>
-      <c r="C11" t="s">
-        <v>130</v>
-      </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" t="s">
         <v>131</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>132</v>
       </c>
-      <c r="C12" t="s">
-        <v>133</v>
-      </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" t="s">
         <v>134</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>135</v>
       </c>
-      <c r="C13" t="s">
-        <v>136</v>
-      </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" t="s">
+        <v>311</v>
+      </c>
+      <c r="C14" t="s">
         <v>137</v>
       </c>
-      <c r="B14" t="s">
-        <v>312</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>138</v>
-      </c>
-      <c r="D14" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" t="s">
         <v>140</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>141</v>
       </c>
-      <c r="C15" t="s">
-        <v>142</v>
-      </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" t="s">
         <v>143</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>144</v>
       </c>
-      <c r="C16" t="s">
-        <v>145</v>
-      </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" t="s">
         <v>146</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>147</v>
       </c>
-      <c r="C17" t="s">
-        <v>148</v>
-      </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="19" x14ac:dyDescent="0.2">
@@ -2437,7 +2483,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B1" t="s">
         <v>22</v>
@@ -2445,18 +2491,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" t="s">
         <v>150</v>
-      </c>
-      <c r="B2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" t="s">
         <v>152</v>
-      </c>
-      <c r="B3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2464,7 +2510,7 @@
         <v>2017</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2497,7 +2543,7 @@
         <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2505,10 +2551,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" t="s">
         <v>155</v>
-      </c>
-      <c r="C2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2516,32 +2562,32 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" t="s">
         <v>157</v>
-      </c>
-      <c r="C3" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" t="s">
         <v>159</v>
-      </c>
-      <c r="B4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" t="s">
         <v>161</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>162</v>
-      </c>
-      <c r="C5" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2549,10 +2595,10 @@
         <v>2017</v>
       </c>
       <c r="B6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" t="s">
         <v>164</v>
-      </c>
-      <c r="C6" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2560,10 +2606,10 @@
         <v>2017</v>
       </c>
       <c r="B7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" t="s">
         <v>166</v>
-      </c>
-      <c r="C7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2571,10 +2617,10 @@
         <v>2016</v>
       </c>
       <c r="B8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2582,10 +2628,10 @@
         <v>2016</v>
       </c>
       <c r="B9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" t="s">
         <v>169</v>
-      </c>
-      <c r="C9" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2593,21 +2639,21 @@
         <v>2015</v>
       </c>
       <c r="B10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" t="s">
         <v>171</v>
-      </c>
-      <c r="C10" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" t="s">
         <v>173</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>174</v>
-      </c>
-      <c r="C11" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -2615,10 +2661,10 @@
         <v>2014</v>
       </c>
       <c r="B12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" t="s">
         <v>176</v>
-      </c>
-      <c r="C12" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -2626,10 +2672,10 @@
         <v>2013</v>
       </c>
       <c r="B13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" t="s">
         <v>178</v>
-      </c>
-      <c r="C13" t="s">
-        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2660,22 +2706,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>40</v>
@@ -2683,10 +2729,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="C2" s="4">
         <v>-119.845</v>
@@ -2695,21 +2741,21 @@
         <v>34.414999999999999</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F2" s="4">
         <v>75</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="C3" s="4">
         <v>4.8657000000000004</v>
@@ -2718,21 +2764,21 @@
         <v>52.333799999999997</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F3" s="4">
         <v>75</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C4" s="4">
         <v>-71.109700000000004</v>
@@ -2741,21 +2787,21 @@
         <v>42.373600000000003</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F4" s="4">
         <v>50</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="4">
         <v>-77.306399999999996</v>
@@ -2764,21 +2810,21 @@
         <v>38.846200000000003</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F5" s="4">
         <v>75</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="C6" s="4">
         <v>-87.541399999999996</v>
@@ -2787,21 +2833,21 @@
         <v>33.217599999999997</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F6" s="4">
         <v>50</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="C7" s="4">
         <v>-105.27500000000001</v>
@@ -2810,21 +2856,21 @@
         <v>39.978299999999997</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F7" s="4">
         <v>50</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="C8" s="4">
         <v>-122.4586</v>
@@ -2833,21 +2879,21 @@
         <v>37.762700000000002</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F8" s="4">
         <v>75</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>212</v>
       </c>
       <c r="C9" s="4">
         <v>-122.2711</v>
@@ -2856,21 +2902,21 @@
         <v>37.804400000000001</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F9" s="4">
         <v>50</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>216</v>
       </c>
       <c r="C10" s="4">
         <v>-120.66249999999999</v>
@@ -2879,13 +2925,13 @@
         <v>35.305</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F10" s="4">
         <v>50</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2917,98 +2963,98 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" t="s">
         <v>219</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>220</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>221</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="10" t="s">
         <v>222</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" t="s">
         <v>224</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>225</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>226</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="10" t="s">
         <v>227</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" t="s">
         <v>229</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>230</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="10" t="s">
         <v>231</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4" t="s">
         <v>233</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>234</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>235</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="10" t="s">
         <v>236</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" t="s">
         <v>238</v>
       </c>
-      <c r="C5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" s="10" t="s">
         <v>239</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" t="s">
         <v>241</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>242</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>243</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="10" t="s">
         <v>244</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -3042,217 +3088,217 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>223</v>
-      </c>
       <c r="F1" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>41</v>
       </c>
       <c r="H1" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>247</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>254</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="404" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>260</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="306" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>268</v>
-      </c>
       <c r="H4" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="306" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="D5" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="G5" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>274</v>
-      </c>
       <c r="I5" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="D6" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="G6" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>278</v>
-      </c>
       <c r="I6" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="E7" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="G7" s="13" t="s">
         <v>281</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="204" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="E8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="G8" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="I8" s="11" t="s">
         <v>286</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>289</v>
-      </c>
       <c r="C9" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="C10" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="E10" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>294</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikejohnson/Documents/GitHub/mikejohnson51/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7674A08B-CE07-E143-B62F-42B6F47D8048}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AE3467-5A80-7340-B970-232D8678C81F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="1680" windowWidth="50260" windowHeight="18540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teaching" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="341">
   <si>
     <t>data</t>
   </si>
@@ -1048,6 +1048,24 @@
   </si>
   <si>
     <t>National Water Center Innovators Program Summer Institute Report. Consortium of Universities for the Advancement of Hydrologic Science, Inc. Technical Report 13, Ch 1</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -1836,363 +1854,408 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.83203125" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="116.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="163.5" customWidth="1"/>
-    <col min="5" max="5" width="63.6640625" customWidth="1"/>
-    <col min="6" max="6" width="38.6640625" customWidth="1"/>
-    <col min="7" max="7" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="23.5" customWidth="1"/>
-    <col min="10" max="1025" width="10.5" customWidth="1"/>
+    <col min="1" max="2" width="45.83203125" customWidth="1"/>
+    <col min="3" max="3" width="28.5" customWidth="1"/>
+    <col min="4" max="4" width="116.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="163.5" customWidth="1"/>
+    <col min="6" max="6" width="63.6640625" customWidth="1"/>
+    <col min="7" max="7" width="38.6640625" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="23.5" customWidth="1"/>
+    <col min="11" max="1026" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>44</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C2" t="s">
         <v>325</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>327</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C3" t="s">
         <v>325</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>323</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>324</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="I3" s="16" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C4">
         <v>2019</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>320</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>321</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C5">
         <v>2019</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>319</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>50</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="F6" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C7">
         <v>2018</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>55</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>56</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>57</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C8">
         <v>2018</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>61</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>62</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>63</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>64</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C9">
         <v>2017</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>68</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>69</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>70</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>64</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C10">
         <v>2017</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>74</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>75</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>76</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C11">
         <v>2017</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>79</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>80</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>81</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C12">
         <v>2017</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>83</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>84</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>85</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C13">
         <v>2017</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>87</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>88</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>89</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>90</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C14">
         <v>2016</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>93</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>94</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>95</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>96</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="I14" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C15">
         <v>2016</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>99</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>334</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>95</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>96</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="F6" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikejohnson/Documents/GitHub/mikejohnson51/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AE3467-5A80-7340-B970-232D8678C81F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E8B250-0B23-C242-9263-2B76F16A5BBD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teaching" sheetId="1" r:id="rId1"/>
@@ -89,9 +89,6 @@
     <t>Conceptual Modeling and Programming for the Geo-Sciences</t>
   </si>
   <si>
-    <t>Dr. Krystof Janowitz</t>
-  </si>
-  <si>
     <t>Fall 2016</t>
   </si>
   <si>
@@ -1066,6 +1063,9 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>Dr. Krzysztof Janowicz</t>
   </si>
 </sst>
 </file>
@@ -1560,14 +1560,14 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="52.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
     <col min="4" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1584,24 +1584,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B2" t="s">
         <v>330</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>331</v>
-      </c>
-      <c r="C2" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1667,23 +1667,23 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -1716,13 +1716,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1730,10 +1730,10 @@
         <v>2018</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1741,10 +1741,10 @@
         <v>2018</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1752,10 +1752,10 @@
         <v>2018</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1763,10 +1763,10 @@
         <v>2017</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1774,10 +1774,10 @@
         <v>2017</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1785,10 +1785,10 @@
         <v>2017</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1796,10 +1796,10 @@
         <v>2017</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1807,21 +1807,21 @@
         <v>2016</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1829,10 +1829,10 @@
         <v>2015</v>
       </c>
       <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1840,10 +1840,10 @@
         <v>2015</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -1856,7 +1856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+    <sheetView zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1876,381 +1876,381 @@
   <sheetData>
     <row r="1" spans="1:11" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" t="s">
         <v>43</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>44</v>
-      </c>
-      <c r="K1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" t="s">
         <v>322</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>323</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>325</v>
-      </c>
-      <c r="D3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E3" t="s">
-        <v>324</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C4">
         <v>2019</v>
       </c>
       <c r="D4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E4" t="s">
         <v>320</v>
       </c>
-      <c r="E4" t="s">
-        <v>321</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C5">
         <v>2019</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>317</v>
-      </c>
       <c r="H5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>50</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C7">
         <v>2018</v>
       </c>
       <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
         <v>55</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>56</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C8">
         <v>2018</v>
       </c>
       <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
         <v>61</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>62</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>63</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>64</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C9">
         <v>2017</v>
       </c>
       <c r="D9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
         <v>68</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>69</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" t="s">
         <v>70</v>
       </c>
-      <c r="G9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C10">
         <v>2017</v>
       </c>
       <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
         <v>74</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>75</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="H10" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C11">
         <v>2017</v>
       </c>
       <c r="D11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" t="s">
         <v>79</v>
       </c>
-      <c r="E11" t="s">
+      <c r="J11" t="s">
         <v>80</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>81</v>
-      </c>
-      <c r="K11" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C12">
         <v>2017</v>
       </c>
       <c r="D12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" t="s">
         <v>83</v>
       </c>
-      <c r="E12" t="s">
+      <c r="J12" t="s">
         <v>84</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>85</v>
-      </c>
-      <c r="K12" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C13">
         <v>2017</v>
       </c>
       <c r="D13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" t="s">
         <v>87</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>88</v>
       </c>
-      <c r="F13" t="s">
+      <c r="J13" t="s">
         <v>89</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>90</v>
-      </c>
-      <c r="K13" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C14">
         <v>2016</v>
       </c>
       <c r="D14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" t="s">
         <v>93</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>94</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>95</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C15">
         <v>2016</v>
       </c>
       <c r="D15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" t="s">
+        <v>333</v>
+      </c>
+      <c r="F15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="E15" t="s">
-        <v>334</v>
-      </c>
-      <c r="F15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" t="s">
-        <v>96</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2284,237 +2284,237 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
         <v>101</v>
-      </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
         <v>103</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>104</v>
       </c>
-      <c r="C2" t="s">
-        <v>105</v>
-      </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
         <v>103</v>
       </c>
-      <c r="B3" t="s">
-        <v>104</v>
-      </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" t="s">
         <v>107</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>108</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>109</v>
-      </c>
-      <c r="D4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" t="s">
         <v>107</v>
       </c>
-      <c r="B5" t="s">
-        <v>108</v>
-      </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s">
         <v>112</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>113</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>114</v>
-      </c>
-      <c r="D6" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
         <v>116</v>
       </c>
-      <c r="B7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>117</v>
-      </c>
-      <c r="D7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C8" t="s">
         <v>119</v>
       </c>
-      <c r="B8" t="s">
-        <v>310</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>120</v>
-      </c>
-      <c r="D8" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" t="s">
         <v>122</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>123</v>
       </c>
-      <c r="C9" t="s">
-        <v>124</v>
-      </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" t="s">
         <v>125</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>126</v>
       </c>
-      <c r="C10" t="s">
-        <v>127</v>
-      </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" t="s">
         <v>128</v>
       </c>
-      <c r="C11" t="s">
-        <v>129</v>
-      </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" t="s">
         <v>130</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>131</v>
       </c>
-      <c r="C12" t="s">
-        <v>132</v>
-      </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" t="s">
         <v>133</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>134</v>
       </c>
-      <c r="C13" t="s">
-        <v>135</v>
-      </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" t="s">
+        <v>310</v>
+      </c>
+      <c r="C14" t="s">
         <v>136</v>
       </c>
-      <c r="B14" t="s">
-        <v>311</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>137</v>
-      </c>
-      <c r="D14" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" t="s">
         <v>139</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>140</v>
       </c>
-      <c r="C15" t="s">
-        <v>141</v>
-      </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" t="s">
         <v>142</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>143</v>
       </c>
-      <c r="C16" t="s">
-        <v>144</v>
-      </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" t="s">
         <v>145</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>146</v>
       </c>
-      <c r="C17" t="s">
-        <v>147</v>
-      </c>
       <c r="D17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="19" x14ac:dyDescent="0.2">
@@ -2533,7 +2533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
       <selection activeCellId="1" sqref="I8 A1"/>
     </sheetView>
   </sheetViews>
@@ -2546,26 +2546,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" t="s">
         <v>149</v>
-      </c>
-      <c r="B2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" t="s">
         <v>151</v>
-      </c>
-      <c r="B3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2573,7 +2573,7 @@
         <v>2017</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2614,10 +2614,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" t="s">
         <v>154</v>
-      </c>
-      <c r="C2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2625,32 +2625,32 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" t="s">
         <v>156</v>
-      </c>
-      <c r="C3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" t="s">
         <v>158</v>
-      </c>
-      <c r="B4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" t="s">
         <v>160</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>161</v>
-      </c>
-      <c r="C5" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2658,10 +2658,10 @@
         <v>2017</v>
       </c>
       <c r="B6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" t="s">
         <v>163</v>
-      </c>
-      <c r="C6" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2669,10 +2669,10 @@
         <v>2017</v>
       </c>
       <c r="B7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" t="s">
         <v>165</v>
-      </c>
-      <c r="C7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2680,10 +2680,10 @@
         <v>2016</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2691,10 +2691,10 @@
         <v>2016</v>
       </c>
       <c r="B9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" t="s">
         <v>168</v>
-      </c>
-      <c r="C9" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2702,21 +2702,21 @@
         <v>2015</v>
       </c>
       <c r="B10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" t="s">
         <v>170</v>
-      </c>
-      <c r="C10" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" t="s">
         <v>172</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>173</v>
-      </c>
-      <c r="C11" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -2724,10 +2724,10 @@
         <v>2014</v>
       </c>
       <c r="B12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" t="s">
         <v>175</v>
-      </c>
-      <c r="C12" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -2735,10 +2735,10 @@
         <v>2013</v>
       </c>
       <c r="B13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" t="s">
         <v>177</v>
-      </c>
-      <c r="C13" t="s">
-        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2769,33 +2769,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>184</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="C2" s="4">
         <v>-119.845</v>
@@ -2804,21 +2804,21 @@
         <v>34.414999999999999</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F2" s="4">
         <v>75</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="C3" s="4">
         <v>4.8657000000000004</v>
@@ -2827,21 +2827,21 @@
         <v>52.333799999999997</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F3" s="4">
         <v>75</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C4" s="4">
         <v>-71.109700000000004</v>
@@ -2850,21 +2850,21 @@
         <v>42.373600000000003</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F4" s="4">
         <v>50</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C5" s="4">
         <v>-77.306399999999996</v>
@@ -2873,21 +2873,21 @@
         <v>38.846200000000003</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F5" s="4">
         <v>75</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="C6" s="4">
         <v>-87.541399999999996</v>
@@ -2896,21 +2896,21 @@
         <v>33.217599999999997</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F6" s="4">
         <v>50</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>203</v>
       </c>
       <c r="C7" s="4">
         <v>-105.27500000000001</v>
@@ -2919,21 +2919,21 @@
         <v>39.978299999999997</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F7" s="4">
         <v>50</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>207</v>
       </c>
       <c r="C8" s="4">
         <v>-122.4586</v>
@@ -2942,21 +2942,21 @@
         <v>37.762700000000002</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F8" s="4">
         <v>75</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>211</v>
       </c>
       <c r="C9" s="4">
         <v>-122.2711</v>
@@ -2965,21 +2965,21 @@
         <v>37.804400000000001</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F9" s="4">
         <v>50</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="C10" s="4">
         <v>-120.66249999999999</v>
@@ -2988,13 +2988,13 @@
         <v>35.305</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F10" s="4">
         <v>50</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3026,98 +3026,98 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" t="s">
         <v>218</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>219</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>220</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="10" t="s">
         <v>221</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" t="s">
         <v>223</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>224</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>225</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="10" t="s">
         <v>226</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" t="s">
         <v>228</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>229</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="10" t="s">
         <v>230</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" t="s">
         <v>232</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>233</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>234</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="10" t="s">
         <v>235</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" t="s">
         <v>237</v>
       </c>
-      <c r="C5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" s="10" t="s">
         <v>238</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" t="s">
         <v>240</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>241</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>242</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="10" t="s">
         <v>243</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -3151,217 +3151,217 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>222</v>
-      </c>
       <c r="F1" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>246</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>253</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="404" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>259</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="306" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>267</v>
-      </c>
       <c r="H4" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="306" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="D5" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="G5" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>273</v>
-      </c>
       <c r="I5" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="D6" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="G6" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>277</v>
-      </c>
       <c r="I6" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="E7" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="G7" s="13" t="s">
         <v>280</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="204" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="E8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="G8" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="I8" s="11" t="s">
         <v>285</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>288</v>
-      </c>
       <c r="C9" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="C10" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="E10" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>293</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikejohnson/Documents/GitHub/mikejohnson51/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E8B250-0B23-C242-9263-2B76F16A5BBD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46E102D-8D01-6D4E-9B16-61C4A2B15724}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="46760" windowHeight="21560" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teaching" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="342">
   <si>
     <t>data</t>
   </si>
@@ -1066,6 +1066,9 @@
   </si>
   <si>
     <t>Dr. Krzysztof Janowicz</t>
+  </si>
+  <si>
+    <t>https://www.nat-hazards-earth-syst-sci-discuss.net/nhess-2019-82/</t>
   </si>
 </sst>
 </file>
@@ -1856,8 +1859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1934,16 +1937,19 @@
         <v>321</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C3" t="s">
-        <v>324</v>
+        <v>336</v>
+      </c>
+      <c r="C3">
+        <v>2019</v>
       </c>
       <c r="D3" t="s">
         <v>322</v>
       </c>
       <c r="E3" t="s">
         <v>323</v>
+      </c>
+      <c r="F3" t="s">
+        <v>341</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>325</v>
@@ -2533,7 +2539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
+    <sheetView zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
       <selection activeCellId="1" sqref="I8 A1"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikejohnson/Documents/GitHub/mikejohnson51/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46E102D-8D01-6D4E-9B16-61C4A2B15724}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677D49E0-5855-E740-9843-CBED8552848F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="46760" windowHeight="21560" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teaching" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="348">
   <si>
     <t>data</t>
   </si>
@@ -536,37 +536,16 @@
     <t xml:space="preserve">NOAA National Water Center </t>
   </si>
   <si>
-    <t>Cartographer:</t>
-  </si>
-  <si>
-    <t>Two books and one publication</t>
-  </si>
-  <si>
-    <t>Research Fellow:</t>
-  </si>
-  <si>
-    <t>Head Poster Judge - CGS Annual Conference:</t>
-  </si>
-  <si>
     <t>California Geographical Society</t>
   </si>
   <si>
-    <t>GIS Technician:</t>
-  </si>
-  <si>
     <t>El Paso County, Colorado</t>
   </si>
   <si>
     <t>2014-2015</t>
   </si>
   <si>
-    <t>GIS Peer Assistant:</t>
-  </si>
-  <si>
     <t>Cal Poly Data Studio</t>
-  </si>
-  <si>
-    <t>GIS Intern:</t>
   </si>
   <si>
     <t>San Luis Obispo County</t>
@@ -1069,6 +1048,45 @@
   </si>
   <si>
     <t>https://www.nat-hazards-earth-syst-sci-discuss.net/nhess-2019-82/</t>
+  </si>
+  <si>
+    <t>Spatial Discovery Experts Meeting</t>
+  </si>
+  <si>
+    <t>Santa Barbara</t>
+  </si>
+  <si>
+    <t>May 2019</t>
+  </si>
+  <si>
+    <t>GIS Intern</t>
+  </si>
+  <si>
+    <t>GIS Peer Assistant</t>
+  </si>
+  <si>
+    <t>GIS Technician</t>
+  </si>
+  <si>
+    <t>Head Poster Judge - CGS Annual Conference</t>
+  </si>
+  <si>
+    <t>Research Fellow</t>
+  </si>
+  <si>
+    <t>2019-2020</t>
+  </si>
+  <si>
+    <t>Jack and Laura Dangermond ($5,000)</t>
+  </si>
+  <si>
+    <t>Dangermond GIS Fellow in Residence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research Grant </t>
+  </si>
+  <si>
+    <t>VU Amsterdam ($3,000)</t>
   </si>
 </sst>
 </file>
@@ -1151,7 +1169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1177,6 +1195,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1587,24 +1606,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C2" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1670,7 +1689,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1703,16 +1722,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScale="108" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="44" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.83203125" customWidth="1"/>
-    <col min="2" max="2" width="36.5" customWidth="1"/>
+    <col min="2" max="2" width="41.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
     <col min="4" max="1025" width="10.5" customWidth="1"/>
   </cols>
@@ -1729,25 +1748,25 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2018</v>
+      <c r="A2" t="s">
+        <v>343</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>345</v>
       </c>
       <c r="C2" t="s">
-        <v>298</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>346</v>
       </c>
       <c r="C3" t="s">
-        <v>299</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1755,32 +1774,32 @@
         <v>2018</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1788,10 +1807,10 @@
         <v>2017</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1799,54 +1818,76 @@
         <v>2017</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>31</v>
+      <c r="A10">
+        <v>2017</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>304</v>
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
+        <v>2016</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>2015</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>2015</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="C12" t="s">
-        <v>305</v>
+      <c r="C14" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -1859,7 +1900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+    <sheetView zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -1882,7 +1923,7 @@
         <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C1" t="s">
         <v>20</v>
@@ -1914,62 +1955,62 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C2" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D2" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E2" t="s">
         <v>61</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C3">
         <v>2019</v>
       </c>
       <c r="D3" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E3" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F3" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C4">
         <v>2019</v>
       </c>
       <c r="D4" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E4" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>52</v>
@@ -1980,22 +2021,22 @@
         <v>45</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C5">
         <v>2019</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="H5" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>47</v>
@@ -2006,7 +2047,7 @@
         <v>48</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C6" t="s">
         <v>46</v>
@@ -2018,7 +2059,7 @@
         <v>50</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>51</v>
@@ -2030,7 +2071,7 @@
         <v>53</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C7">
         <v>2018</v>
@@ -2056,7 +2097,7 @@
         <v>59</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C8">
         <v>2018</v>
@@ -2085,7 +2126,7 @@
         <v>66</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C9">
         <v>2017</v>
@@ -2114,7 +2155,7 @@
         <v>72</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C10">
         <v>2017</v>
@@ -2140,7 +2181,7 @@
         <v>77</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C11">
         <v>2017</v>
@@ -2163,7 +2204,7 @@
         <v>77</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C12">
         <v>2017</v>
@@ -2186,7 +2227,7 @@
         <v>77</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C13">
         <v>2017</v>
@@ -2212,7 +2253,7 @@
         <v>91</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C14">
         <v>2016</v>
@@ -2238,7 +2279,7 @@
         <v>97</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C15">
         <v>2016</v>
@@ -2247,7 +2288,7 @@
         <v>98</v>
       </c>
       <c r="E15" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F15" t="s">
         <v>94</v>
@@ -2388,7 +2429,7 @@
         <v>118</v>
       </c>
       <c r="B8" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C8" t="s">
         <v>119</v>
@@ -2472,7 +2513,7 @@
         <v>135</v>
       </c>
       <c r="B14" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C14" t="s">
         <v>136</v>
@@ -2593,7 +2634,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScale="156" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="E64" activeCellId="1" sqref="I8 E64"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2616,58 +2657,58 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
+      <c r="A2" s="17" t="s">
+        <v>337</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>335</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>155</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>159</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>160</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2017</v>
-      </c>
-      <c r="B6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2675,10 +2716,10 @@
         <v>2017</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2686,7 +2727,7 @@
         <v>2016</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>342</v>
       </c>
       <c r="C8" t="s">
         <v>163</v>
@@ -2697,10 +2738,10 @@
         <v>2016</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>341</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2708,21 +2749,21 @@
         <v>2015</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>340</v>
       </c>
       <c r="C10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>339</v>
       </c>
       <c r="C11" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -2730,10 +2771,10 @@
         <v>2014</v>
       </c>
       <c r="B12" t="s">
-        <v>174</v>
+        <v>338</v>
       </c>
       <c r="C12" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -2741,10 +2782,10 @@
         <v>2013</v>
       </c>
       <c r="B13" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C13" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2775,22 +2816,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>39</v>
@@ -2798,10 +2839,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C2" s="4">
         <v>-119.845</v>
@@ -2810,21 +2851,21 @@
         <v>34.414999999999999</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F2" s="4">
         <v>75</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C3" s="4">
         <v>4.8657000000000004</v>
@@ -2833,21 +2874,21 @@
         <v>52.333799999999997</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F3" s="4">
         <v>75</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C4" s="4">
         <v>-71.109700000000004</v>
@@ -2856,13 +2897,13 @@
         <v>42.373600000000003</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F4" s="4">
         <v>50</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2870,7 +2911,7 @@
         <v>161</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C5" s="4">
         <v>-77.306399999999996</v>
@@ -2879,21 +2920,21 @@
         <v>38.846200000000003</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F5" s="4">
         <v>75</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C6" s="4">
         <v>-87.541399999999996</v>
@@ -2902,21 +2943,21 @@
         <v>33.217599999999997</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F6" s="4">
         <v>50</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C7" s="4">
         <v>-105.27500000000001</v>
@@ -2925,21 +2966,21 @@
         <v>39.978299999999997</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F7" s="4">
         <v>50</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C8" s="4">
         <v>-122.4586</v>
@@ -2948,21 +2989,21 @@
         <v>37.762700000000002</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F8" s="4">
         <v>75</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C9" s="4">
         <v>-122.2711</v>
@@ -2971,21 +3012,21 @@
         <v>37.804400000000001</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F9" s="4">
         <v>50</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C10" s="4">
         <v>-120.66249999999999</v>
@@ -2994,13 +3035,13 @@
         <v>35.305</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F10" s="4">
         <v>50</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -3032,98 +3073,98 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B4" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D5" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B6" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C6" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D6" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -3157,217 +3198,217 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>40</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="404" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="306" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="306" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="204" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="I9" s="11" t="s">
         <v>287</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikejohnson/Documents/GitHub/mikejohnson51/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677D49E0-5855-E740-9843-CBED8552848F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486CD81A-CEFC-CB46-B6B0-BF745F104F02}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="68800" windowHeight="28340" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teaching" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="351">
   <si>
     <t>data</t>
   </si>
@@ -990,27 +990,18 @@
     <t>{\me}, Dinuke Munasinghe, Damilola Eyelade, Sagy Cohen</t>
   </si>
   <si>
-    <t xml:space="preserve">A Comprehensive Evaluation of the National Water Model (NWM) - Height Above Nearest Drainage (HAND) Flood Mapping Methodology </t>
-  </si>
-  <si>
     <t>Natural Hazards and Earth System Sciences</t>
   </si>
   <si>
     <t>2019 (in review)</t>
   </si>
   <si>
-    <t xml:space="preserve">Flood maps are needed for emergency response, research, and planning. The Height Above Nearest Drainage (HAND) technique is a low-complexity, terrain-based approach for inundation mapping from elevation, discharge-height relationship, and streamflow data.  The recent operational capacities of the NOAA National Water Model (NWM) and pre-processed HAND products from the University of Texas offer an operational framework for real-time and forecast flood mapping across the United States. This paper offers the first detailed evaluation of the coupled NWM-HAND approach by comparing NWM-HAND simulations to a database of remotely sensed flood maps. These comparisons are made both quantitatively and through a detailed evaluation of selected results. The results show that NWM-HAND performs well in the majority of cases with 70% of the calculated flood maps yielding an agreement of 80% or better with the remote sensing observations. Persistent inaccuracies occur in lower-order reaches, regions of low relief, and when the NWM misses substantially either in magnitude or timing. </t>
-  </si>
-  <si>
     <t>What is Water Security?</t>
   </si>
   <si>
     <t>{\me}*, Marthe Wens*, Cecilia Zagaria, T.I.E Veldkamp</t>
   </si>
   <si>
-    <t xml:space="preserve">Water resource management represents one of the clearest interfaces between nature and society. In a world facing greater climate and hydrologic uncertainty, emergent ‘water crises’ are anticipated to pose increasing challenges to human welfare. The term ‘water security’ has come to embody the compound impacts of variable water crises. Yet, despite comprehensive attempts to articulate what it means to be water secure, the term remains ill defined. The lack of an explicit, interdisciplinary understanding hinders the ability to monitor, improve, and measure security and risk in turn challenging the collective research agenda and the operational capacities of governments. We reviewed recent developments in published water security literature using a corpus of 85 definitions containing 546 unique terms. These terms were analyzed using Latent Dirichlet Allocation and visual analytics to produce 9 topics that map onto 4 groups. These were termed: supply, quality, human-access, and environment. A fifth underlying group of scale also emerged. A conclusion draws some broad findings from the review of definitions, suggesting that water security research has simultaneously expanded its inclusivity of disciplines while taking more focused meanings to match academic specializations and stakeholder values. Combined, these evolutions have expanded the meaning, context, and use of ‘water security’ to a point that is has become tantamount to overall security. Instead, we hope to show how despite high-level differences, an understanding of supply, quality, human-access, environment and scale can provide the flexibility needed to adapt to new crises and geographic contexts, while also providing focus within the increasingly broad field of tantamount importance. </t>
-  </si>
-  <si>
     <t>Spring 2019</t>
   </si>
   <si>
@@ -1086,7 +1077,25 @@
     <t xml:space="preserve">Research Grant </t>
   </si>
   <si>
-    <t>VU Amsterdam ($3,000)</t>
+    <t>VU Amsterdam ($2,500)</t>
+  </si>
+  <si>
+    <t>An Integrated Evaluation of the National Water Model (NWM) Height Above Nearest Drainage (HAND) Flood Mapping Methodology</t>
+  </si>
+  <si>
+    <t>Summer 2019</t>
+  </si>
+  <si>
+    <t>Journal of Open Source Software</t>
+  </si>
+  <si>
+    <t>AOI: An R package for converting descriptions of space to formal spatial objects</t>
+  </si>
+  <si>
+    <t>The primary functions in this package are are `geocode`, `revgeocode`, `getAOI`, and `getBoundingBox`.  The first returns a data.frame of coordinates from place names using the OSM API; the second returns a list of descriptive features from a known place name or lat/lon pair; the third returns a spatial (sf) geometry from a country, state, county, or defined region, and the last an extent encompassing a set of input features. Additional helper functions include `bbox_st` and `bbox_sp` which help convert AOIs between string and geometries;  `check` which helps users visualize AOIs in an interactive leaflet map; and `modify` which allows AOIs to be modified by uniform distances.  Finally, `describe`  breaks existing spatial features into `getAOI` parameters to improve the reproducibility of geometry generation. Three core datasets are served with the package. The first contains the spatial geometries and attributes of all `world` countries. The second, the spatial geometries for US `states` and the third contains the same for all US `counties`. See the \href{https://github.com/mikejohnson51/AOI/blob/master/README.md}{README} on github, and the project webpage for examples \href{https://mikejohnson51.github.io/AOI/}{here}.</t>
+  </si>
+  <si>
+    <t>Flood maps are needed for emergency response, research, and planning. The Height Above Nearest Drainage (HAND) technique is a low-complexity, terrain-based approach for inundation mapping using elevation data, discharge-height relationships, and streamflow inputs.  The recent operational capacities of the NOAA National Water Model (NWM) and pre-processed HAND products from the University of Texas offer an operational framework for real-time and forecast flood guidance across the United States. In this study, we evaluate the NWM-HAND approach using 28 remotely sensed inundation maps and 54 NHD catchments. The results show the NWM-HAND method tends to underpredict inundated cells in lower order reaches (Strahler order &lt;4) and does better with a slight tendency to over predict, in high order reaches. An evaluation of the roughness coefficient used in the derivation of synthetic rating curves suggests it is the most important parameter for improvement in correcting these errors. Persistent inaccuracies do occur when the NWM misses substantially (&gt;60% mean absolute error between NWM and observed flow) and in regions of low relief. While NWM values are taken as input, suggestions for handling areas of low relief are provided. Overall, the NWM-HAND method does a poor job of accurately capturing inundated cells (~20%) but is quite capable of highlight regions likely to be at risk in fourth order streams and higher. While NWM-HAND should be used with caution when identify flood boundary lines or making decisions predicated of whether a cell is dry or wet, its applicability as a high-level guidance tool along larger rivers is noteworthy.</t>
   </si>
 </sst>
 </file>
@@ -1169,7 +1178,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1179,9 +1188,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1194,8 +1200,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1579,10 +1587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1605,66 +1613,66 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>322</v>
+      <c r="A2" s="6" t="s">
+        <v>346</v>
       </c>
       <c r="B2" t="s">
-        <v>323</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>324</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>320</v>
       </c>
       <c r="C3" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>306</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1672,45 +1680,56 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>333</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1724,8 +1743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="108" zoomScaleNormal="44" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1749,13 +1768,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1763,10 +1782,10 @@
         <v>2019</v>
       </c>
       <c r="B3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1898,10 +1917,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1913,7 +1932,7 @@
     <col min="6" max="6" width="63.6640625" customWidth="1"/>
     <col min="7" max="7" width="38.6640625" customWidth="1"/>
     <col min="8" max="8" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="255.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.5" customWidth="1"/>
     <col min="11" max="1026" width="10.5" customWidth="1"/>
   </cols>
@@ -1923,7 +1942,7 @@
         <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C1" t="s">
         <v>20</v>
@@ -1953,250 +1972,247 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="C2" t="s">
-        <v>317</v>
+      <c r="C2">
+        <v>2019</v>
       </c>
       <c r="D2" t="s">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>321</v>
+        <v>347</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="70" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="C3">
-        <v>2019</v>
-      </c>
-      <c r="D3" t="s">
-        <v>315</v>
-      </c>
-      <c r="E3" t="s">
-        <v>316</v>
-      </c>
-      <c r="F3" t="s">
-        <v>334</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>320</v>
-      </c>
       <c r="B4" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C4">
         <v>2019</v>
       </c>
       <c r="D4" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="E4" t="s">
-        <v>313</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+      <c r="F4" t="s">
+        <v>331</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="28" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>45</v>
+        <v>318</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C5">
         <v>2019</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E5" t="s">
+        <v>313</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C6">
+        <v>2019</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H6" t="s">
         <v>311</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I6" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="7" spans="1:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C7">
-        <v>2018</v>
+      <c r="C7" t="s">
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" ht="42" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C8">
         <v>2018</v>
       </c>
       <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C9">
+        <v>2018</v>
+      </c>
+      <c r="D9" t="s">
         <v>60</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>61</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>62</v>
-      </c>
-      <c r="G8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="C9">
-        <v>2017</v>
-      </c>
-      <c r="D9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" t="s">
-        <v>69</v>
       </c>
       <c r="G9" t="s">
         <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="42" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C10">
         <v>2017</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>69</v>
+      </c>
+      <c r="G10" t="s">
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="42" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C11">
         <v>2017</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
-      </c>
-      <c r="J11" t="s">
-        <v>80</v>
-      </c>
-      <c r="K11" t="s">
-        <v>81</v>
+        <v>74</v>
+      </c>
+      <c r="F11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -2204,22 +2220,23 @@
         <v>77</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C12">
         <v>2017</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="I12" s="16"/>
       <c r="J12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -2227,68 +2244,67 @@
         <v>77</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C13">
         <v>2017</v>
       </c>
       <c r="D13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C14">
+        <v>2017</v>
+      </c>
+      <c r="D14" t="s">
         <v>86</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>87</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>88</v>
       </c>
-      <c r="J13" t="s">
+      <c r="I14" s="16"/>
+      <c r="J14" t="s">
         <v>89</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="C14">
-        <v>2016</v>
-      </c>
-      <c r="D14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H14" t="s">
-        <v>95</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="B15" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C15">
         <v>2016</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>326</v>
+        <v>93</v>
       </c>
       <c r="F15" t="s">
         <v>94</v>
@@ -2296,13 +2312,40 @@
       <c r="H15" t="s">
         <v>95</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C16">
+        <v>2016</v>
+      </c>
+      <c r="D16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" t="s">
+        <v>323</v>
+      </c>
+      <c r="F16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" s="16" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F6" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="F7" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{EDB1E5CE-989F-A048-AB3F-B8DDD1C9772C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2314,7 +2357,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="114" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2565,10 +2608,10 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="B25" s="8"/>
+      <c r="B25" s="7"/>
     </row>
     <row r="27" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="B27" s="8"/>
+      <c r="B27" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2580,7 +2623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
+    <sheetView zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
       <selection activeCellId="1" sqref="I8 A1"/>
     </sheetView>
   </sheetViews>
@@ -2631,10 +2674,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="156" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2657,77 +2700,77 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>337</v>
+      <c r="A2" t="s">
+        <v>346</v>
       </c>
       <c r="B2" t="s">
-        <v>335</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>336</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
+      <c r="A3" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>332</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>155</v>
       </c>
       <c r="C5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>159</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>160</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2017</v>
-      </c>
-      <c r="B7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B8" t="s">
-        <v>342</v>
+        <v>162</v>
       </c>
       <c r="C8" t="s">
         <v>163</v>
@@ -2738,53 +2781,64 @@
         <v>2016</v>
       </c>
       <c r="B9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
+        <v>2016</v>
+      </c>
+      <c r="B10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>2015</v>
       </c>
-      <c r="B10" t="s">
-        <v>340</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C11" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>166</v>
       </c>
-      <c r="B11" t="s">
-        <v>339</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>336</v>
+      </c>
+      <c r="C12" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2014</v>
-      </c>
-      <c r="B12" t="s">
-        <v>338</v>
-      </c>
-      <c r="C12" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
+        <v>2014</v>
+      </c>
+      <c r="B13" t="s">
+        <v>335</v>
+      </c>
+      <c r="C13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>2013</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>169</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3040,7 +3094,7 @@
       <c r="F10" s="4">
         <v>50</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>209</v>
       </c>
     </row>
@@ -3067,7 +3121,7 @@
     <col min="2" max="2" width="55" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
-    <col min="5" max="5" width="55" style="10" customWidth="1"/>
+    <col min="5" max="5" width="55" style="9" customWidth="1"/>
     <col min="6" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3084,7 +3138,7 @@
       <c r="D1" t="s">
         <v>213</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3101,7 +3155,7 @@
       <c r="D2" t="s">
         <v>218</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3115,7 +3169,7 @@
       <c r="D3" t="s">
         <v>222</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3132,7 +3186,7 @@
       <c r="D4" t="s">
         <v>227</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3146,7 +3200,7 @@
       <c r="D5" t="s">
         <v>230</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>231</v>
       </c>
     </row>
@@ -3163,7 +3217,7 @@
       <c r="D6" t="s">
         <v>235</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3177,237 +3231,237 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="11" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="55" style="11" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="34" style="11" customWidth="1"/>
-    <col min="7" max="7" width="39.6640625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="37.6640625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="46.83203125" style="11" customWidth="1"/>
-    <col min="10" max="1025" width="10.5" style="11" customWidth="1"/>
-    <col min="1026" max="16384" width="8.83203125" style="11"/>
+    <col min="1" max="1" width="13.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="55" style="10" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="34" style="10" customWidth="1"/>
+    <col min="7" max="7" width="39.6640625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="37.6640625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="46.83203125" style="10" customWidth="1"/>
+    <col min="10" max="1025" width="10.5" style="10" customWidth="1"/>
+    <col min="1026" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="404" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="306" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="306" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="10" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="153" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="10" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="204" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="10" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>286</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikejohnson/Documents/GitHub/mikejohnson51/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486CD81A-CEFC-CB46-B6B0-BF745F104F02}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8A7B36-E82A-4C42-A4EA-115B648C4A22}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="68800" windowHeight="28340" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teaching" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="350">
   <si>
     <t>data</t>
   </si>
@@ -991,9 +991,6 @@
   </si>
   <si>
     <t>Natural Hazards and Earth System Sciences</t>
-  </si>
-  <si>
-    <t>2019 (in review)</t>
   </si>
   <si>
     <t>What is Water Security?</t>
@@ -1614,7 +1611,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -1625,13 +1622,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B3" t="s">
         <v>319</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>320</v>
-      </c>
-      <c r="C3" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1642,7 +1639,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1708,7 +1705,7 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1768,13 +1765,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" t="s">
         <v>340</v>
-      </c>
-      <c r="B2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C2" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1782,10 +1779,10 @@
         <v>2019</v>
       </c>
       <c r="B3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C3" t="s">
         <v>343</v>
-      </c>
-      <c r="C3" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1919,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1942,7 +1939,7 @@
         <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C1" t="s">
         <v>20</v>
@@ -1974,42 +1971,39 @@
     </row>
     <row r="2" spans="1:11" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C2">
         <v>2019</v>
       </c>
       <c r="D2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>245</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="C3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C3">
+        <v>2019</v>
+      </c>
+      <c r="D3" t="s">
         <v>316</v>
-      </c>
-      <c r="D3" t="s">
-        <v>317</v>
-      </c>
-      <c r="E3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="70" x14ac:dyDescent="0.2">
@@ -2017,30 +2011,30 @@
         <v>314</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C4">
         <v>2019</v>
       </c>
       <c r="D4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E4" t="s">
         <v>315</v>
       </c>
       <c r="F4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="28" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C5">
         <v>2019</v>
@@ -2060,7 +2054,7 @@
         <v>45</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C6">
         <v>2019</v>
@@ -2086,7 +2080,7 @@
         <v>48</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C7" t="s">
         <v>46</v>
@@ -2110,7 +2104,7 @@
         <v>53</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C8">
         <v>2018</v>
@@ -2136,7 +2130,7 @@
         <v>59</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C9">
         <v>2018</v>
@@ -2165,7 +2159,7 @@
         <v>66</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C10">
         <v>2017</v>
@@ -2194,7 +2188,7 @@
         <v>72</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C11">
         <v>2017</v>
@@ -2220,7 +2214,7 @@
         <v>77</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C12">
         <v>2017</v>
@@ -2244,7 +2238,7 @@
         <v>77</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C13">
         <v>2017</v>
@@ -2268,7 +2262,7 @@
         <v>77</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C14">
         <v>2017</v>
@@ -2295,7 +2289,7 @@
         <v>91</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C15">
         <v>2016</v>
@@ -2321,7 +2315,7 @@
         <v>97</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C16">
         <v>2016</v>
@@ -2330,7 +2324,7 @@
         <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F16" t="s">
         <v>94</v>
@@ -2701,7 +2695,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B2" t="s">
         <v>155</v>
@@ -2712,13 +2706,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" t="s">
         <v>332</v>
-      </c>
-      <c r="C3" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2781,7 +2775,7 @@
         <v>2016</v>
       </c>
       <c r="B9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C9" t="s">
         <v>163</v>
@@ -2792,7 +2786,7 @@
         <v>2016</v>
       </c>
       <c r="B10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C10" t="s">
         <v>164</v>
@@ -2803,7 +2797,7 @@
         <v>2015</v>
       </c>
       <c r="B11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C11" t="s">
         <v>165</v>
@@ -2814,7 +2808,7 @@
         <v>166</v>
       </c>
       <c r="B12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C12" t="s">
         <v>167</v>
@@ -2825,7 +2819,7 @@
         <v>2014</v>
       </c>
       <c r="B13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C13" t="s">
         <v>168</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikejohnson/Documents/GitHub/mikejohnson51/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8A7B36-E82A-4C42-A4EA-115B648C4A22}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC57B9A-499F-1E42-8702-5380FA4F2BAC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="351">
   <si>
     <t>data</t>
   </si>
@@ -1093,6 +1093,9 @@
   </si>
   <si>
     <t>Flood maps are needed for emergency response, research, and planning. The Height Above Nearest Drainage (HAND) technique is a low-complexity, terrain-based approach for inundation mapping using elevation data, discharge-height relationships, and streamflow inputs.  The recent operational capacities of the NOAA National Water Model (NWM) and pre-processed HAND products from the University of Texas offer an operational framework for real-time and forecast flood guidance across the United States. In this study, we evaluate the NWM-HAND approach using 28 remotely sensed inundation maps and 54 NHD catchments. The results show the NWM-HAND method tends to underpredict inundated cells in lower order reaches (Strahler order &lt;4) and does better with a slight tendency to over predict, in high order reaches. An evaluation of the roughness coefficient used in the derivation of synthetic rating curves suggests it is the most important parameter for improvement in correcting these errors. Persistent inaccuracies do occur when the NWM misses substantially (&gt;60% mean absolute error between NWM and observed flow) and in regions of low relief. While NWM values are taken as input, suggestions for handling areas of low relief are provided. Overall, the NWM-HAND method does a poor job of accurately capturing inundated cells (~20%) but is quite capable of highlight regions likely to be at risk in fourth order streams and higher. While NWM-HAND should be used with caution when identify flood boundary lines or making decisions predicated of whether a cell is dry or wet, its applicability as a high-level guidance tool along larger rivers is noteworthy.</t>
+  </si>
+  <si>
+    <t>Dangermond Fund ($500)</t>
   </si>
 </sst>
 </file>
@@ -1738,10 +1741,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView zoomScale="108" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E4" sqref="E4:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1764,36 +1767,36 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>2019</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>339</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>341</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>340</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2019</v>
-      </c>
-      <c r="B3" t="s">
-        <v>342</v>
-      </c>
-      <c r="C3" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>342</v>
       </c>
       <c r="C4" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1801,10 +1804,10 @@
         <v>2018</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1812,21 +1815,21 @@
         <v>2018</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1834,10 +1837,10 @@
         <v>2017</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1845,10 +1848,10 @@
         <v>2017</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1856,43 +1859,43 @@
         <v>2017</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
+        <v>2017</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>2016</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>297</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2015</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1900,9 +1903,20 @@
         <v>2015</v>
       </c>
       <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2015</v>
+      </c>
+      <c r="B15" t="s">
         <v>35</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>298</v>
       </c>
     </row>
@@ -1917,7 +1931,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1969,9 +1983,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="70" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>324</v>
@@ -1980,19 +1994,19 @@
         <v>2019</v>
       </c>
       <c r="D2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E2" t="s">
-        <v>346</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>245</v>
+        <v>315</v>
+      </c>
+      <c r="F2" t="s">
+        <v>330</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>321</v>
       </c>
@@ -2003,12 +2017,21 @@
         <v>2019</v>
       </c>
       <c r="D3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="70" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+      <c r="E3" t="s">
+        <v>346</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>324</v>
@@ -2017,16 +2040,7 @@
         <v>2019</v>
       </c>
       <c r="D4" t="s">
-        <v>344</v>
-      </c>
-      <c r="E4" t="s">
-        <v>315</v>
-      </c>
-      <c r="F4" t="s">
-        <v>330</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="28" x14ac:dyDescent="0.2">
@@ -2339,7 +2353,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F7" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{EDB1E5CE-989F-A048-AB3F-B8DDD1C9772C}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{EDB1E5CE-989F-A048-AB3F-B8DDD1C9772C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikejohnson/Documents/GitHub/mikejohnson51/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC57B9A-499F-1E42-8702-5380FA4F2BAC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7968954F-BE77-604E-A7D2-3410248B2088}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teaching" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="352">
   <si>
     <t>data</t>
   </si>
@@ -1096,6 +1096,9 @@
   </si>
   <si>
     <t>Dangermond Fund ($500)</t>
+  </si>
+  <si>
+    <t>Dr. Hugo Loaiciga</t>
   </si>
 </sst>
 </file>
@@ -1589,8 +1592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="44" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1697,7 +1700,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1930,7 +1933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikejohnson/Documents/GitHub/mikejohnson51/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patjohnson/Documents/GitHub/mike_johnson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7968954F-BE77-604E-A7D2-3410248B2088}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29925BD2-6301-194A-A0CD-0FF7421D3ABE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teaching" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="353">
   <si>
     <t>data</t>
   </si>
@@ -68,37 +68,19 @@
     <t>Dr. Catherine Gautier</t>
   </si>
   <si>
-    <t>Spring 2018</t>
-  </si>
-  <si>
     <t>Cartographic Design and Geovisualization</t>
   </si>
   <si>
-    <t>Fall 2017</t>
-  </si>
-  <si>
-    <t>Spring 2017</t>
-  </si>
-  <si>
     <t>Water Quality</t>
   </si>
   <si>
-    <t>Winter 2017</t>
-  </si>
-  <si>
     <t>Conceptual Modeling and Programming for the Geo-Sciences</t>
   </si>
   <si>
-    <t>Fall 2016</t>
-  </si>
-  <si>
     <t>Oceans and Atmosphere</t>
   </si>
   <si>
     <t>Dr. Tim DeVeries</t>
-  </si>
-  <si>
-    <t>Summer 2016</t>
   </si>
   <si>
     <t>year</t>
@@ -963,9 +945,6 @@
     <t>../resources/images/affiliations/CUAHSI.png</t>
   </si>
   <si>
-    <t>Winter 2019</t>
-  </si>
-  <si>
     <t>Contemporary American Cartographic Research: A Review and Prospective</t>
   </si>
   <si>
@@ -999,9 +978,6 @@
     <t>{\me}*, Marthe Wens*, Cecilia Zagaria, T.I.E Veldkamp</t>
   </si>
   <si>
-    <t>Spring 2019</t>
-  </si>
-  <si>
     <t xml:space="preserve">Remote Sensing of the Environment 3 </t>
   </si>
   <si>
@@ -1099,6 +1075,33 @@
   </si>
   <si>
     <t>Dr. Hugo Loaiciga</t>
+  </si>
+  <si>
+    <t>Lower-Division</t>
+  </si>
+  <si>
+    <t>Upper-Division</t>
+  </si>
+  <si>
+    <t>Upper-Division and Graduate</t>
+  </si>
+  <si>
+    <t>quarter</t>
+  </si>
+  <si>
+    <t>Fall</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>https://github.com/mikejohnson51/geog178</t>
   </si>
 </sst>
 </file>
@@ -1590,153 +1593,257 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="52.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="1025" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="52.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="E1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B2">
+        <v>2019</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2019</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B4">
+        <v>2019</v>
+      </c>
+      <c r="C4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D4" t="s">
+        <v>312</v>
+      </c>
+      <c r="E4" t="s">
         <v>345</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B5">
+        <v>2019</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>321</v>
+      </c>
+      <c r="E5" t="s">
+        <v>346</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B6">
+        <v>2018</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B7">
+        <v>2018</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>318</v>
-      </c>
-      <c r="B3" t="s">
-        <v>319</v>
-      </c>
-      <c r="C3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>306</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="E7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>350</v>
+      </c>
+      <c r="B8">
+        <v>2018</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>348</v>
+      </c>
+      <c r="B9">
+        <v>2017</v>
+      </c>
+      <c r="C9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="E9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>350</v>
+      </c>
+      <c r="B10">
+        <v>2017</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>343</v>
+      </c>
+      <c r="E10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>351</v>
+      </c>
+      <c r="B11">
+        <v>2017</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>321</v>
+      </c>
+      <c r="E11" t="s">
+        <v>346</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>348</v>
+      </c>
+      <c r="B12">
+        <v>2016</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>349</v>
+      </c>
+      <c r="B13">
+        <v>2016</v>
+      </c>
+      <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
+      <c r="E13" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{B4C354B1-6171-3742-8B79-F4256809C196}"/>
+    <hyperlink ref="F11" r:id="rId2" xr:uid="{D0AF7623-6AA9-8B43-86CA-D56E8999CE59}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -1760,13 +1867,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1774,21 +1881,21 @@
         <v>2019</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B3" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C3" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1796,10 +1903,10 @@
         <v>2019</v>
       </c>
       <c r="B4" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C4" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1807,10 +1914,10 @@
         <v>2018</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1818,10 +1925,10 @@
         <v>2018</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1829,10 +1936,10 @@
         <v>2018</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1840,10 +1947,10 @@
         <v>2017</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1851,10 +1958,10 @@
         <v>2017</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1862,10 +1969,10 @@
         <v>2017</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1873,10 +1980,10 @@
         <v>2017</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1884,21 +1991,21 @@
         <v>2016</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1906,10 +2013,10 @@
         <v>2015</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1917,10 +2024,10 @@
         <v>2015</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -1953,404 +2060,404 @@
   <sheetData>
     <row r="1" spans="1:11" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="70" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C2">
         <v>2019</v>
       </c>
       <c r="D2" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="E2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F2" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C3">
         <v>2019</v>
       </c>
       <c r="D3" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E3" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C4">
         <v>2019</v>
       </c>
       <c r="D4" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="28" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>325</v>
       </c>
       <c r="C5">
         <v>2019</v>
       </c>
       <c r="D5" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E5" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="56" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C6">
         <v>2019</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H6" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="42" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="42" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C8">
         <v>2018</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="56" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C9">
         <v>2018</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="42" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C10">
         <v>2017</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="42" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C11">
         <v>2017</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C12">
         <v>2017</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I12" s="16"/>
       <c r="J12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C13">
         <v>2017</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I13" s="16"/>
       <c r="J13" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K13" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C14">
         <v>2017</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I14" s="16"/>
       <c r="J14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K14" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C15">
         <v>2016</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="56" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C16">
         <v>2016</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="F16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2385,237 +2492,237 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" t="s">
         <v>103</v>
-      </c>
-      <c r="C2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" t="s">
         <v>103</v>
-      </c>
-      <c r="C3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C12" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C14" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D14" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C16" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B17" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C17" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="19" x14ac:dyDescent="0.2">
@@ -2647,26 +2754,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2674,7 +2781,7 @@
         <v>2017</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2704,32 +2811,32 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B3" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C3" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2737,10 +2844,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2748,32 +2855,32 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2781,10 +2888,10 @@
         <v>2017</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2792,10 +2899,10 @@
         <v>2016</v>
       </c>
       <c r="B9" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2803,10 +2910,10 @@
         <v>2016</v>
       </c>
       <c r="B10" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C10" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2814,21 +2921,21 @@
         <v>2015</v>
       </c>
       <c r="B11" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B12" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C12" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -2836,10 +2943,10 @@
         <v>2014</v>
       </c>
       <c r="B13" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2847,10 +2954,10 @@
         <v>2013</v>
       </c>
       <c r="B14" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C14" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2881,33 +2988,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C2" s="4">
         <v>-119.845</v>
@@ -2916,21 +3023,21 @@
         <v>34.414999999999999</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F2" s="4">
         <v>75</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C3" s="4">
         <v>4.8657000000000004</v>
@@ -2939,21 +3046,21 @@
         <v>52.333799999999997</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F3" s="4">
         <v>75</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C4" s="4">
         <v>-71.109700000000004</v>
@@ -2962,21 +3069,21 @@
         <v>42.373600000000003</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F4" s="4">
         <v>50</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C5" s="4">
         <v>-77.306399999999996</v>
@@ -2985,21 +3092,21 @@
         <v>38.846200000000003</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F5" s="4">
         <v>75</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C6" s="4">
         <v>-87.541399999999996</v>
@@ -3008,21 +3115,21 @@
         <v>33.217599999999997</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F6" s="4">
         <v>50</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C7" s="4">
         <v>-105.27500000000001</v>
@@ -3031,21 +3138,21 @@
         <v>39.978299999999997</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F7" s="4">
         <v>50</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C8" s="4">
         <v>-122.4586</v>
@@ -3054,21 +3161,21 @@
         <v>37.762700000000002</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F8" s="4">
         <v>75</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C9" s="4">
         <v>-122.2711</v>
@@ -3077,21 +3184,21 @@
         <v>37.804400000000001</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F9" s="4">
         <v>50</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C10" s="4">
         <v>-120.66249999999999</v>
@@ -3100,13 +3207,13 @@
         <v>35.305</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F10" s="4">
         <v>50</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -3138,98 +3245,98 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B4" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D4" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C5" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D5" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B6" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C6" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D6" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3263,217 +3370,217 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>240</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="404" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="306" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>259</v>
-      </c>
       <c r="H4" s="10" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="306" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="204" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patjohnson/Documents/GitHub/mike_johnson/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikejohnson/Documents/GitHub/mikejohnson51/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29925BD2-6301-194A-A0CD-0FF7421D3ABE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC32B6E-23F8-2E45-AC0D-3E7348F3066A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teaching" sheetId="1" r:id="rId1"/>
     <sheet name="awards" sheetId="2" r:id="rId2"/>
-    <sheet name="publications" sheetId="3" r:id="rId3"/>
-    <sheet name="presentations" sheetId="4" r:id="rId4"/>
-    <sheet name="mentorship" sheetId="5" r:id="rId5"/>
-    <sheet name="experience" sheetId="6" r:id="rId6"/>
-    <sheet name="affiliations" sheetId="7" r:id="rId7"/>
-    <sheet name="current_work" sheetId="8" r:id="rId8"/>
-    <sheet name="software" sheetId="9" r:id="rId9"/>
+    <sheet name="evaluations" sheetId="10" r:id="rId3"/>
+    <sheet name="publications" sheetId="3" r:id="rId4"/>
+    <sheet name="presentations" sheetId="4" r:id="rId5"/>
+    <sheet name="mentorship" sheetId="5" r:id="rId6"/>
+    <sheet name="experience" sheetId="6" r:id="rId7"/>
+    <sheet name="affiliations" sheetId="7" r:id="rId8"/>
+    <sheet name="current_work" sheetId="8" r:id="rId9"/>
+    <sheet name="software" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="352">
   <si>
     <t>data</t>
   </si>
@@ -50,18 +51,12 @@
     <t>professor</t>
   </si>
   <si>
-    <t>Fall 2018</t>
-  </si>
-  <si>
     <t>Maps and Spatial Reasoning</t>
   </si>
   <si>
     <t>Dr. Keith Clarke</t>
   </si>
   <si>
-    <t>Summer 2018</t>
-  </si>
-  <si>
     <t>Living with Global Warming</t>
   </si>
   <si>
@@ -71,9 +66,6 @@
     <t>Cartographic Design and Geovisualization</t>
   </si>
   <si>
-    <t>Water Quality</t>
-  </si>
-  <si>
     <t>Conceptual Modeling and Programming for the Geo-Sciences</t>
   </si>
   <si>
@@ -92,33 +84,9 @@
     <t>details</t>
   </si>
   <si>
-    <t>Travel Grant (AGU)</t>
-  </si>
-  <si>
-    <t>Summer Research Grant</t>
-  </si>
-  <si>
     <t>COMET Partners Grant</t>
   </si>
   <si>
-    <t>Seed Grant</t>
-  </si>
-  <si>
-    <t>Travel Scholarship (AGU)</t>
-  </si>
-  <si>
-    <t>National Water Center Course Coordinator</t>
-  </si>
-  <si>
-    <t>Travel Grant (WRF-Hydro Training)</t>
-  </si>
-  <si>
-    <t>Travel Grant (HAZUS Conference)</t>
-  </si>
-  <si>
-    <t>2015-2016</t>
-  </si>
-  <si>
     <t>Disciplines Fellowship</t>
   </si>
   <si>
@@ -126,9 +94,6 @@
   </si>
   <si>
     <t>Cal Poly Department of Geography</t>
-  </si>
-  <si>
-    <t>Top undergraduate paper</t>
   </si>
   <si>
     <t>authors</t>
@@ -335,9 +300,6 @@
     <t>Dec 2018</t>
   </si>
   <si>
-    <t>AGU Fall Meeting</t>
-  </si>
-  <si>
     <t>The National Water Model and R: Providing fast discovery, access, and usability of NWM output and earth systems data</t>
   </si>
   <si>
@@ -362,9 +324,6 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t>EGU</t>
-  </si>
-  <si>
     <t>Integrating Adaption behavior in drought risk analysis</t>
   </si>
   <si>
@@ -416,21 +375,9 @@
     <t>Oct 2016</t>
   </si>
   <si>
-    <t>UCSB SDSU Retreat</t>
-  </si>
-  <si>
     <t>The Five Meanings of Water Security</t>
   </si>
   <si>
-    <t>Aug 2016</t>
-  </si>
-  <si>
-    <t>NCAR</t>
-  </si>
-  <si>
-    <t>FloodHippo and the National Water Model</t>
-  </si>
-  <si>
     <t>July 2016</t>
   </si>
   <si>
@@ -470,24 +417,12 @@
     <t>date</t>
   </si>
   <si>
-    <t>2018-present</t>
-  </si>
-  <si>
     <t>Dino Korac</t>
   </si>
   <si>
-    <t>2016-present</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jeremy Neil	</t>
   </si>
   <si>
-    <t xml:space="preserve">Benjamin Sterne \&amp; Eric Gunter	</t>
-  </si>
-  <si>
-    <t>Spatial Data Science Faculty Search</t>
-  </si>
-  <si>
     <t>UCSB</t>
   </si>
   <si>
@@ -497,24 +432,12 @@
     <t>NCAR Research Applications Laboratory</t>
   </si>
   <si>
-    <t>Winter 2018</t>
-  </si>
-  <si>
-    <t>VU Amsterdam IVM</t>
-  </si>
-  <si>
-    <t>2014-Present</t>
-  </si>
-  <si>
     <t>Certified Agricultural Irrigation Specialist</t>
   </si>
   <si>
     <t>Irrigation Association</t>
   </si>
   <si>
-    <t>Research Coordinator</t>
-  </si>
-  <si>
     <t xml:space="preserve">NOAA National Water Center </t>
   </si>
   <si>
@@ -524,21 +447,9 @@
     <t>El Paso County, Colorado</t>
   </si>
   <si>
-    <t>2014-2015</t>
-  </si>
-  <si>
     <t>Cal Poly Data Studio</t>
   </si>
   <si>
-    <t>San Luis Obispo County</t>
-  </si>
-  <si>
-    <t>Piedras Blancas Mapping and Restoration:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bureau of Land Management: </t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -567,9 +478,6 @@
   </si>
   <si>
     <t>https://geog.ucsb.edu/</t>
-  </si>
-  <si>
-    <t>VU University</t>
   </si>
   <si>
     <t>Amsterdam Netherlands</t>
@@ -900,36 +808,6 @@
     <t>An R Package for flood mapping (HAND &amp; National Water Model)</t>
   </si>
   <si>
-    <t>Graduate Student Association ($200)</t>
-  </si>
-  <si>
-    <t>UCSB Geography ($2,400)</t>
-  </si>
-  <si>
-    <t>UCAR ($15,000)</t>
-  </si>
-  <si>
-    <t>UCGHI Planetary Health Center ($10,000)</t>
-  </si>
-  <si>
-    <t>Dangermond Fund ($800)</t>
-  </si>
-  <si>
-    <t>Dangermond Fund ($700)</t>
-  </si>
-  <si>
-    <t>University of California Regents ($30,000)</t>
-  </si>
-  <si>
-    <t>California Geographical Society ($500)</t>
-  </si>
-  <si>
-    <t>CUAHSI ($15,000)</t>
-  </si>
-  <si>
-    <t>CUAHSI ($500)</t>
-  </si>
-  <si>
     <t>https://github.com/mikejohnson51/nwmRetro</t>
   </si>
   <si>
@@ -993,18 +871,6 @@
     <t>status</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -1014,94 +880,226 @@
     <t>https://www.nat-hazards-earth-syst-sci-discuss.net/nhess-2019-82/</t>
   </si>
   <si>
-    <t>Spatial Discovery Experts Meeting</t>
-  </si>
-  <si>
     <t>Santa Barbara</t>
   </si>
   <si>
-    <t>May 2019</t>
-  </si>
-  <si>
-    <t>GIS Intern</t>
-  </si>
-  <si>
     <t>GIS Peer Assistant</t>
   </si>
   <si>
-    <t>GIS Technician</t>
-  </si>
-  <si>
     <t>Head Poster Judge - CGS Annual Conference</t>
   </si>
   <si>
-    <t>Research Fellow</t>
-  </si>
-  <si>
-    <t>2019-2020</t>
-  </si>
-  <si>
-    <t>Jack and Laura Dangermond ($5,000)</t>
-  </si>
-  <si>
-    <t>Dangermond GIS Fellow in Residence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Research Grant </t>
-  </si>
-  <si>
-    <t>VU Amsterdam ($2,500)</t>
-  </si>
-  <si>
     <t>An Integrated Evaluation of the National Water Model (NWM) Height Above Nearest Drainage (HAND) Flood Mapping Methodology</t>
   </si>
   <si>
-    <t>Summer 2019</t>
-  </si>
-  <si>
     <t>Journal of Open Source Software</t>
   </si>
   <si>
-    <t>AOI: An R package for converting descriptions of space to formal spatial objects</t>
-  </si>
-  <si>
     <t>The primary functions in this package are are `geocode`, `revgeocode`, `getAOI`, and `getBoundingBox`.  The first returns a data.frame of coordinates from place names using the OSM API; the second returns a list of descriptive features from a known place name or lat/lon pair; the third returns a spatial (sf) geometry from a country, state, county, or defined region, and the last an extent encompassing a set of input features. Additional helper functions include `bbox_st` and `bbox_sp` which help convert AOIs between string and geometries;  `check` which helps users visualize AOIs in an interactive leaflet map; and `modify` which allows AOIs to be modified by uniform distances.  Finally, `describe`  breaks existing spatial features into `getAOI` parameters to improve the reproducibility of geometry generation. Three core datasets are served with the package. The first contains the spatial geometries and attributes of all `world` countries. The second, the spatial geometries for US `states` and the third contains the same for all US `counties`. See the \href{https://github.com/mikejohnson51/AOI/blob/master/README.md}{README} on github, and the project webpage for examples \href{https://mikejohnson51.github.io/AOI/}{here}.</t>
   </si>
   <si>
     <t>Flood maps are needed for emergency response, research, and planning. The Height Above Nearest Drainage (HAND) technique is a low-complexity, terrain-based approach for inundation mapping using elevation data, discharge-height relationships, and streamflow inputs.  The recent operational capacities of the NOAA National Water Model (NWM) and pre-processed HAND products from the University of Texas offer an operational framework for real-time and forecast flood guidance across the United States. In this study, we evaluate the NWM-HAND approach using 28 remotely sensed inundation maps and 54 NHD catchments. The results show the NWM-HAND method tends to underpredict inundated cells in lower order reaches (Strahler order &lt;4) and does better with a slight tendency to over predict, in high order reaches. An evaluation of the roughness coefficient used in the derivation of synthetic rating curves suggests it is the most important parameter for improvement in correcting these errors. Persistent inaccuracies do occur when the NWM misses substantially (&gt;60% mean absolute error between NWM and observed flow) and in regions of low relief. While NWM values are taken as input, suggestions for handling areas of low relief are provided. Overall, the NWM-HAND method does a poor job of accurately capturing inundated cells (~20%) but is quite capable of highlight regions likely to be at risk in fourth order streams and higher. While NWM-HAND should be used with caution when identify flood boundary lines or making decisions predicated of whether a cell is dry or wet, its applicability as a high-level guidance tool along larger rivers is noteworthy.</t>
   </si>
   <si>
-    <t>Dangermond Fund ($500)</t>
-  </si>
-  <si>
     <t>Dr. Hugo Loaiciga</t>
   </si>
   <si>
+    <t>Funds</t>
+  </si>
+  <si>
+    <t>Dangermond Fund</t>
+  </si>
+  <si>
+    <t>Jack and Laura Dangermond</t>
+  </si>
+  <si>
+    <t>Graduate Student Association</t>
+  </si>
+  <si>
+    <t>UCGHI Planetary Health Center</t>
+  </si>
+  <si>
+    <t>University of California Regents</t>
+  </si>
+  <si>
+    <t>AGU</t>
+  </si>
+  <si>
+    <t>WRF-Hydro Training</t>
+  </si>
+  <si>
+    <t>HAZUS Conference</t>
+  </si>
+  <si>
+    <t>class_num</t>
+  </si>
+  <si>
+    <t>class_title</t>
+  </si>
+  <si>
+    <t>class_desc</t>
+  </si>
+  <si>
+    <t>Surveys properties of maps, emphasizing map use and interpretation. Lecture topics include map abstraction, generalization, map projections, and symbolization. Special purpose maps, thematic maps, and the display of quantitative and qualitative information is considered.</t>
+  </si>
+  <si>
+    <t>Overview of global warming and climate change processes. Description of complex relationships between scientific, technological, economic, social, political, and historical facets of global warming and climate change. Introduction to the concept and practice of climate modeling.</t>
+  </si>
+  <si>
+    <t>115C</t>
+  </si>
+  <si>
+    <t>Advanced image processing, including data fusion and resampling techniques, atmospheric corrections, global navigation satellite systems, and hyperspatial sensors with emphasis on applications. Lab is centered around projects (e.g., glacial and vegetation changes in mountain environments) with poster presentation of results.</t>
+  </si>
+  <si>
+    <t>178/258</t>
+  </si>
+  <si>
+    <t>A project-based course introducing major conceptual modeling paradigms and object oriented programming from a Geoinformatics perspective. The class is intended for undergraduate students from Geography and the broader Geo-Sciences who have limited (or no previous) experience in software engineering.</t>
+  </si>
+  <si>
+    <t>Technical introduction to graphic representation and visualization of geographic information. Lectures cover static and dynamic design aspects, thematic mapping, interface design, animation, and 3D. Labs provide experience designing thematic maps and constructing basic GeoVis tools with current software.</t>
+  </si>
+  <si>
+    <t>Environmental Water Quality</t>
+  </si>
+  <si>
+    <t>Study of physio-chemical and biological characteristics of natural waters, analysis of water pollution and treatment, water-quality regulations. Laboratory: independent and supervised research on water pollutants and treatment, quantitative analysis of water-quality data and one-day field work.</t>
+  </si>
+  <si>
+    <t>Introduction to the oceans and atmosphere and their role in the Earth's climate and its weather patterns. Focus on the flows of solar energy through the ocean and atmosphere systems. Human impacts of the Earth's climate are also introduced.</t>
+  </si>
+  <si>
+    <t>quarter</t>
+  </si>
+  <si>
+    <t>Fall</t>
+  </si>
+  <si>
     <t>Lower-Division</t>
   </si>
   <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
     <t>Upper-Division</t>
   </si>
   <si>
+    <t>Winter</t>
+  </si>
+  <si>
     <t>Upper-Division and Graduate</t>
   </si>
   <si>
-    <t>quarter</t>
-  </si>
-  <si>
-    <t>Fall</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>Spring</t>
-  </si>
-  <si>
-    <t>Winter</t>
-  </si>
-  <si>
     <t>https://github.com/mikejohnson51/geog178</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>Summer Institute Course Coordinator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visting Scholar Research Grant </t>
+  </si>
+  <si>
+    <t>Summer Support Research Grant</t>
+  </si>
+  <si>
+    <t>UC Global Health Institute Seed Grant</t>
+  </si>
+  <si>
+    <t>Summer Instistute Research Fellow</t>
+  </si>
+  <si>
+    <t>Spatial Discovery Experts Meeting Attendee</t>
+  </si>
+  <si>
+    <t>Spatial Data Science Faculty Search Committee</t>
+  </si>
+  <si>
+    <t>County GIS Technician</t>
+  </si>
+  <si>
+    <t>County GIS Intern</t>
+  </si>
+  <si>
+    <t>San Luis Obispo County, California</t>
+  </si>
+  <si>
+    <t>Piedras Blancas Mapping and Restoration Project</t>
+  </si>
+  <si>
+    <t>Bureau of Land Management / Cal Poly</t>
+  </si>
+  <si>
+    <t>2014 - 2015</t>
+  </si>
+  <si>
+    <t>2014 - 2019</t>
+  </si>
+  <si>
+    <t>In Review</t>
+  </si>
+  <si>
+    <t>Peer-Reviewed Journal Papers</t>
+  </si>
+  <si>
+    <t>Technical Reports</t>
+  </si>
+  <si>
+    <t>Cartography</t>
+  </si>
+  <si>
+    <t>AOI: An R package for fast and flexible geocoding, boundary query, and AOI generation</t>
+  </si>
+  <si>
+    <t>Benjamin Sterne, Eric Gunter</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/full/10.1002/wat2.1345</t>
+  </si>
+  <si>
+    <t>https://github.com/mikejohnson51/AOI/blob/master/paper/output/2019-09-06_paper.pdf</t>
+  </si>
+  <si>
+    <t>Travel Grants</t>
+  </si>
+  <si>
+    <t>Grants, Fellowships, Awards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vrije Universiteit Amsterdam </t>
+  </si>
+  <si>
+    <t>Vrije Universiteit Amsterdam</t>
+  </si>
+  <si>
+    <t>Vrije Universiteit University</t>
+  </si>
+  <si>
+    <t>American Geophysical Union</t>
+  </si>
+  <si>
+    <t>Jack &amp; Laura Dangermond Fellowship</t>
+  </si>
+  <si>
+    <t>Top Undergraduate Paper</t>
+  </si>
+  <si>
+    <t>UCAR/NOAA National Water Center</t>
+  </si>
+  <si>
+    <t>American Geophysical Union Fall Meeting</t>
+  </si>
+  <si>
+    <t>European Geophysical Union</t>
+  </si>
+  <si>
+    <t>UCSB-SDSU Retreat</t>
   </si>
 </sst>
 </file>
@@ -1184,9 +1182,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1206,9 +1203,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1595,26 +1600,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="106" zoomScaleNormal="44" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="1025" width="10.5" customWidth="1"/>
+    <col min="6" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>308</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1623,226 +1628,475 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="B2">
         <v>2019</v>
       </c>
       <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" t="s">
-        <v>344</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>349</v>
-      </c>
-      <c r="B3" s="6">
+        <v>311</v>
+      </c>
+      <c r="B3">
         <v>2019</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>344</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="B4">
         <v>2019</v>
       </c>
       <c r="C4" t="s">
-        <v>311</v>
+        <v>270</v>
       </c>
       <c r="D4" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="E4" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>351</v>
+        <v>314</v>
       </c>
       <c r="B5">
         <v>2019</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>321</v>
+        <v>276</v>
       </c>
       <c r="E5" t="s">
-        <v>346</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>352</v>
+        <v>315</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="B6">
         <v>2018</v>
       </c>
       <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
       <c r="E6" t="s">
-        <v>344</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="B7">
         <v>2018</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>344</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="B8">
         <v>2018</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="B9">
         <v>2017</v>
       </c>
       <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
       <c r="E9" t="s">
-        <v>344</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="B10">
         <v>2017</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>305</v>
       </c>
       <c r="D10" t="s">
-        <v>343</v>
+        <v>285</v>
       </c>
       <c r="E10" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>351</v>
+        <v>314</v>
       </c>
       <c r="B11">
         <v>2017</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>321</v>
+        <v>276</v>
       </c>
       <c r="E11" t="s">
-        <v>346</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>352</v>
+        <v>315</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="B12">
         <v>2016</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>344</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="B13">
         <v>2016</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>344</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1" xr:uid="{B4C354B1-6171-3742-8B79-F4256809C196}"/>
-    <hyperlink ref="F11" r:id="rId2" xr:uid="{D0AF7623-6AA9-8B43-86CA-D56E8999CE59}"/>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{2712DA81-3E6F-694E-BA29-B446F68F2C4C}"/>
+    <hyperlink ref="F11" r:id="rId2" xr:uid="{10422249-9E5C-FB4C-BC18-65775B4398EE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" style="9" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="55" style="9" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="34" style="9" customWidth="1"/>
+    <col min="7" max="7" width="39.6640625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="37.6640625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="46.83203125" style="9" customWidth="1"/>
+    <col min="10" max="1025" width="10.5" style="9" customWidth="1"/>
+    <col min="1026" max="16384" width="8.83203125" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="404" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="306" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="306" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="204" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G5" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="G6" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="G7" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1851,183 +2105,255 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView zoomScale="108" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E17"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="44" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.83203125" customWidth="1"/>
     <col min="2" max="2" width="41.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="1025" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="41.1640625" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="1026" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2019</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>331</v>
+        <v>292</v>
+      </c>
+      <c r="C2">
+        <v>500</v>
+      </c>
+      <c r="D2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2019</v>
       </c>
       <c r="B3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+      <c r="C3">
+        <v>5000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2019</v>
       </c>
       <c r="B4" t="s">
-        <v>334</v>
-      </c>
-      <c r="C4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+      <c r="C4">
+        <v>2500</v>
+      </c>
+      <c r="D4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2018</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2018</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+      <c r="C6">
+        <v>2400</v>
+      </c>
+      <c r="D6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2018</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>15000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>348</v>
+      </c>
+      <c r="E7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2017</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+      <c r="C8">
+        <v>10000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>290</v>
+      </c>
+      <c r="E8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2017</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+      <c r="C9">
+        <v>800</v>
+      </c>
+      <c r="D9" t="s">
+        <v>287</v>
+      </c>
+      <c r="E9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2017</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>500</v>
+      </c>
+      <c r="D10" t="s">
+        <v>257</v>
+      </c>
+      <c r="E10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>700</v>
+      </c>
+      <c r="D11" t="s">
+        <v>287</v>
+      </c>
+      <c r="E11" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>30000</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E12" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2015</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2015</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2015</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>292</v>
+        <v>347</v>
+      </c>
+      <c r="C14">
+        <v>500</v>
+      </c>
+      <c r="D14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -2037,11 +2363,118 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3445A971-4551-0848-B274-DFAE26C643B4}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="52.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="15">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="15">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="B4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="15">
+        <v>183</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="15">
+        <v>162</v>
+      </c>
+      <c r="B7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="15">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="F1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2053,434 +2486,442 @@
     <col min="6" max="6" width="63.6640625" customWidth="1"/>
     <col min="7" max="7" width="38.6640625" customWidth="1"/>
     <col min="8" max="8" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.5" customWidth="1"/>
     <col min="11" max="1026" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>315</v>
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="K1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="70" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>316</v>
+      <c r="A2" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="C2">
         <v>2019</v>
       </c>
       <c r="D2" t="s">
-        <v>336</v>
+        <v>281</v>
       </c>
       <c r="E2" t="s">
-        <v>308</v>
+        <v>267</v>
       </c>
       <c r="F2" t="s">
-        <v>322</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>341</v>
+        <v>277</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>316</v>
+      <c r="A3" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="C3">
         <v>2019</v>
       </c>
       <c r="D3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="E3" t="s">
-        <v>338</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>340</v>
+      <c r="G3" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>316</v>
+      <c r="A4" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="C4">
         <v>2019</v>
       </c>
       <c r="D4" t="s">
-        <v>309</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>317</v>
+      <c r="A5" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>333</v>
       </c>
       <c r="C5">
         <v>2019</v>
       </c>
       <c r="D5" t="s">
-        <v>305</v>
+        <v>264</v>
       </c>
       <c r="E5" t="s">
-        <v>306</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>46</v>
+        <v>265</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="56" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>317</v>
+      <c r="A6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>333</v>
       </c>
       <c r="C6">
         <v>2019</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>302</v>
+      <c r="D6" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>261</v>
       </c>
       <c r="H6" t="s">
-        <v>304</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>41</v>
+        <v>263</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>320</v>
+      <c r="A7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>275</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>317</v>
+      <c r="A8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>333</v>
       </c>
       <c r="C8">
         <v>2018</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>52</v>
+        <v>39</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="56" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>317</v>
+      <c r="A9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>333</v>
       </c>
       <c r="C9">
         <v>2018</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>59</v>
+        <v>46</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>317</v>
+      <c r="A10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>333</v>
       </c>
       <c r="C10">
         <v>2017</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>65</v>
+        <v>52</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>318</v>
+      <c r="A11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>334</v>
       </c>
       <c r="C11">
         <v>2017</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>70</v>
+        <v>39</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>319</v>
+      <c r="A12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="C12">
         <v>2017</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" s="16"/>
+        <v>61</v>
+      </c>
+      <c r="I12" s="14"/>
       <c r="J12" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="K12" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>319</v>
+      <c r="A13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="C13">
         <v>2017</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
-      </c>
-      <c r="I13" s="16"/>
+        <v>65</v>
+      </c>
+      <c r="I13" s="14"/>
       <c r="J13" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="K13" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>319</v>
+      <c r="A14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="C14">
         <v>2017</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
-      </c>
-      <c r="I14" s="16"/>
+        <v>70</v>
+      </c>
+      <c r="I14" s="14"/>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="K14" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>318</v>
+      <c r="A15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>334</v>
       </c>
       <c r="C15">
         <v>2016</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H15" t="s">
-        <v>89</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>90</v>
+        <v>77</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="56" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>318</v>
+      <c r="A16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>334</v>
       </c>
       <c r="C16">
         <v>2016</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s">
-        <v>89</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>93</v>
+        <v>77</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F7" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
     <hyperlink ref="G3" r:id="rId2" xr:uid="{EDB1E5CE-989F-A048-AB3F-B8DDD1C9772C}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{4AB00A8A-D1C4-F44D-BEC6-4EE1437F4BF9}"/>
+    <hyperlink ref="F3" r:id="rId4" xr:uid="{D99F2ED0-AF0F-FB47-9F40-A04876AB15FE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="114" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:XFD2"/>
+    <sheetView zoomScale="114" zoomScaleNormal="44" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="55.83203125" customWidth="1"/>
     <col min="3" max="3" width="101.83203125" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" customWidth="1"/>
@@ -2488,248 +2929,234 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" t="s">
         <v>94</v>
       </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="B7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C7" t="s">
         <v>96</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D7" t="s">
         <v>97</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="D9" t="s">
         <v>100</v>
       </c>
-      <c r="B4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="B10" t="s">
         <v>105</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C10" t="s">
         <v>106</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" t="s">
         <v>107</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C11" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="D11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B12" t="s">
+        <v>351</v>
+      </c>
+      <c r="C12" t="s">
         <v>110</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="B13" t="s">
+        <v>256</v>
+      </c>
+      <c r="C13" t="s">
         <v>112</v>
       </c>
-      <c r="B8" t="s">
-        <v>296</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D13" t="s">
         <v>113</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="B14" t="s">
         <v>115</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C14" t="s">
         <v>116</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="B15" t="s">
         <v>118</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C15" t="s">
         <v>119</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B16" t="s">
         <v>121</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C16" t="s">
         <v>122</v>
       </c>
-      <c r="D11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" t="s">
-        <v>125</v>
-      </c>
-      <c r="D12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B14" t="s">
-        <v>297</v>
-      </c>
-      <c r="C14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C15" t="s">
-        <v>134</v>
-      </c>
-      <c r="D15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" t="s">
-        <v>137</v>
-      </c>
       <c r="D16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B17" t="s">
-        <v>139</v>
-      </c>
-      <c r="C17" t="s">
-        <v>140</v>
-      </c>
-      <c r="D17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="B25" s="7"/>
-    </row>
-    <row r="27" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="B27" s="7"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="B24" s="6"/>
+    </row>
+    <row r="26" spans="2:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="B26" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2737,12 +3164,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCellId="1" sqref="I8 A1"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2754,34 +3181,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>142</v>
+      <c r="A2">
+        <v>2018</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>144</v>
+      <c r="A3">
+        <v>2017</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2790,18 +3217,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="156" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.33203125" customWidth="1"/>
     <col min="4" max="1025" width="10.5" customWidth="1"/>
   </cols>
@@ -2811,153 +3238,153 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>337</v>
+      <c r="A2" s="16">
+        <v>2019</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>325</v>
+      <c r="A3" s="17" t="s">
+        <v>317</v>
       </c>
       <c r="B3" t="s">
         <v>323</v>
       </c>
       <c r="C3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B4" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>147</v>
-      </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
+      <c r="A5" s="16">
+        <v>2018</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>151</v>
+      <c r="A6" s="16">
+        <v>2018</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>153</v>
+      <c r="A7" s="16">
+        <v>2017</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>318</v>
       </c>
       <c r="C7" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2017</v>
+      <c r="A8" s="16">
+        <v>2016</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>322</v>
       </c>
       <c r="C8" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="16">
         <v>2016</v>
       </c>
       <c r="B9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
+        <v>2015</v>
+      </c>
+      <c r="B10" t="s">
+        <v>325</v>
+      </c>
+      <c r="C10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="C9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2016</v>
-      </c>
-      <c r="B10" t="s">
-        <v>329</v>
-      </c>
-      <c r="C10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2015</v>
-      </c>
       <c r="B11" t="s">
-        <v>328</v>
+        <v>279</v>
       </c>
       <c r="C11" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>160</v>
+      <c r="A12" s="16" t="s">
+        <v>331</v>
       </c>
       <c r="B12" t="s">
-        <v>327</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="16">
         <v>2014</v>
       </c>
       <c r="B13" t="s">
         <v>326</v>
       </c>
       <c r="C13" t="s">
-        <v>162</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="16">
         <v>2013</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
+        <v>328</v>
       </c>
       <c r="C14" t="s">
-        <v>164</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -2966,254 +3393,254 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="B3" activeCellId="1" sqref="I8 B3"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="38.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="38.6640625" style="3" customWidth="1"/>
     <col min="8" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="3">
+        <v>-119.845</v>
+      </c>
+      <c r="D2" s="3">
+        <v>34.414999999999999</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="3">
+        <v>75</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4.8657000000000004</v>
+      </c>
+      <c r="D3" s="3">
+        <v>52.333799999999997</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="3">
+        <v>75</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-71.109700000000004</v>
+      </c>
+      <c r="D4" s="3">
+        <v>42.373600000000003</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F4" s="3">
+        <v>50</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-77.306399999999996</v>
+      </c>
+      <c r="D5" s="3">
+        <v>38.846200000000003</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="3">
+        <v>75</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-87.541399999999996</v>
+      </c>
+      <c r="D6" s="3">
+        <v>33.217599999999997</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="3">
+        <v>50</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-105.27500000000001</v>
+      </c>
+      <c r="D7" s="3">
+        <v>39.978299999999997</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="3">
+        <v>50</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-122.4586</v>
+      </c>
+      <c r="D8" s="3">
+        <v>37.762700000000002</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="3">
+        <v>75</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C9" s="3">
+        <v>-122.2711</v>
+      </c>
+      <c r="D9" s="3">
+        <v>37.804400000000001</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F9" s="3">
+        <v>50</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="4" t="s">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="C10" s="3">
+        <v>-120.66249999999999</v>
+      </c>
+      <c r="D10" s="3">
+        <v>35.305</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="F10" s="3">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="C2" s="4">
-        <v>-119.845</v>
-      </c>
-      <c r="D2" s="4">
-        <v>34.414999999999999</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F2" s="4">
-        <v>75</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C3" s="4">
-        <v>4.8657000000000004</v>
-      </c>
-      <c r="D3" s="4">
-        <v>52.333799999999997</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F3" s="4">
-        <v>75</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C4" s="4">
-        <v>-71.109700000000004</v>
-      </c>
-      <c r="D4" s="4">
-        <v>42.373600000000003</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="F4" s="4">
-        <v>50</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="4">
-        <v>-77.306399999999996</v>
-      </c>
-      <c r="D5" s="4">
-        <v>38.846200000000003</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="F5" s="4">
-        <v>75</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C6" s="4">
-        <v>-87.541399999999996</v>
-      </c>
-      <c r="D6" s="4">
-        <v>33.217599999999997</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="F6" s="4">
-        <v>50</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C7" s="4">
-        <v>-105.27500000000001</v>
-      </c>
-      <c r="D7" s="4">
-        <v>39.978299999999997</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F7" s="4">
-        <v>50</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C8" s="4">
-        <v>-122.4586</v>
-      </c>
-      <c r="D8" s="4">
-        <v>37.762700000000002</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="F8" s="4">
-        <v>75</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C9" s="4">
-        <v>-122.2711</v>
-      </c>
-      <c r="D9" s="4">
-        <v>37.804400000000001</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="F9" s="4">
-        <v>50</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C10" s="4">
-        <v>-120.66249999999999</v>
-      </c>
-      <c r="D10" s="4">
-        <v>35.305</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="F10" s="4">
-        <v>50</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -3225,7 +3652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -3239,357 +3666,108 @@
     <col min="2" max="2" width="55" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
-    <col min="5" max="5" width="55" style="9" customWidth="1"/>
+    <col min="5" max="5" width="55" style="8" customWidth="1"/>
     <col min="6" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="B1" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="C1" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="D1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>208</v>
+        <v>176</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>213</v>
+        <v>181</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="C3" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="D3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>217</v>
+        <v>185</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="D4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>222</v>
+        <v>190</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="C5" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="D5" t="s">
-        <v>224</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>225</v>
+        <v>193</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="B6" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="C6" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="D6" t="s">
-        <v>229</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>230</v>
+        <v>198</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:I10"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="55" style="10" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="34" style="10" customWidth="1"/>
-    <col min="7" max="7" width="39.6640625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="37.6640625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="46.83203125" style="10" customWidth="1"/>
-    <col min="10" max="1025" width="10.5" style="10" customWidth="1"/>
-    <col min="1026" max="16384" width="8.83203125" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="404" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="306" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="306" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="153" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="204" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>280</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="G6" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
-    <hyperlink ref="G7" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikejohnson/Documents/GitHub/mikejohnson51/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC32B6E-23F8-2E45-AC0D-3E7348F3066A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F99037C-2778-AF44-B6F3-2C3E10072F5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="34400" windowHeight="28340" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teaching" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="373">
   <si>
     <t>data</t>
   </si>
@@ -126,21 +126,12 @@
     <t>Keith C. Clarke, {\me}, Tim Trainor</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>We review recent developments in cartographic research in North America, in the context of informing the 29th International Cartographic Conference, and 18th General Assembly in 2019. The titles of papers published since 2015 in four leading cartographic journals yielded a corpus of 245 documents containing 1,109 unique terms. These terms were analyzed using Latent Dirichlet Allocation and by visual analytics to produce 14 topic groups that mapped onto 5 classes. These classes were named: information visualization, cartographic data, spatial analysis and applications, methods and models, and GIScience. The classes were then used as themes to discuss the recent cartographic literature more broadly first to review recent trends in the research and to identify research gaps, and secondly to examine prospects for new research over the next 20 years. A conclusion draws some broad findings from the review, suggesting that cartographic research in the future will be aimed less at dealing with data, and more at generating insight and knowledge to better inform society about global challenges.</t>
   </si>
   <si>
-    <t>{\me}, Pat Johnson, Keith C. Clarke</t>
-  </si>
-  <si>
     <t>A National Scale System for Local Streamflow Visualization</t>
   </si>
   <si>
-    <t>In preparation</t>
-  </si>
-  <si>
     <t>Each day the National Water Model generates over 400 GB of data relating to the surface hydrology of the continental United States (CONUS). Managing this data and making it accessible is at the core of maximizing such a modeling system, and NOAA’s aim of providing hydrology as a service. In this paper we introduce an R Shiny web application that allows users to subset, interact, visualize, and download the National Hydrography Dataset (NHD) along with current to five day-out streamflow conditions for anywhere in the CONUS. Additionally, the application allows users to compare flow conditions to a modeled monthly average, and identifies regions within the CONUS showing significantly high flow peaks. The last of these represents a first step towards national-scale flood detection.</t>
   </si>
   <si>
@@ -153,9 +144,6 @@
     <t>Challenges and Opportunities for Creating Intelligent Hazard Alerts: The 'FloodHippo' Prototype</t>
   </si>
   <si>
-    <t>Journal of the American Water Resources Association (JAWRA) 1-10</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1111/1752-1688.12645</t>
   </si>
   <si>
@@ -202,9 +190,6 @@
   </si>
   <si>
     <t>Shallow translational slides are common in slopes during heavy rainfall. The classic model for the occurrence of translational slides in long slopes assumes rising saturation above a slip surface that reduces the frictional strength by decreasing the effective stress along soil discontinuities. The classic model for translational slope failure does not conform well to the nature of homogenous soils that do not exhibit discontinuities propitious to create perched groundwater over the soil discontinuity or slip surface. This paper develops an alternative methodology for the coupled numerical simulation of runoff and infiltration caused by variable rainfall falling on a slope. The advancing depth of infiltration is shown to affect the translational stability of long slopes subjected to rainfall, without assuming the perching of soil water over the slip surface. This new model offers an alternative mechanism for the translational stability of slopes that are saturated from the slope surface downwards. A computational example illustrates this paper’s methodology.</t>
-  </si>
-  <si>
-    <t>{\me}, Coll J.M, et al.</t>
   </si>
   <si>
     <t>National Water Centers Innovators Program Summer Institute Report</t>
@@ -226,9 +211,6 @@
     <t>Peoples and Regions of Africa [map]. Scale not given</t>
   </si>
   <si>
-    <t>Cole, Herbert M. Maternity Mothers and Children in the Arts of Africa, CT: Yale University Press</t>
-  </si>
-  <si>
     <t>resources/images/combined-small.jpg</t>
   </si>
   <si>
@@ -236,9 +218,6 @@
   </si>
   <si>
     <t>Rising Sea Levels: Hawaii [map]. Scale not given</t>
-  </si>
-  <si>
-    <t>Water: An Atlas. Oakland, CA: Guerilla Cartography</t>
   </si>
   <si>
     <t>resources/images/hi_map-small.jpg</t>
@@ -402,9 +381,6 @@
     <t>UC Student Lobby Conference</t>
   </si>
   <si>
-    <t>Water Research: Problems with Scale in Data-driven</t>
-  </si>
-  <si>
     <t>May 2015</t>
   </si>
   <si>
@@ -421,9 +397,6 @@
   </si>
   <si>
     <t xml:space="preserve">Jeremy Neil	</t>
-  </si>
-  <si>
-    <t>UCSB</t>
   </si>
   <si>
     <t>Visiting Researcher</t>
@@ -673,9 +646,6 @@
     <t>https://github.com/mikejohnson51/AOI</t>
   </si>
   <si>
-    <t>An R package for generating spatial boundaries</t>
-  </si>
-  <si>
     <t>HydroData</t>
   </si>
   <si>
@@ -871,9 +841,6 @@
     <t>status</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>Dr. Krzysztof Janowicz</t>
   </si>
   <si>
@@ -922,9 +889,6 @@
     <t>University of California Regents</t>
   </si>
   <si>
-    <t>AGU</t>
-  </si>
-  <si>
     <t>WRF-Hydro Training</t>
   </si>
   <si>
@@ -1003,24 +967,12 @@
     <t>Summer Institute Course Coordinator</t>
   </si>
   <si>
-    <t xml:space="preserve">Visting Scholar Research Grant </t>
-  </si>
-  <si>
     <t>Summer Support Research Grant</t>
   </si>
   <si>
     <t>UC Global Health Institute Seed Grant</t>
   </si>
   <si>
-    <t>Summer Instistute Research Fellow</t>
-  </si>
-  <si>
-    <t>Spatial Discovery Experts Meeting Attendee</t>
-  </si>
-  <si>
-    <t>Spatial Data Science Faculty Search Committee</t>
-  </si>
-  <si>
     <t>County GIS Technician</t>
   </si>
   <si>
@@ -1030,24 +982,12 @@
     <t>San Luis Obispo County, California</t>
   </si>
   <si>
-    <t>Piedras Blancas Mapping and Restoration Project</t>
-  </si>
-  <si>
-    <t>Bureau of Land Management / Cal Poly</t>
-  </si>
-  <si>
     <t>2014 - 2015</t>
   </si>
   <si>
     <t>2014 - 2019</t>
   </si>
   <si>
-    <t>In Review</t>
-  </si>
-  <si>
-    <t>Peer-Reviewed Journal Papers</t>
-  </si>
-  <si>
     <t>Technical Reports</t>
   </si>
   <si>
@@ -1069,9 +1009,6 @@
     <t>Travel Grants</t>
   </si>
   <si>
-    <t>Grants, Fellowships, Awards</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vrije Universiteit Amsterdam </t>
   </si>
   <si>
@@ -1100,6 +1037,132 @@
   </si>
   <si>
     <t>UCSB-SDSU Retreat</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>USGS-R nhdplusTools</t>
+  </si>
+  <si>
+    <t>Contributor</t>
+  </si>
+  <si>
+    <t>Tools for Accessing and Working with the NHDPlus</t>
+  </si>
+  <si>
+    <t>This package is a growing set of tools for manipulation of hydrographic data using the NHDPlus data model. There is no specific funding or plan to continue development of this package long term but ongoing support is available due to use of the package in project work.</t>
+  </si>
+  <si>
+    <t>https://github.com/USGS-R/nhdplusTools</t>
+  </si>
+  <si>
+    <t>An R API for manipulating  hydrographic data using the NHDPlus data model</t>
+  </si>
+  <si>
+    <t>Coll J.M, {\me}</t>
+  </si>
+  <si>
+    <t>The impact of the last two decades of California fires on evapotranspiration as seen from space</t>
+  </si>
+  <si>
+    <t>A New Method for Categorical Raster Resampling: Implications for Environmental Modeling</t>
+  </si>
+  <si>
+    <t>Geosciences and Remote Sensing</t>
+  </si>
+  <si>
+    <t>Journal of Geovisualization and Spatial Analysis</t>
+  </si>
+  <si>
+    <t>{\me},  Keith C. Clarke</t>
+  </si>
+  <si>
+    <t>{\me}, Shraddhanand Shukla, Keith C. Clarke</t>
+  </si>
+  <si>
+    <t>Creator</t>
+  </si>
+  <si>
+    <t>An R package for fast &amp; flexible geocoding, boundary query, and AOI generation</t>
+  </si>
+  <si>
+    <t>Environmental Modelling and Software</t>
+  </si>
+  <si>
+    <t>Free and Open Source Software for Mapping Flood Inundation Impacts using HAND and National Water Model Outputs</t>
+  </si>
+  <si>
+    <t>Mainstems and drainage basins: the organizing principles of surface water</t>
+  </si>
+  <si>
+    <t>David Blodgett, Mark Sondheim, {\me}, Michael Wieczorek</t>
+  </si>
+  <si>
+    <t>PLOS ONE</t>
+  </si>
+  <si>
+    <t>Jounal of Hydrology</t>
+  </si>
+  <si>
+    <t>{\me}, Coll J.M, et al</t>
+  </si>
+  <si>
+    <t>Geovisualization portal for exploring and accessing operational streamflow forecasts</t>
+  </si>
+  <si>
+    <t>Working Papers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piedras Blancas Mapping and Restoration </t>
+  </si>
+  <si>
+    <t>Bureau of Land Management</t>
+  </si>
+  <si>
+    <t>Peer-Reviewed Journal Articles</t>
+  </si>
+  <si>
+    <t>In Review Articles</t>
+  </si>
+  <si>
+    <t>Excellence in Teaching Award (Nominated)</t>
+  </si>
+  <si>
+    <t>include</t>
+  </si>
+  <si>
+    <t>Journal of the American Water Resources Association (JAWRA)</t>
+  </si>
+  <si>
+    <t>preprint</t>
+  </si>
+  <si>
+    <t>Water Research: Problems with Scale</t>
+  </si>
+  <si>
+    <t>Awards and Fellowships</t>
+  </si>
+  <si>
+    <t>Spatial Discovery Experts Meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visiting Scholar Research Grant </t>
+  </si>
+  <si>
+    <t>Cole, Herbert M. Maternity: Mothers and Children in the Arts of Africa, CT: Yale University Press</t>
+  </si>
+  <si>
+    <t>Water: An Atlas. Oakland, CA: Guerrilla Cartography</t>
+  </si>
+  <si>
+    <t>Suggest transfer from Journal of Hydrology Editor to Environmental Science and Policy</t>
+  </si>
+  <si>
+    <t>{\me}, Patrick W. Johnson, Keith C. Clarke</t>
+  </si>
+  <si>
+    <t>Summer Institute Research Fellow</t>
   </si>
 </sst>
 </file>
@@ -1616,7 +1679,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -1628,7 +1691,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s">
         <v>21</v>
@@ -1636,7 +1699,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="B2">
         <v>2019</v>
@@ -1648,12 +1711,12 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="B3">
         <v>2019</v>
@@ -1665,29 +1728,29 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="B4">
         <v>2019</v>
       </c>
       <c r="C4" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D4" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E4" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="B5">
         <v>2019</v>
@@ -1696,18 +1759,18 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="E5" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="B6">
         <v>2018</v>
@@ -1719,12 +1782,12 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="B7">
         <v>2018</v>
@@ -1736,12 +1799,12 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="B8">
         <v>2018</v>
@@ -1753,12 +1816,12 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="B9">
         <v>2017</v>
@@ -1770,29 +1833,29 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="B10">
         <v>2017</v>
       </c>
       <c r="C10" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="D10" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="E10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="B11">
         <v>2017</v>
@@ -1801,18 +1864,18 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="E11" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="B12">
         <v>2016</v>
@@ -1824,12 +1887,12 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="B13">
         <v>2016</v>
@@ -1841,7 +1904,7 @@
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -1856,247 +1919,303 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="F7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="9" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="55" style="9" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="34" style="9" customWidth="1"/>
-    <col min="7" max="7" width="39.6640625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="37.6640625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="46.83203125" style="9" customWidth="1"/>
-    <col min="10" max="1025" width="10.5" style="9" customWidth="1"/>
-    <col min="1026" max="16384" width="8.83203125" style="9"/>
+    <col min="1" max="1" width="19.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="55" style="9" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="34" style="9" customWidth="1"/>
+    <col min="8" max="8" width="39.6640625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="37.6640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="46.83203125" style="9" customWidth="1"/>
+    <col min="11" max="1026" width="10.5" style="9" customWidth="1"/>
+    <col min="1027" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>174</v>
+        <v>331</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="F1" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="404" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="B3" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="E2" s="10" t="s">
+    </row>
+    <row r="4" spans="1:10" ht="306" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="B4" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="404" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="I4" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="306" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="B5" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="306" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="H5" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="J5" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="B6" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="E6" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H6" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="306" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="J6" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B7" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="F7" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="H7" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="F5" s="9" t="s">
+    </row>
+    <row r="8" spans="1:10" ht="204" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="B8" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="153" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="H8" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="G6" s="11" t="s">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="B9" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="D9" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="B10" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="D10" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="204" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="I10" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>249</v>
+    </row>
+    <row r="11" spans="1:10" ht="238" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="G6" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
-    <hyperlink ref="G7" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="H5" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="H6" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="H7" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="H11" r:id="rId4" xr:uid="{10E537B9-FEDB-E844-8658-4C393C6BD19C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2105,10 +2224,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="108" zoomScaleNormal="44" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2121,7 +2240,7 @@
     <col min="6" max="1026" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -2129,231 +2248,254 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="D1" t="s">
         <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="F1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2019</v>
       </c>
       <c r="B2" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="C2">
         <v>500</v>
       </c>
       <c r="D2" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="E2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2019</v>
       </c>
       <c r="B3" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="C3">
         <v>5000</v>
       </c>
       <c r="D3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="E3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2019</v>
       </c>
       <c r="B4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C4">
+        <v>360</v>
+      </c>
+      <c r="D4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2019</v>
+      </c>
+      <c r="B5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C5">
         <v>2500</v>
       </c>
-      <c r="D4" t="s">
-        <v>342</v>
-      </c>
-      <c r="E4" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2018</v>
-      </c>
-      <c r="B5" t="s">
-        <v>345</v>
-      </c>
-      <c r="C5">
-        <v>200</v>
-      </c>
       <c r="D5" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="E5" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2018</v>
       </c>
       <c r="B6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
+      <c r="D6" t="s">
+        <v>278</v>
+      </c>
+      <c r="E6" t="s">
         <v>320</v>
       </c>
-      <c r="C6">
-        <v>2400</v>
-      </c>
-      <c r="D6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2018</v>
       </c>
       <c r="B7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C7">
+        <v>2400</v>
+      </c>
+      <c r="D7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2018</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>15000</v>
       </c>
-      <c r="D7" t="s">
-        <v>348</v>
-      </c>
-      <c r="E7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2017</v>
-      </c>
-      <c r="B8" t="s">
-        <v>321</v>
-      </c>
-      <c r="C8">
-        <v>10000</v>
-      </c>
       <c r="D8" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="E8" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2017</v>
       </c>
       <c r="B9" t="s">
-        <v>345</v>
+        <v>308</v>
       </c>
       <c r="C9">
-        <v>800</v>
+        <v>10000</v>
       </c>
       <c r="D9" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E9" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2017</v>
       </c>
       <c r="B10" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="C10">
+        <v>800</v>
+      </c>
+      <c r="D10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2017</v>
+      </c>
+      <c r="B11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C11">
         <v>500</v>
       </c>
-      <c r="D10" t="s">
-        <v>257</v>
-      </c>
-      <c r="E10" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="D11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>2016</v>
       </c>
-      <c r="B11" t="s">
-        <v>294</v>
-      </c>
-      <c r="C11">
+      <c r="B12" t="s">
+        <v>282</v>
+      </c>
+      <c r="C12">
         <v>700</v>
       </c>
-      <c r="D11" t="s">
-        <v>287</v>
-      </c>
-      <c r="E11" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2015</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>30000</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>291</v>
+      <c r="D12" t="s">
+        <v>276</v>
       </c>
       <c r="E12" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2015</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>30000</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="E13" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2015</v>
       </c>
       <c r="B14" t="s">
-        <v>347</v>
-      </c>
-      <c r="C14">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2015</v>
+      </c>
+      <c r="B15" t="s">
+        <v>326</v>
+      </c>
+      <c r="C15">
         <v>500</v>
       </c>
-      <c r="D14" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" t="s">
-        <v>341</v>
+      <c r="D15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -2378,13 +2520,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="B1" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="C1" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2395,7 +2537,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2406,29 +2548,29 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B4" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C4" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2439,7 +2581,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2447,10 +2589,10 @@
         <v>162</v>
       </c>
       <c r="B7" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C7" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2461,7 +2603,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -2471,32 +2613,33 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="45.83203125" customWidth="1"/>
+    <col min="1" max="1" width="50.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" customWidth="1"/>
     <col min="3" max="3" width="28.5" customWidth="1"/>
     <col min="4" max="4" width="116.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="163.5" customWidth="1"/>
-    <col min="6" max="6" width="63.6640625" customWidth="1"/>
-    <col min="7" max="7" width="38.6640625" customWidth="1"/>
-    <col min="8" max="8" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5" customWidth="1"/>
-    <col min="11" max="1026" width="10.5" customWidth="1"/>
+    <col min="5" max="6" width="77" customWidth="1"/>
+    <col min="7" max="7" width="63.6640625" customWidth="1"/>
+    <col min="8" max="8" width="38.6640625" customWidth="1"/>
+    <col min="9" max="9" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="255.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5" customWidth="1"/>
+    <col min="12" max="1027" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -2508,403 +2651,496 @@
         <v>20</v>
       </c>
       <c r="F1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="70" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="70" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="C2">
         <v>2019</v>
       </c>
       <c r="D2" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="E2" t="s">
-        <v>267</v>
-      </c>
-      <c r="F2" t="s">
-        <v>277</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+      <c r="G2" t="s">
+        <v>266</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="C3">
         <v>2019</v>
       </c>
       <c r="D3" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="E3" t="s">
-        <v>282</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>339</v>
+        <v>271</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="C4">
         <v>2019</v>
       </c>
       <c r="D4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+      <c r="E4" t="s">
+        <v>370</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="C5">
         <v>2019</v>
       </c>
       <c r="D5" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E5" t="s">
-        <v>265</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="56" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="56" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="C6">
         <v>2019</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="H6" t="s">
-        <v>263</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="C7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="I6" t="s">
+        <v>253</v>
+      </c>
+      <c r="J6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="8" spans="1:12" ht="42" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="B8" s="3" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="C8">
         <v>2018</v>
       </c>
       <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>362</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="9" spans="1:12" ht="56" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="56" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="B9" s="3" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="C9">
         <v>2018</v>
       </c>
       <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" t="s">
         <v>42</v>
       </c>
-      <c r="E9" t="s">
+      <c r="J9" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F9" t="s">
+    </row>
+    <row r="10" spans="1:12" ht="42" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="B10" s="3" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="C10">
         <v>2017</v>
       </c>
       <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:12" ht="42" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>54</v>
+        <v>353</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="C11">
         <v>2017</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="C12">
         <v>2017</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="14"/>
-      <c r="J12" t="s">
-        <v>62</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="J12" s="14"/>
       <c r="K12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="L12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="C13">
         <v>2017</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" s="14"/>
-      <c r="J13" t="s">
-        <v>66</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="J13" s="14"/>
       <c r="K13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="L13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="C14">
         <v>2017</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" t="s">
-        <v>70</v>
-      </c>
-      <c r="I14" s="14"/>
-      <c r="J14" t="s">
-        <v>71</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="14"/>
       <c r="K14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="L14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="C15">
         <v>2016</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" t="s">
-        <v>76</v>
-      </c>
-      <c r="H15" t="s">
-        <v>77</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="56" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="G15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="56" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="C16">
         <v>2016</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>273</v>
-      </c>
-      <c r="F16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" t="s">
-        <v>77</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>81</v>
+        <v>263</v>
+      </c>
+      <c r="G16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C18">
+        <v>2019</v>
+      </c>
+      <c r="D18" t="s">
+        <v>348</v>
+      </c>
+      <c r="E18" t="s">
+        <v>347</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C19">
+        <v>2020</v>
+      </c>
+      <c r="D19" t="s">
+        <v>339</v>
+      </c>
+      <c r="E19" t="s">
+        <v>351</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C20">
+        <v>2020</v>
+      </c>
+      <c r="D20" t="s">
+        <v>340</v>
+      </c>
+      <c r="E20" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C21">
+        <v>2020</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" t="s">
+        <v>342</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C22">
+        <v>2020</v>
+      </c>
+      <c r="D22" t="s">
+        <v>349</v>
+      </c>
+      <c r="E22" t="s">
+        <v>352</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F7" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{EDB1E5CE-989F-A048-AB3F-B8DDD1C9772C}"/>
-    <hyperlink ref="F5" r:id="rId3" xr:uid="{4AB00A8A-D1C4-F44D-BEC6-4EE1437F4BF9}"/>
-    <hyperlink ref="F3" r:id="rId4" xr:uid="{D99F2ED0-AF0F-FB47-9F40-A04876AB15FE}"/>
+    <hyperlink ref="G21" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{EDB1E5CE-989F-A048-AB3F-B8DDD1C9772C}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{4AB00A8A-D1C4-F44D-BEC6-4EE1437F4BF9}"/>
+    <hyperlink ref="G3" r:id="rId4" xr:uid="{D99F2ED0-AF0F-FB47-9F40-A04876AB15FE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2916,7 +3152,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView zoomScale="114" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2933,223 +3169,223 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>364</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="19" x14ac:dyDescent="0.2">
@@ -3181,7 +3417,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
@@ -3192,7 +3428,7 @@
         <v>2018</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3200,7 +3436,7 @@
         <v>2017</v>
       </c>
       <c r="B3" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3208,7 +3444,7 @@
         <v>2016</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3219,10 +3455,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView zoomScale="156" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="44" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3241,7 +3477,7 @@
         <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3249,21 +3485,21 @@
         <v>2019</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="B3" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="C3" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3271,10 +3507,10 @@
         <v>2018</v>
       </c>
       <c r="B4" t="s">
-        <v>324</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3282,32 +3518,32 @@
         <v>2018</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>306</v>
       </c>
       <c r="C6" t="s">
-        <v>342</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B7" t="s">
-        <v>318</v>
+        <v>372</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -3315,76 +3551,65 @@
         <v>2016</v>
       </c>
       <c r="B8" t="s">
-        <v>322</v>
+        <v>269</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B9" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="16">
-        <v>2015</v>
+      <c r="A10" s="16" t="s">
+        <v>312</v>
       </c>
       <c r="B10" t="s">
-        <v>325</v>
+        <v>268</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="B11" t="s">
-        <v>279</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>331</v>
+      <c r="A12" s="16">
+        <v>2014</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>310</v>
       </c>
       <c r="C12" t="s">
-        <v>130</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B13" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="C13" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="16">
-        <v>2013</v>
-      </c>
-      <c r="B14" t="s">
-        <v>328</v>
-      </c>
-      <c r="C14" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -3415,22 +3640,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>21</v>
@@ -3438,10 +3663,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C2" s="3">
         <v>-119.845</v>
@@ -3450,21 +3675,21 @@
         <v>34.414999999999999</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F2" s="3">
         <v>75</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C3" s="3">
         <v>4.8657000000000004</v>
@@ -3473,21 +3698,21 @@
         <v>52.333799999999997</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F3" s="3">
         <v>75</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C4" s="3">
         <v>-71.109700000000004</v>
@@ -3496,21 +3721,21 @@
         <v>42.373600000000003</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="F4" s="3">
         <v>50</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C5" s="3">
         <v>-77.306399999999996</v>
@@ -3519,21 +3744,21 @@
         <v>38.846200000000003</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F5" s="3">
         <v>75</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C6" s="3">
         <v>-87.541399999999996</v>
@@ -3542,21 +3767,21 @@
         <v>33.217599999999997</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F6" s="3">
         <v>50</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C7" s="3">
         <v>-105.27500000000001</v>
@@ -3565,21 +3790,21 @@
         <v>39.978299999999997</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F7" s="3">
         <v>50</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C8" s="3">
         <v>-122.4586</v>
@@ -3588,21 +3813,21 @@
         <v>37.762700000000002</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F8" s="3">
         <v>75</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C9" s="3">
         <v>-122.2711</v>
@@ -3611,21 +3836,21 @@
         <v>37.804400000000001</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F9" s="3">
         <v>50</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C10" s="3">
         <v>-120.66249999999999</v>
@@ -3634,13 +3859,13 @@
         <v>35.305</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F10" s="3">
         <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3672,98 +3897,98 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C1" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D3" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D5" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C6" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D6" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikejohnson/Documents/GitHub/mikejohnson51/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F99037C-2778-AF44-B6F3-2C3E10072F5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0C9C4C-B32F-C649-84BD-22C42E0BC0E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="34400" windowHeight="28340" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teaching" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,9 @@
     <sheet name="affiliations" sheetId="7" r:id="rId8"/>
     <sheet name="current_work" sheetId="8" r:id="rId9"/>
     <sheet name="software" sheetId="9" r:id="rId10"/>
+    <sheet name="funded_research" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="385">
   <si>
     <t>data</t>
   </si>
@@ -82,9 +83,6 @@
   </si>
   <si>
     <t>details</t>
-  </si>
-  <si>
-    <t>COMET Partners Grant</t>
   </si>
   <si>
     <t>Disciplines Fellowship</t>
@@ -883,9 +881,6 @@
     <t>Graduate Student Association</t>
   </si>
   <si>
-    <t>UCGHI Planetary Health Center</t>
-  </si>
-  <si>
     <t>University of California Regents</t>
   </si>
   <si>
@@ -970,9 +965,6 @@
     <t>Summer Support Research Grant</t>
   </si>
   <si>
-    <t>UC Global Health Institute Seed Grant</t>
-  </si>
-  <si>
     <t>County GIS Technician</t>
   </si>
   <si>
@@ -1027,9 +1019,6 @@
     <t>Top Undergraduate Paper</t>
   </si>
   <si>
-    <t>UCAR/NOAA National Water Center</t>
-  </si>
-  <si>
     <t>American Geophysical Union Fall Meeting</t>
   </si>
   <si>
@@ -1163,6 +1152,54 @@
   </si>
   <si>
     <t>Summer Institute Research Fellow</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>Principal Investigator</t>
+  </si>
+  <si>
+    <t>Programmatic and GUI-driven retrieval and visualization of streamflow for all CONUS rivers</t>
+  </si>
+  <si>
+    <t>In Review</t>
+  </si>
+  <si>
+    <t>CUASHI</t>
+  </si>
+  <si>
+    <t>Co-Principal Investigator</t>
+  </si>
+  <si>
+    <t>A National Water Model R Package: Improving access and application of model output</t>
+  </si>
+  <si>
+    <t>2018-2019</t>
+  </si>
+  <si>
+    <t>UCAR COMET</t>
+  </si>
+  <si>
+    <t>FOSSFlood: The LivingFlood Application Build on Free Open Source Software</t>
+  </si>
+  <si>
+    <t>2017-2018</t>
+  </si>
+  <si>
+    <t>Integrating farmers’ adaptive behaviors in California’s Central Valley to assess water and food security risks under climate change</t>
+  </si>
+  <si>
+    <t>UCGHI Planetary Health Seed Grant</t>
+  </si>
+  <si>
+    <t>resources/images/software/nhdplusTools.png</t>
+  </si>
+  <si>
+    <t>resources/images/software/floodmapping.png</t>
   </si>
 </sst>
 </file>
@@ -1679,7 +1716,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -1691,15 +1728,15 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B2">
         <v>2019</v>
@@ -1711,12 +1748,12 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B3">
         <v>2019</v>
@@ -1728,29 +1765,29 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B4">
         <v>2019</v>
       </c>
       <c r="C4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" t="s">
         <v>260</v>
       </c>
-      <c r="D4" t="s">
-        <v>261</v>
-      </c>
       <c r="E4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B5">
         <v>2019</v>
@@ -1759,18 +1796,18 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B6">
         <v>2018</v>
@@ -1782,12 +1819,12 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B7">
         <v>2018</v>
@@ -1799,12 +1836,12 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B8">
         <v>2018</v>
@@ -1816,12 +1853,12 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B9">
         <v>2017</v>
@@ -1833,29 +1870,29 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B10">
         <v>2017</v>
       </c>
       <c r="C10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B11">
         <v>2017</v>
@@ -1864,18 +1901,18 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B12">
         <v>2016</v>
@@ -1887,12 +1924,12 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B13">
         <v>2016</v>
@@ -1904,7 +1941,7 @@
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -1921,293 +1958,299 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="F7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="9" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="55" style="9" customWidth="1"/>
-    <col min="6" max="6" width="19.83203125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="34" style="9" customWidth="1"/>
-    <col min="8" max="8" width="39.6640625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="37.6640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="46.83203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.6640625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="43.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="73.1640625" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="1026" width="10.5" style="9" customWidth="1"/>
     <col min="1027" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>168</v>
-      </c>
       <c r="G1" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="J1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="187" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="B2" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="J2" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="119" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="404" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="B3" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="J3" s="9" t="s">
+    </row>
+    <row r="4" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="306" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="B4" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="306" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="B5" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="J5" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="J5" s="9" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="153" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="B6" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="E6" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="H6" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="85" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="204" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="E8" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="F8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="H8" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="J8" s="9" t="s">
         <v>230</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="85" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="B10" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="I10" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="238" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>334</v>
+        <v>330</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>383</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -2222,12 +2265,115 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A30E3E98-4FB8-5749-BC05-8B7137D7F368}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="C2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D3" t="s">
+        <v>378</v>
+      </c>
+      <c r="E3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="C4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D4" t="s">
+        <v>378</v>
+      </c>
+      <c r="E4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="C5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E5">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="108" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2248,16 +2394,16 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D1" t="s">
         <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2265,16 +2411,16 @@
         <v>2019</v>
       </c>
       <c r="B2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C2">
         <v>500</v>
       </c>
       <c r="D2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2282,16 +2428,16 @@
         <v>2019</v>
       </c>
       <c r="B3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C3">
         <v>5000</v>
       </c>
       <c r="D3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2299,13 +2445,13 @@
         <v>2019</v>
       </c>
       <c r="B4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2313,16 +2459,16 @@
         <v>2019</v>
       </c>
       <c r="B5" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C5">
         <v>2500</v>
       </c>
       <c r="D5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E5" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2330,16 +2476,16 @@
         <v>2018</v>
       </c>
       <c r="B6" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C6">
         <v>200</v>
       </c>
       <c r="D6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2347,36 +2493,33 @@
         <v>2018</v>
       </c>
       <c r="B7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C7">
         <v>2400</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>321</v>
       </c>
       <c r="C8">
-        <v>15000</v>
+        <v>800</v>
       </c>
       <c r="D8" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="E8" t="s">
-        <v>365</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2384,70 +2527,64 @@
         <v>2017</v>
       </c>
       <c r="B9" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="C9">
-        <v>10000</v>
+        <v>500</v>
       </c>
       <c r="D9" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="E9" t="s">
-        <v>365</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B10" t="s">
-        <v>324</v>
+        <v>280</v>
       </c>
       <c r="C10">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="D10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E10" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="B11" t="s">
-        <v>281</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>500</v>
-      </c>
-      <c r="D11" t="s">
-        <v>247</v>
+        <v>30000</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="E11" t="s">
-        <v>320</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B12" t="s">
-        <v>282</v>
-      </c>
-      <c r="C12">
-        <v>700</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>276</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>320</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -2455,47 +2592,16 @@
         <v>2015</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
       <c r="C13">
-        <v>30000</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>280</v>
+        <v>500</v>
+      </c>
+      <c r="D13" t="s">
+        <v>122</v>
       </c>
       <c r="E13" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2015</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2015</v>
-      </c>
-      <c r="B15" t="s">
-        <v>326</v>
-      </c>
-      <c r="C15">
-        <v>500</v>
-      </c>
-      <c r="D15" t="s">
-        <v>123</v>
-      </c>
-      <c r="E15" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -2520,13 +2626,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" t="s">
         <v>283</v>
-      </c>
-      <c r="B1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C1" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2537,7 +2643,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2548,29 +2654,29 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2581,7 +2687,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2589,10 +2695,10 @@
         <v>162</v>
       </c>
       <c r="B7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2603,7 +2709,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -2636,109 +2742,109 @@
   <sheetData>
     <row r="1" spans="1:12" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
       </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
-        <v>363</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>25</v>
-      </c>
-      <c r="L1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="70" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C2">
         <v>2019</v>
       </c>
       <c r="D2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C3">
         <v>2019</v>
       </c>
       <c r="D3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C4">
         <v>2019</v>
       </c>
       <c r="D4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E4" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2746,306 +2852,306 @@
     </row>
     <row r="5" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C5">
         <v>2019</v>
       </c>
       <c r="D5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E5" t="s">
         <v>254</v>
       </c>
-      <c r="E5" t="s">
-        <v>255</v>
-      </c>
       <c r="G5" s="12" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="56" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C6">
         <v>2019</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>250</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="42" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C8">
         <v>2018</v>
       </c>
       <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>358</v>
+      </c>
+      <c r="G8" t="s">
         <v>33</v>
       </c>
-      <c r="E8" t="s">
-        <v>362</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>34</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" s="14" t="s">
         <v>35</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="56" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C9">
         <v>2018</v>
       </c>
       <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
         <v>38</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>39</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>40</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>41</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="42" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C10">
         <v>2017</v>
       </c>
       <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
         <v>45</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>46</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
         <v>47</v>
       </c>
-      <c r="H10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="42" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C11">
         <v>2017</v>
       </c>
       <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
         <v>50</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>51</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="I11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C12">
         <v>2017</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" t="s">
         <v>56</v>
-      </c>
-      <c r="L12" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C13">
         <v>2017</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="J13" s="14"/>
       <c r="K13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" t="s">
         <v>59</v>
-      </c>
-      <c r="L13" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C14">
         <v>2017</v>
       </c>
       <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" t="s">
         <v>61</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>62</v>
-      </c>
-      <c r="G14" t="s">
-        <v>63</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" t="s">
         <v>64</v>
-      </c>
-      <c r="L14" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C15">
         <v>2016</v>
       </c>
       <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" t="s">
         <v>67</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>68</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I15" t="s">
         <v>69</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" s="14" t="s">
         <v>70</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="56" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C16">
         <v>2016</v>
       </c>
       <c r="D16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" t="s">
+        <v>262</v>
+      </c>
+      <c r="G16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="E16" t="s">
-        <v>263</v>
-      </c>
-      <c r="G16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I16" t="s">
-        <v>70</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C18">
         <v>2019</v>
       </c>
       <c r="D18" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E18" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -3053,19 +3159,19 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C19">
         <v>2020</v>
       </c>
       <c r="D19" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E19" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -3073,63 +3179,63 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C20">
         <v>2020</v>
       </c>
       <c r="D20" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E20" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="42" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C21">
         <v>2020</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C22">
         <v>2020</v>
       </c>
       <c r="D22" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E22" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -3169,223 +3275,223 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>75</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C2" t="s">
         <v>77</v>
       </c>
-      <c r="B2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
-      </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
         <v>80</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>81</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>82</v>
-      </c>
-      <c r="D4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
         <v>80</v>
       </c>
-      <c r="B5" t="s">
-        <v>81</v>
-      </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C6" t="s">
         <v>85</v>
       </c>
-      <c r="B6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>86</v>
-      </c>
-      <c r="D6" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C7" t="s">
         <v>88</v>
       </c>
-      <c r="B7" t="s">
-        <v>328</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>89</v>
-      </c>
-      <c r="D7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" t="s">
         <v>91</v>
       </c>
-      <c r="B8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>92</v>
-      </c>
-      <c r="D8" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
         <v>94</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>95</v>
       </c>
-      <c r="C9" t="s">
-        <v>96</v>
-      </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>98</v>
       </c>
-      <c r="C10" t="s">
-        <v>99</v>
-      </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" t="s">
         <v>100</v>
       </c>
-      <c r="C11" t="s">
-        <v>101</v>
-      </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>326</v>
+      </c>
+      <c r="C12" t="s">
         <v>102</v>
       </c>
-      <c r="B12" t="s">
-        <v>330</v>
-      </c>
-      <c r="C12" t="s">
-        <v>103</v>
-      </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" t="s">
+        <v>245</v>
+      </c>
+      <c r="C13" t="s">
         <v>104</v>
       </c>
-      <c r="B13" t="s">
-        <v>246</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>105</v>
-      </c>
-      <c r="D13" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" t="s">
         <v>107</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>108</v>
       </c>
-      <c r="C14" t="s">
-        <v>109</v>
-      </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" t="s">
         <v>110</v>
       </c>
-      <c r="B15" t="s">
-        <v>111</v>
-      </c>
       <c r="C15" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" t="s">
         <v>112</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>113</v>
       </c>
-      <c r="C16" t="s">
-        <v>114</v>
-      </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="19" x14ac:dyDescent="0.2">
@@ -3417,7 +3523,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
@@ -3428,7 +3534,7 @@
         <v>2018</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3436,7 +3542,7 @@
         <v>2017</v>
       </c>
       <c r="B3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3444,7 +3550,7 @@
         <v>2016</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3457,7 +3563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="44" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="156" zoomScaleNormal="44" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -3474,10 +3580,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3485,21 +3591,21 @@
         <v>2019</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3507,10 +3613,10 @@
         <v>2018</v>
       </c>
       <c r="B4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" t="s">
         <v>118</v>
-      </c>
-      <c r="C4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3518,10 +3624,10 @@
         <v>2018</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3529,10 +3635,10 @@
         <v>2017</v>
       </c>
       <c r="B6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -3540,10 +3646,10 @@
         <v>2016</v>
       </c>
       <c r="B7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -3551,10 +3657,10 @@
         <v>2016</v>
       </c>
       <c r="B8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -3562,32 +3668,32 @@
         <v>2015</v>
       </c>
       <c r="B9" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" t="s">
         <v>120</v>
-      </c>
-      <c r="C11" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -3595,10 +3701,10 @@
         <v>2014</v>
       </c>
       <c r="B12" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3606,10 +3712,10 @@
         <v>2013</v>
       </c>
       <c r="B13" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C13" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -3640,33 +3746,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="C2" s="3">
         <v>-119.845</v>
@@ -3675,21 +3781,21 @@
         <v>34.414999999999999</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F2" s="3">
         <v>75</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" s="3">
         <v>4.8657000000000004</v>
@@ -3698,21 +3804,21 @@
         <v>52.333799999999997</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F3" s="3">
         <v>75</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4" s="3">
         <v>-71.109700000000004</v>
@@ -3721,21 +3827,21 @@
         <v>42.373600000000003</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F4" s="3">
         <v>50</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5" s="3">
         <v>-77.306399999999996</v>
@@ -3744,21 +3850,21 @@
         <v>38.846200000000003</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F5" s="3">
         <v>75</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="C6" s="3">
         <v>-87.541399999999996</v>
@@ -3767,21 +3873,21 @@
         <v>33.217599999999997</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F6" s="3">
         <v>50</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="C7" s="3">
         <v>-105.27500000000001</v>
@@ -3790,21 +3896,21 @@
         <v>39.978299999999997</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F7" s="3">
         <v>50</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="C8" s="3">
         <v>-122.4586</v>
@@ -3813,21 +3919,21 @@
         <v>37.762700000000002</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F8" s="3">
         <v>75</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="C9" s="3">
         <v>-122.2711</v>
@@ -3836,21 +3942,21 @@
         <v>37.804400000000001</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F9" s="3">
         <v>50</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="C10" s="3">
         <v>-120.66249999999999</v>
@@ -3859,13 +3965,13 @@
         <v>35.305</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F10" s="3">
         <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3881,7 +3987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScale="57" zoomScaleNormal="44" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="57" zoomScaleNormal="44" workbookViewId="0">
       <selection activeCell="B2" activeCellId="1" sqref="I8 B2"/>
     </sheetView>
   </sheetViews>
@@ -3897,98 +4003,98 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" t="s">
         <v>164</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>165</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>166</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" t="s">
         <v>169</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>170</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>171</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="8" t="s">
         <v>172</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" t="s">
         <v>174</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>175</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="8" t="s">
         <v>176</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" t="s">
         <v>178</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>179</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>180</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="8" t="s">
         <v>181</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" t="s">
         <v>183</v>
       </c>
-      <c r="C5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" s="8" t="s">
         <v>184</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" t="s">
         <v>186</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>187</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>188</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikejohnson/Documents/GitHub/mikejohnson51/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0C9C4C-B32F-C649-84BD-22C42E0BC0E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399098E4-8BBC-8849-96FF-F74F23128150}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teaching" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="381">
   <si>
     <t>data</t>
   </si>
@@ -550,70 +550,10 @@
     <t>text</t>
   </si>
   <si>
-    <t>ET</t>
-  </si>
-  <si>
-    <t>Evapotranspiration Data Analysis</t>
-  </si>
-  <si>
-    <t>Dami Eyelade, Jeremy Neill, Dino Korac</t>
-  </si>
-  <si>
-    <t>resources/images/current_work/et.png</t>
-  </si>
-  <si>
-    <t>Four projects look into modeling evapotranspiration across a continuous spatial surface within the contexts of the HydroData package. Specifically (1) how DAYMET and Weather Underground data can be used to calculate PET at a daily timesteps for North America; (2) how the same process can be applied globally; (4) how values – analogous to the FAO crop coefficients – can be developed for all vegetated Anderson level 2 land covers and (4) how to decouple the effect of temperature on ET rates using observed streamflow records.</t>
-  </si>
-  <si>
-    <t>Flood Mapping</t>
-  </si>
-  <si>
-    <t>Jim Coll, Dinuke Munasinghe</t>
-  </si>
-  <si>
-    <t>resources/images/current_work/floodmapping.gif</t>
-  </si>
-  <si>
-    <t>Three projects look at the feasibility of real-time flood mapping using R and the National Water Model. The first (1) is to develop a system that allows GIS agencies throughout the country to install and run an hourly flood impacts models using the HAND methodology, the second (2) is to evaluate the accuracy of the HAND method against a repository of satellite derived flood extents and the third (3) is develop a filtering scheme to identify abnormally low and high flows in a NWM forecast allowing decision-makers and modelers to focus on areas that need attention.</t>
-  </si>
-  <si>
-    <t>Water Security</t>
-  </si>
-  <si>
-    <t>Using Text-based Analysis to Simplify the Water Security Paradigm</t>
-  </si>
-  <si>
-    <t>Keith Clarke</t>
-  </si>
-  <si>
-    <t>resources/images/current_work/watersecurity.jpg</t>
-  </si>
-  <si>
-    <t>Over the last 25 years the concept of water security has gained in popularity, but its meaning remains ambiguous despite several attempts to articulate a unified definition. This project seeks to better understand water security through a quantitative, text-based analysis of the literature to remove linguistic redundancies and overlap to identify core, timeless agreements.</t>
-  </si>
-  <si>
-    <t>Urban Growth Modeling</t>
-  </si>
-  <si>
-    <t>resources/images/current_work/urbangrowth.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This study looks to apply the SLEUTH land use/land cover model to the state of California to derive high resolution, probabilistic, long-range, Anderson level 2 land use products. Such products will be used for scenario-based hydroclimate studies with the NCAR Research Application Laboratory. </t>
-  </si>
-  <si>
-    <t>Drought Models</t>
-  </si>
-  <si>
     <t>Agent-based Risk Models</t>
   </si>
   <si>
-    <t>Marthe Wens, Jeroen Aerts, Ted Veldkamp</t>
-  </si>
-  <si>
     <t>resources/images/current_work/droughtmodels.jpg</t>
-  </si>
-  <si>
-    <t>This work is part of a larger study being carried out at the Institute for Environmental Studies at VU Amsterdam looking to couple distributed hydrologic models and multi-actor, agent-based behavioral models within a drought risk context. One case study looks at applying this modeling strategy to a region in California’s Central Valley to better understand impacts on ground water withdrawals and aquifer levels.</t>
   </si>
   <si>
     <t>homepage</t>
@@ -1200,6 +1140,55 @@
   </si>
   <si>
     <t>resources/images/software/floodmapping.png</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Data Representation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local hydrologic processes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regional hydrologic changes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human Behavior in Water Resource Systems </t>
+  </si>
+  <si>
+    <t>resources/images/current_work/resample.tiff</t>
+  </si>
+  <si>
+    <t>resources/images/current_work/ca100.png</t>
+  </si>
+  <si>
+    <t>resources/images/current_work/software.png</t>
+  </si>
+  <si>
+    <t>resources/images/current_work/fire.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I write scientific software to facilitate reproducible and scalable data workflows. These packages are based on defining programmatic spatial boundaries that can interface with modeled (e.g. PRISM, gridMET), observation (e.g. NOAA, USGS) and referenced geospatial resources (e.g. NHD, NLCD) to download requisite data in consistent, aligned, formats. 
+The goal is to remove the friction associated with data preparation, allow for iterative data analysis over user defined regions, and simplify reproducible science in the era of big data. Package development is an ongoing effort based on community interactions and my own needs. Feel free to reach out via GitHub for any requests! </t>
+  </si>
+  <si>
+    <t>Current work is exploring how land cover and channel geometries are represented in environmental models and the implications on hydrologic simulation. I am interested in the capacities for data integration and fusion to better parameterize models and inform our understanding of hydrologic process. These activities are aimed at advancing hydrologic metadata, integrating datasets across data models and granularities, and merging conceptual hydrologic and geographic models to better hydrologic data. The long-term goal is to ensure we have the most relevant data, represented in the most useful way for environmental research.</t>
+  </si>
+  <si>
+    <t>With the ability to quickly aggregate data, I am interested in studying how processes are represented at the watershed scale, and the impacts off changing conditions (e.g. land cover, climate, and disturbance). Most recently, I have been looking at issues related to urban infiltration, evapotranspiration, and operational flood mapping.</t>
+  </si>
+  <si>
+    <t>I am interested how regional changes in land cover and climate influence hydrologic conditions and variability. Current work has focused on the development of high-resolution climate and land cover forecasts for California. These will be used to drive the WRF-Hydro community model to better understand the independent and joint influences of land use and climate change of water availability in California. With these results we will explore vulnerable areas in the context of growth, groundwater pressures, and changing snowpack and runoff regimes.</t>
+  </si>
+  <si>
+    <t>While land use and climate change are major influences of the hydrologic cycle, human users exert a critical influence on water resource systems. Current work had developed a coupled agent based, hydrologic model to better understand how farmer behavior impacts ground water resources and food production in California’s Central Valley.</t>
+  </si>
+  <si>
+    <t>Toolchains for reproducable research</t>
+  </si>
+  <si>
+    <t>California 2100</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1198,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\$#,##0_);[Red]&quot;($&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1260,6 +1249,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1282,7 +1284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1314,6 +1316,10 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1716,7 +1722,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -1736,7 +1742,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="B2">
         <v>2019</v>
@@ -1748,12 +1754,12 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="B3">
         <v>2019</v>
@@ -1765,29 +1771,29 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="B4">
         <v>2019</v>
       </c>
       <c r="C4" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="D4" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="E4" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="B5">
         <v>2019</v>
@@ -1796,18 +1802,18 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="E5" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="B6">
         <v>2018</v>
@@ -1819,12 +1825,12 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="B7">
         <v>2018</v>
@@ -1836,12 +1842,12 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="B8">
         <v>2018</v>
@@ -1853,12 +1859,12 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="B9">
         <v>2017</v>
@@ -1870,29 +1876,29 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="B10">
         <v>2017</v>
       </c>
       <c r="C10" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="D10" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="E10" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="B11">
         <v>2017</v>
@@ -1901,18 +1907,18 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="E11" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="B12">
         <v>2016</v>
@@ -1924,12 +1930,12 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="B13">
         <v>2016</v>
@@ -1941,7 +1947,7 @@
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -1958,7 +1964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -1983,7 +1989,7 @@
         <v>163</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>164</v>
@@ -1998,259 +2004,259 @@
         <v>167</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="187" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="F6" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>220</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -2280,7 +2286,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>12</v>
@@ -2289,24 +2295,24 @@
         <v>114</v>
       </c>
       <c r="D1" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="E1" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="C2" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="D2" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="E2">
         <v>5000</v>
@@ -2314,16 +2320,16 @@
     </row>
     <row r="3" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="C3" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="D3" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="E3">
         <v>15000</v>
@@ -2331,16 +2337,16 @@
     </row>
     <row r="4" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="C4" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="D4" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="E4">
         <v>5000</v>
@@ -2348,16 +2354,16 @@
     </row>
     <row r="5" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="C5" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="D5" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="E5">
         <v>10000</v>
@@ -2394,7 +2400,7 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="D1" t="s">
         <v>13</v>
@@ -2403,7 +2409,7 @@
         <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2411,16 +2417,16 @@
         <v>2019</v>
       </c>
       <c r="B2" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="C2">
         <v>500</v>
       </c>
       <c r="D2" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="E2" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2428,16 +2434,16 @@
         <v>2019</v>
       </c>
       <c r="B3" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="C3">
         <v>5000</v>
       </c>
       <c r="D3" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="E3" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2445,13 +2451,13 @@
         <v>2019</v>
       </c>
       <c r="B4" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="D4" t="s">
         <v>131</v>
       </c>
       <c r="E4" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2459,16 +2465,16 @@
         <v>2019</v>
       </c>
       <c r="B5" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="C5">
         <v>2500</v>
       </c>
       <c r="D5" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="E5" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2476,16 +2482,16 @@
         <v>2018</v>
       </c>
       <c r="B6" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="C6">
         <v>200</v>
       </c>
       <c r="D6" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="E6" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2493,7 +2499,7 @@
         <v>2018</v>
       </c>
       <c r="B7" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="C7">
         <v>2400</v>
@@ -2502,7 +2508,7 @@
         <v>131</v>
       </c>
       <c r="E7" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2510,16 +2516,16 @@
         <v>2017</v>
       </c>
       <c r="B8" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="C8">
         <v>800</v>
       </c>
       <c r="D8" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="E8" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2527,16 +2533,16 @@
         <v>2017</v>
       </c>
       <c r="B9" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="C9">
         <v>500</v>
       </c>
       <c r="D9" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E9" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -2544,16 +2550,16 @@
         <v>2016</v>
       </c>
       <c r="B10" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="C10">
         <v>700</v>
       </c>
       <c r="D10" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="E10" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -2567,10 +2573,10 @@
         <v>30000</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="E11" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -2584,7 +2590,7 @@
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -2592,7 +2598,7 @@
         <v>2015</v>
       </c>
       <c r="B13" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="C13">
         <v>500</v>
@@ -2601,7 +2607,7 @@
         <v>122</v>
       </c>
       <c r="E13" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -2626,13 +2632,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="B1" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="C1" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2643,7 +2649,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2654,29 +2660,29 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="B4" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="C4" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2687,7 +2693,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2695,10 +2701,10 @@
         <v>162</v>
       </c>
       <c r="B7" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="C7" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2709,7 +2715,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -2745,7 +2751,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -2757,7 +2763,7 @@
         <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
@@ -2780,71 +2786,71 @@
     </row>
     <row r="2" spans="1:12" ht="70" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="C2">
         <v>2019</v>
       </c>
       <c r="D2" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="E2" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="G2" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="C3">
         <v>2019</v>
       </c>
       <c r="D3" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="E3" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="C4">
         <v>2019</v>
       </c>
       <c r="D4" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="E4" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2852,22 +2858,22 @@
     </row>
     <row r="5" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="C5">
         <v>2019</v>
       </c>
       <c r="D5" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="E5" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>30</v>
@@ -2878,23 +2884,23 @@
         <v>26</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="C6">
         <v>2019</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="12" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="I6" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>27</v>
@@ -2905,7 +2911,7 @@
         <v>31</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="C8">
         <v>2018</v>
@@ -2914,7 +2920,7 @@
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -2931,7 +2937,7 @@
         <v>36</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="C9">
         <v>2018</v>
@@ -2960,7 +2966,7 @@
         <v>43</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="C10">
         <v>2017</v>
@@ -2986,10 +2992,10 @@
     </row>
     <row r="11" spans="1:12" ht="42" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="C11">
         <v>2017</v>
@@ -3015,7 +3021,7 @@
         <v>53</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="C12">
         <v>2017</v>
@@ -3024,7 +3030,7 @@
         <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" t="s">
@@ -3039,7 +3045,7 @@
         <v>53</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="C13">
         <v>2017</v>
@@ -3048,7 +3054,7 @@
         <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="J13" s="14"/>
       <c r="K13" t="s">
@@ -3063,7 +3069,7 @@
         <v>53</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="C14">
         <v>2017</v>
@@ -3090,7 +3096,7 @@
         <v>65</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="C15">
         <v>2016</v>
@@ -3116,7 +3122,7 @@
         <v>71</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="C16">
         <v>2016</v>
@@ -3125,7 +3131,7 @@
         <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="G16" t="s">
         <v>68</v>
@@ -3139,19 +3145,19 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="C18">
         <v>2019</v>
       </c>
       <c r="D18" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="E18" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -3159,19 +3165,19 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="C19">
         <v>2020</v>
       </c>
       <c r="D19" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="E19" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -3179,27 +3185,27 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="C20">
         <v>2020</v>
       </c>
       <c r="D20" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="E20" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="42" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="C21">
         <v>2020</v>
@@ -3208,13 +3214,13 @@
         <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="J21" s="14" t="s">
         <v>29</v>
@@ -3223,19 +3229,19 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="C22">
         <v>2020</v>
       </c>
       <c r="D22" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="E22" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -3289,7 +3295,7 @@
         <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="C2" t="s">
         <v>77</v>
@@ -3303,7 +3309,7 @@
         <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="C3" t="s">
         <v>78</v>
@@ -3345,7 +3351,7 @@
         <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="C6" t="s">
         <v>85</v>
@@ -3359,7 +3365,7 @@
         <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="C7" t="s">
         <v>88</v>
@@ -3373,7 +3379,7 @@
         <v>90</v>
       </c>
       <c r="B8" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="C8" t="s">
         <v>91</v>
@@ -3429,7 +3435,7 @@
         <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="C12" t="s">
         <v>102</v>
@@ -3443,7 +3449,7 @@
         <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="C13" t="s">
         <v>104</v>
@@ -3474,7 +3480,7 @@
         <v>110</v>
       </c>
       <c r="C15" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="D15" t="s">
         <v>82</v>
@@ -3542,7 +3548,7 @@
         <v>2017</v>
       </c>
       <c r="B3" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3594,18 +3600,18 @@
         <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="B3" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="C3" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3627,7 +3633,7 @@
         <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3635,7 +3641,7 @@
         <v>2017</v>
       </c>
       <c r="B6" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="C6" t="s">
         <v>121</v>
@@ -3646,7 +3652,7 @@
         <v>2016</v>
       </c>
       <c r="B7" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="C7" t="s">
         <v>121</v>
@@ -3657,7 +3663,7 @@
         <v>2016</v>
       </c>
       <c r="B8" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="C8" t="s">
         <v>122</v>
@@ -3668,7 +3674,7 @@
         <v>2015</v>
       </c>
       <c r="B9" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="C9" t="s">
         <v>123</v>
@@ -3676,10 +3682,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="B10" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="C10" t="s">
         <v>124</v>
@@ -3687,7 +3693,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="B11" t="s">
         <v>119</v>
@@ -3701,10 +3707,10 @@
         <v>2014</v>
       </c>
       <c r="B12" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="C12" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3712,10 +3718,10 @@
         <v>2013</v>
       </c>
       <c r="B13" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="C13" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -3792,7 +3798,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>135</v>
@@ -3815,7 +3821,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>138</v>
@@ -3827,7 +3833,7 @@
         <v>42.373600000000003</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="F4" s="3">
         <v>50</v>
@@ -3985,23 +3991,22 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="57" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="B2" activeCellId="1" sqref="I8 B2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="57" zoomScaleNormal="44" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="42" customWidth="1"/>
-    <col min="5" max="5" width="55" style="8" customWidth="1"/>
-    <col min="6" max="1025" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="1024" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>163</v>
       </c>
@@ -4009,93 +4014,78 @@
         <v>164</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" t="s">
         <v>166</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="153" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="C3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="C4" t="s">
+        <v>373</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="B5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C5" t="s">
+        <v>371</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="B6" t="s">
         <v>168</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C6" t="s">
         <v>169</v>
       </c>
-      <c r="C2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="170" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="119" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="119" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>189</v>
-      </c>
+      <c r="D6" s="19" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikejohnson/Documents/GitHub/mikejohnson51/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399098E4-8BBC-8849-96FF-F74F23128150}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84140B78-B35C-C449-A4B3-2E1679767A82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1157,9 +1157,6 @@
     <t xml:space="preserve">Human Behavior in Water Resource Systems </t>
   </si>
   <si>
-    <t>resources/images/current_work/resample.tiff</t>
-  </si>
-  <si>
     <t>resources/images/current_work/ca100.png</t>
   </si>
   <si>
@@ -1189,6 +1186,9 @@
   </si>
   <si>
     <t>California 2100</t>
+  </si>
+  <si>
+    <t>resources/images/current_work/resample.png</t>
   </si>
 </sst>
 </file>
@@ -3994,7 +3994,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="57" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4025,13 +4025,13 @@
         <v>365</v>
       </c>
       <c r="B2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4039,10 +4039,10 @@
         <v>366</v>
       </c>
       <c r="C3" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4050,10 +4050,10 @@
         <v>367</v>
       </c>
       <c r="C4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4061,13 +4061,13 @@
         <v>368</v>
       </c>
       <c r="B5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4081,7 +4081,7 @@
         <v>169</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikejohnson/Documents/GitHub/mikejohnson51/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84140B78-B35C-C449-A4B3-2E1679767A82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B01F8B4-AC62-8B49-B888-4B21BCD88D2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teaching" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,14 @@
     <sheet name="software" sheetId="9" r:id="rId10"/>
     <sheet name="funded_research" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="404">
   <si>
     <t>data</t>
   </si>
@@ -995,9 +997,6 @@
     <t>The impact of the last two decades of California fires on evapotranspiration as seen from space</t>
   </si>
   <si>
-    <t>A New Method for Categorical Raster Resampling: Implications for Environmental Modeling</t>
-  </si>
-  <si>
     <t>Geosciences and Remote Sensing</t>
   </si>
   <si>
@@ -1025,13 +1024,7 @@
     <t>Mainstems and drainage basins: the organizing principles of surface water</t>
   </si>
   <si>
-    <t>David Blodgett, Mark Sondheim, {\me}, Michael Wieczorek</t>
-  </si>
-  <si>
     <t>PLOS ONE</t>
-  </si>
-  <si>
-    <t>Jounal of Hydrology</t>
   </si>
   <si>
     <t>{\me}, Coll J.M, et al</t>
@@ -1189,6 +1182,84 @@
   </si>
   <si>
     <t>resources/images/current_work/resample.png</t>
+  </si>
+  <si>
+    <t>Urban Flooding Open Knowledge Network</t>
+  </si>
+  <si>
+    <t>2019-2020</t>
+  </si>
+  <si>
+    <t>NSF (PI at the Universtiy of Cinncinati)</t>
+  </si>
+  <si>
+    <t>Team Member</t>
+  </si>
+  <si>
+    <t>Urban Flooding Open Knowledge Network Convergance Project: Phase 1</t>
+  </si>
+  <si>
+    <t>David Blodgett, {\me}, Mark Sondheim,  Michael Wieczorek, Nels Frazier</t>
+  </si>
+  <si>
+    <t>National Science Foundation AEIO</t>
+  </si>
+  <si>
+    <t>San Fransisco</t>
+  </si>
+  <si>
+    <t>Raligh, North Carolina</t>
+  </si>
+  <si>
+    <t>Keith C. Clarke, {\me}</t>
+  </si>
+  <si>
+    <t>Calibrating SLEUTH with Big Data: Projecting California’s Land Use to 2100</t>
+  </si>
+  <si>
+    <t>Damiola Eyelade, {\me}</t>
+  </si>
+  <si>
+    <t>Journal of Hydrology X</t>
+  </si>
+  <si>
+    <t>Modeling Earth Systems and Environment</t>
+  </si>
+  <si>
+    <t>Land Use Change in California, 2001-2100.</t>
+  </si>
+  <si>
+    <t>Nature: Data Science</t>
+  </si>
+  <si>
+    <t>Dec 2019</t>
+  </si>
+  <si>
+    <t>Dec 2020</t>
+  </si>
+  <si>
+    <t>Dec 2021</t>
+  </si>
+  <si>
+    <t>Representing Landover in the National Water Model</t>
+  </si>
+  <si>
+    <t>presentation (Google Booth)</t>
+  </si>
+  <si>
+    <t>A New Method for Categorical Raster Resampling</t>
+  </si>
+  <si>
+    <t>Using Google Earth Engine and MODIS T to detect watershed disturbance</t>
+  </si>
+  <si>
+    <t>Identifyinh distrubed watersheds using 20 years of MODIS and Google Earth Engine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parametrizing Roughness Coefficients for CONUS Scale Synthetic Rating Curves </t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
 </sst>
 </file>
@@ -1198,7 +1269,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\$#,##0_);[Red]&quot;($&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1261,6 +1332,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1964,7 +2041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -2021,7 +2098,7 @@
         <v>173</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>174</v>
@@ -2039,7 +2116,7 @@
         <v>178</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="119" x14ac:dyDescent="0.2">
@@ -2047,7 +2124,7 @@
         <v>179</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>180</v>
@@ -2070,7 +2147,7 @@
         <v>185</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>186</v>
@@ -2094,7 +2171,7 @@
         <v>190</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="102" x14ac:dyDescent="0.2">
@@ -2102,7 +2179,7 @@
         <v>192</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>193</v>
@@ -2128,7 +2205,7 @@
         <v>198</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>199</v>
@@ -2151,7 +2228,7 @@
         <v>202</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>203</v>
@@ -2168,13 +2245,13 @@
         <v>206</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>222</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>207</v>
@@ -2194,7 +2271,7 @@
         <v>211</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>212</v>
@@ -2214,7 +2291,7 @@
         <v>213</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>214</v>
@@ -2246,7 +2323,7 @@
         <v>310</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>311</v>
@@ -2273,15 +2350,18 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A30E3E98-4FB8-5749-BC05-8B7137D7F368}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2295,82 +2375,97 @@
         <v>114</v>
       </c>
       <c r="D1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="C2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C3" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="D3" t="s">
         <v>351</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="C2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E2">
+      <c r="E3">
         <v>5000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>355</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="C3" t="s">
-        <v>357</v>
-      </c>
-      <c r="D3" t="s">
-        <v>358</v>
-      </c>
-      <c r="E3">
-        <v>15000</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E4">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>309</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B5" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="C5" t="s">
+        <v>357</v>
+      </c>
+      <c r="D5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C6" t="s">
+        <v>357</v>
+      </c>
+      <c r="D6" t="s">
         <v>359</v>
       </c>
-      <c r="C4" t="s">
-        <v>360</v>
-      </c>
-      <c r="D4" t="s">
-        <v>358</v>
-      </c>
-      <c r="E4">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="153" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>355</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="C5" t="s">
-        <v>360</v>
-      </c>
-      <c r="D5" t="s">
-        <v>362</v>
-      </c>
-      <c r="E5">
+      <c r="E6">
         <v>10000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2409,7 +2504,7 @@
         <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2443,7 +2538,7 @@
         <v>256</v>
       </c>
       <c r="E3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2451,13 +2546,13 @@
         <v>2019</v>
       </c>
       <c r="B4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D4" t="s">
         <v>131</v>
       </c>
       <c r="E4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2465,7 +2560,7 @@
         <v>2019</v>
       </c>
       <c r="B5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C5">
         <v>2500</v>
@@ -2474,7 +2569,7 @@
         <v>298</v>
       </c>
       <c r="E5" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2508,7 +2603,7 @@
         <v>131</v>
       </c>
       <c r="E7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2576,7 +2671,7 @@
         <v>258</v>
       </c>
       <c r="E11" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -2590,7 +2685,7 @@
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -2607,7 +2702,7 @@
         <v>122</v>
       </c>
       <c r="E13" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -2725,19 +2820,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A9" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.83203125" customWidth="1"/>
     <col min="3" max="3" width="28.5" customWidth="1"/>
     <col min="4" max="4" width="116.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="77" customWidth="1"/>
+    <col min="5" max="5" width="169" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77" customWidth="1"/>
     <col min="7" max="7" width="63.6640625" customWidth="1"/>
     <col min="8" max="8" width="38.6640625" customWidth="1"/>
     <col min="9" max="9" width="32.33203125" bestFit="1" customWidth="1"/>
@@ -2763,7 +2859,7 @@
         <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
@@ -2789,7 +2885,7 @@
         <v>235</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C2">
         <v>2019</v>
@@ -2812,7 +2908,7 @@
         <v>241</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C3">
         <v>2019</v>
@@ -2841,7 +2937,7 @@
         <v>241</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C4">
         <v>2019</v>
@@ -2850,7 +2946,7 @@
         <v>237</v>
       </c>
       <c r="E4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2861,7 +2957,7 @@
         <v>238</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C5">
         <v>2019</v>
@@ -2884,7 +2980,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C6">
         <v>2019</v>
@@ -2911,7 +3007,7 @@
         <v>31</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C8">
         <v>2018</v>
@@ -2920,7 +3016,7 @@
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -2937,7 +3033,7 @@
         <v>36</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C9">
         <v>2018</v>
@@ -2966,7 +3062,7 @@
         <v>43</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C10">
         <v>2017</v>
@@ -2992,7 +3088,7 @@
     </row>
     <row r="11" spans="1:12" ht="42" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>291</v>
@@ -3030,7 +3126,7 @@
         <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" t="s">
@@ -3054,7 +3150,7 @@
         <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="J13" s="14"/>
       <c r="K13" t="s">
@@ -3143,21 +3239,41 @@
         <v>73</v>
       </c>
     </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C17">
+        <v>2019</v>
+      </c>
+      <c r="D17" t="s">
+        <v>323</v>
+      </c>
+      <c r="E17" t="s">
+        <v>322</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C18">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D18" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="E18" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -3165,91 +3281,122 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C19">
         <v>2020</v>
       </c>
       <c r="D19" t="s">
-        <v>315</v>
+        <v>399</v>
       </c>
       <c r="E19" t="s">
-        <v>327</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="42" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C20">
         <v>2020</v>
       </c>
       <c r="D20" t="s">
-        <v>316</v>
+        <v>28</v>
       </c>
       <c r="E20" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="C21">
         <v>2020</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>324</v>
       </c>
       <c r="E21" t="s">
-        <v>318</v>
+        <v>390</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
-      <c r="G21" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>326</v>
+        <v>387</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="C22">
         <v>2020</v>
       </c>
       <c r="D22" t="s">
-        <v>325</v>
+        <v>388</v>
       </c>
       <c r="E22" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="F22">
-        <v>1</v>
+      <c r="C23">
+        <v>2020</v>
+      </c>
+      <c r="D23" t="s">
+        <v>402</v>
+      </c>
+      <c r="E23" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C24">
+        <v>2020</v>
+      </c>
+      <c r="D24" t="s">
+        <v>392</v>
+      </c>
+      <c r="E24" t="s">
+        <v>393</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G21" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="G20" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
     <hyperlink ref="H3" r:id="rId2" xr:uid="{EDB1E5CE-989F-A048-AB3F-B8DDD1C9772C}"/>
     <hyperlink ref="G5" r:id="rId3" xr:uid="{4AB00A8A-D1C4-F44D-BEC6-4EE1437F4BF9}"/>
     <hyperlink ref="G3" r:id="rId4" xr:uid="{D99F2ED0-AF0F-FB47-9F40-A04876AB15FE}"/>
@@ -3261,10 +3408,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView zoomScale="114" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3272,7 +3419,7 @@
     <col min="1" max="1" width="9.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="55.83203125" customWidth="1"/>
     <col min="3" max="3" width="101.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3292,55 +3439,55 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>76</v>
+        <v>394</v>
       </c>
       <c r="B2" t="s">
         <v>304</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>397</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>76</v>
+        <v>395</v>
       </c>
       <c r="B3" t="s">
         <v>304</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>401</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>79</v>
+        <v>396</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>304</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>304</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
         <v>82</v>
@@ -3348,125 +3495,125 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>304</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>224</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>305</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>304</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>306</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>225</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
         <v>82</v>
@@ -3474,13 +3621,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>306</v>
       </c>
       <c r="C15" t="s">
-        <v>340</v>
+        <v>102</v>
       </c>
       <c r="D15" t="s">
         <v>82</v>
@@ -3488,25 +3635,68 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" t="s">
+        <v>337</v>
+      </c>
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B19" t="s">
         <v>112</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C19" t="s">
         <v>113</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D19" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="B24" s="6"/>
-    </row>
-    <row r="26" spans="2:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="B26" s="6"/>
+    <row r="27" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="B27" s="6"/>
+    </row>
+    <row r="29" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="B29" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -3567,10 +3757,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="156" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="156" zoomScaleNormal="44" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3593,135 +3783,157 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="16">
+      <c r="A2">
         <v>2019</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>384</v>
       </c>
       <c r="C2" t="s">
-        <v>299</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>283</v>
+      <c r="A3">
+        <v>2019</v>
       </c>
       <c r="B3" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="C3" t="s">
-        <v>246</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="s">
         <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="16">
-        <v>2018</v>
+      <c r="A5" s="17" t="s">
+        <v>283</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>339</v>
       </c>
       <c r="C5" t="s">
-        <v>298</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B6" t="s">
-        <v>284</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="B7" t="s">
-        <v>348</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B8" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
+        <v>2016</v>
+      </c>
+      <c r="B9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
+        <v>2016</v>
+      </c>
+      <c r="B10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
         <v>2015</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>286</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>247</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>119</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="16">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="16">
         <v>2014</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>287</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="16">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="16">
         <v>2013</v>
       </c>
-      <c r="B13" t="s">
-        <v>332</v>
-      </c>
-      <c r="C13" t="s">
-        <v>333</v>
+      <c r="B15" t="s">
+        <v>329</v>
+      </c>
+      <c r="C15" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -3734,8 +3946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3993,7 +4205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="57" zoomScaleNormal="44" workbookViewId="0">
+    <sheetView zoomScale="57" zoomScaleNormal="44" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -4022,57 +4234,57 @@
     </row>
     <row r="2" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C4" t="s">
+        <v>369</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>372</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C5" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B6" t="s">
         <v>168</v>
@@ -4081,7 +4293,7 @@
         <v>169</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikejohnson/Documents/GitHub/mikejohnson51/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B01F8B4-AC62-8B49-B888-4B21BCD88D2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A4511B-711C-EC4E-B53C-E4B6D1AD9EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teaching" sheetId="1" r:id="rId1"/>
@@ -2822,8 +2822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3328,7 +3328,7 @@
         <v>383</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="C21">
         <v>2020</v>
@@ -3382,7 +3382,7 @@
         <v>387</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="C24">
         <v>2020</v>
@@ -3946,7 +3946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikejohnson/Documents/GitHub/mikejohnson51/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A4511B-711C-EC4E-B53C-E4B6D1AD9EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA046C56-C696-4247-9AF7-796EDAA10FCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teaching" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="407">
   <si>
     <t>data</t>
   </si>
@@ -1232,9 +1232,6 @@
     <t>Nature: Data Science</t>
   </si>
   <si>
-    <t>Dec 2019</t>
-  </si>
-  <si>
     <t>Dec 2020</t>
   </si>
   <si>
@@ -1259,7 +1256,19 @@
     <t xml:space="preserve">Parametrizing Roughness Coefficients for CONUS Scale Synthetic Rating Curves </t>
   </si>
   <si>
-    <t>TBD</t>
+    <t>Dr. Werner Kuhn</t>
+  </si>
+  <si>
+    <t>Introduction to Remote Sensing and Digital Image Processing</t>
+  </si>
+  <si>
+    <t>Alana Ayasse</t>
+  </si>
+  <si>
+    <t>Geophysical Research Letters</t>
+  </si>
+  <si>
+    <t>https://github.com/mikejohnson51/SRCgeneration</t>
   </si>
 </sst>
 </file>
@@ -1781,10 +1790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="44" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1794,7 +1803,8 @@
     <col min="3" max="3" width="52.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="1025" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1819,16 +1829,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>403</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>404</v>
       </c>
       <c r="E2" t="s">
         <v>276</v>
@@ -1836,16 +1846,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B3">
         <v>2019</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>402</v>
       </c>
       <c r="E3" t="s">
         <v>276</v>
@@ -1853,70 +1863,70 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B4">
         <v>2019</v>
       </c>
       <c r="C4" t="s">
-        <v>239</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>240</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B5">
         <v>2019</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>239</v>
       </c>
       <c r="D5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E5" t="s">
-        <v>281</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B6">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>244</v>
       </c>
       <c r="E6" t="s">
-        <v>276</v>
+        <v>281</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B7">
         <v>2018</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
         <v>276</v>
@@ -1924,113 +1934,130 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B8">
         <v>2018</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B9">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B10">
         <v>2017</v>
       </c>
       <c r="C10" t="s">
-        <v>271</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>253</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B11">
         <v>2017</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>271</v>
       </c>
       <c r="D11" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="E11" t="s">
-        <v>281</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B12">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>244</v>
       </c>
       <c r="E12" t="s">
-        <v>276</v>
+        <v>281</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B13">
         <v>2016</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
         <v>276</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>277</v>
+      </c>
+      <c r="B14">
+        <v>2016</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>276</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1" xr:uid="{2712DA81-3E6F-694E-BA29-B446F68F2C4C}"/>
-    <hyperlink ref="F11" r:id="rId2" xr:uid="{10422249-9E5C-FB4C-BC18-65775B4398EE}"/>
+    <hyperlink ref="F6" r:id="rId1" xr:uid="{2712DA81-3E6F-694E-BA29-B446F68F2C4C}"/>
+    <hyperlink ref="F12" r:id="rId2" xr:uid="{10422249-9E5C-FB4C-BC18-65775B4398EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2352,8 +2379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A30E3E98-4FB8-5749-BC05-8B7137D7F368}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2820,10 +2847,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="E1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2880,342 +2907,350 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="70" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>235</v>
+        <v>53</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="C2">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D2" t="s">
-        <v>249</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G2" t="s">
-        <v>245</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>252</v>
+        <v>341</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="K2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>241</v>
+        <v>53</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="C3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D3" t="s">
-        <v>293</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>251</v>
+        <v>342</v>
+      </c>
+      <c r="J3" s="14"/>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4">
+        <v>2017</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="14"/>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C5">
+        <v>2020</v>
+      </c>
+      <c r="D5" t="s">
+        <v>388</v>
+      </c>
+      <c r="E5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="C4">
-        <v>2019</v>
-      </c>
-      <c r="D4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E4" t="s">
-        <v>343</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="28" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C5">
-        <v>2019</v>
-      </c>
-      <c r="D5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E5" t="s">
-        <v>234</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="56" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>331</v>
       </c>
       <c r="C6">
         <v>2019</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="F6" s="5"/>
+      <c r="D6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E6" t="s">
+        <v>250</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
       <c r="G6" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="I6" t="s">
-        <v>232</v>
+        <v>296</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="42" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C7">
+        <v>2020</v>
+      </c>
+      <c r="D7" t="s">
+        <v>324</v>
+      </c>
+      <c r="E7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>31</v>
+        <v>387</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C8">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>392</v>
       </c>
       <c r="E8" t="s">
-        <v>335</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="56" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="70" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>36</v>
+        <v>235</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>331</v>
       </c>
       <c r="C9">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>249</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>236</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" t="s">
-        <v>41</v>
+        <v>245</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="42" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>43</v>
+        <v>238</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>331</v>
       </c>
       <c r="C10">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>233</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="56" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C11">
+        <v>2019</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="I11" t="s">
+        <v>232</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="42" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C12">
+        <v>2018</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>335</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="56" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C13">
+        <v>2018</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" t="s">
         <v>40</v>
       </c>
-      <c r="I10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="42" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C11">
-        <v>2017</v>
-      </c>
-      <c r="D11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C12">
-        <v>2017</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" t="s">
-        <v>341</v>
-      </c>
-      <c r="J12" s="14"/>
-      <c r="K12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C13">
-        <v>2017</v>
-      </c>
-      <c r="D13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" t="s">
-        <v>342</v>
-      </c>
-      <c r="J13" s="14"/>
-      <c r="K13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="42" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="C14">
         <v>2017</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s">
-        <v>62</v>
-      </c>
-      <c r="J14" s="14"/>
-      <c r="K14" t="s">
-        <v>63</v>
-      </c>
-      <c r="L14" t="s">
-        <v>64</v>
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>65</v>
+        <v>326</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>291</v>
       </c>
       <c r="C15">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="I15" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="56" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="84" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>291</v>
@@ -3224,10 +3259,10 @@
         <v>2016</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>242</v>
+        <v>67</v>
       </c>
       <c r="G16" t="s">
         <v>68</v>
@@ -3236,44 +3271,50 @@
         <v>69</v>
       </c>
       <c r="J16" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C17">
+        <v>2016</v>
+      </c>
+      <c r="D17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" t="s">
+        <v>242</v>
+      </c>
+      <c r="G17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17" s="14" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C17">
-        <v>2019</v>
-      </c>
-      <c r="D17" t="s">
-        <v>323</v>
-      </c>
-      <c r="E17" t="s">
-        <v>322</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>319</v>
+        <v>241</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>328</v>
       </c>
       <c r="C18">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D18" t="s">
-        <v>315</v>
+        <v>237</v>
       </c>
       <c r="E18" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -3281,24 +3322,27 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>328</v>
       </c>
       <c r="C19">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D19" t="s">
-        <v>399</v>
+        <v>323</v>
       </c>
       <c r="E19" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="42" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>328</v>
@@ -3307,99 +3351,89 @@
         <v>2020</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>315</v>
       </c>
       <c r="E20" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
-      <c r="G20" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>383</v>
+        <v>318</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C21">
         <v>2020</v>
       </c>
       <c r="D21" t="s">
-        <v>324</v>
+        <v>398</v>
       </c>
       <c r="E21" t="s">
-        <v>390</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>387</v>
+        <v>344</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="C22">
         <v>2020</v>
       </c>
       <c r="D22" t="s">
-        <v>388</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>391</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>389</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C23">
         <v>2020</v>
       </c>
       <c r="D23" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E23" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C24">
-        <v>2020</v>
-      </c>
-      <c r="D24" t="s">
-        <v>392</v>
-      </c>
-      <c r="E24" t="s">
-        <v>393</v>
+        <v>405</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>406</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L24">
+    <sortCondition ref="B2"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="G20" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{EDB1E5CE-989F-A048-AB3F-B8DDD1C9772C}"/>
-    <hyperlink ref="G5" r:id="rId3" xr:uid="{4AB00A8A-D1C4-F44D-BEC6-4EE1437F4BF9}"/>
-    <hyperlink ref="G3" r:id="rId4" xr:uid="{D99F2ED0-AF0F-FB47-9F40-A04876AB15FE}"/>
+    <hyperlink ref="G22" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="H6" r:id="rId2" xr:uid="{EDB1E5CE-989F-A048-AB3F-B8DDD1C9772C}"/>
+    <hyperlink ref="G10" r:id="rId3" xr:uid="{4AB00A8A-D1C4-F44D-BEC6-4EE1437F4BF9}"/>
+    <hyperlink ref="G6" r:id="rId4" xr:uid="{D99F2ED0-AF0F-FB47-9F40-A04876AB15FE}"/>
+    <hyperlink ref="H23" r:id="rId5" xr:uid="{CA127C71-005C-A84D-9DD5-01F09E0A0A2F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3411,7 +3445,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView zoomScale="114" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3445,7 +3479,7 @@
         <v>304</v>
       </c>
       <c r="C2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D2" t="s">
         <v>86</v>
@@ -3453,13 +3487,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B3" t="s">
         <v>304</v>
       </c>
       <c r="C3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D3" t="s">
         <v>105</v>
@@ -3467,16 +3501,16 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B4" t="s">
         <v>304</v>
       </c>
       <c r="C4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
